--- a/Tables/Alluvial- Appendix.xlsx
+++ b/Tables/Alluvial- Appendix.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG47"/>
+  <dimension ref="A1:AG48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1168,7 +1168,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>MCA-1</t>
+          <t>CDBO-6</t>
         </is>
       </c>
       <c r="B6" s="1" t="inlineStr">
@@ -1178,17 +1178,17 @@
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>35.86578</t>
+          <t>35.85026</t>
         </is>
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>-106.29668</t>
+          <t>-106.2642</t>
         </is>
       </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t>7070.600</t>
+          <t>6817.2</t>
         </is>
       </c>
       <c r="F6" s="1" t="inlineStr">
@@ -1198,40 +1198,32 @@
       </c>
       <c r="G6" s="1" t="inlineStr">
         <is>
-          <t>2005-01-24 00:00:00</t>
+          <t>1992-06-01 00:00:00</t>
         </is>
       </c>
       <c r="H6" s="1" t="inlineStr">
         <is>
-          <t>5.90</t>
+          <t>49.00</t>
         </is>
       </c>
       <c r="I6" s="1" t="inlineStr">
         <is>
-          <t>1 in</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J6" s="1" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>34</t>
         </is>
       </c>
       <c r="K6" s="1" t="inlineStr">
         <is>
-          <t>5.400</t>
-        </is>
-      </c>
-      <c r="L6" s="1" t="inlineStr">
-        <is>
-          <t>Brass cap location, Brass cap location, Brass cap location</t>
-        </is>
-      </c>
+          <t>44.000</t>
+        </is>
+      </c>
+      <c r="L6" s="1" t="inlineStr"/>
       <c r="M6" s="1" t="inlineStr"/>
-      <c r="N6" s="1" t="inlineStr">
-        <is>
-          <t>MON</t>
-        </is>
-      </c>
+      <c r="N6" s="1" t="inlineStr"/>
       <c r="O6" s="1" t="inlineStr">
         <is>
           <t>General</t>
@@ -1239,7 +1231,7 @@
       </c>
       <c r="P6" s="1" t="inlineStr">
         <is>
-          <t>Upper Mortendad</t>
+          <t>Mortendad</t>
         </is>
       </c>
       <c r="Q6" s="1" t="inlineStr">
@@ -1255,7 +1247,7 @@
       </c>
       <c r="T6" s="1" t="inlineStr">
         <is>
-          <t>Geologic Unit Code updated from MW, Well Diameter [in] updated from MW</t>
+          <t>Ground Elevation updated from MW</t>
         </is>
       </c>
       <c r="U6" s="1" t="inlineStr">
@@ -1265,22 +1257,22 @@
       </c>
       <c r="V6" s="1" t="inlineStr">
         <is>
-          <t>17.1</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="W6" s="1" t="inlineStr">
         <is>
-          <t>2008-05-20</t>
+          <t>2008-05-22</t>
         </is>
       </c>
       <c r="X6" s="1" t="inlineStr">
         <is>
-          <t>11.3</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="Y6" s="1" t="inlineStr">
         <is>
-          <t>2008-11-06</t>
+          <t>2010-08-02</t>
         </is>
       </c>
       <c r="Z6" s="1" t="inlineStr">
@@ -1305,15 +1297,11 @@
       </c>
       <c r="AD6" s="1" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>33</t>
         </is>
       </c>
       <c r="AE6" s="1" t="inlineStr"/>
-      <c r="AF6" s="1" t="inlineStr">
-        <is>
-          <t>Exceedance</t>
-        </is>
-      </c>
+      <c r="AF6" s="1" t="inlineStr"/>
       <c r="AG6" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">Substantial
@@ -1324,7 +1312,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>MCA-4</t>
+          <t>CDBO-7</t>
         </is>
       </c>
       <c r="B7" s="1" t="inlineStr">
@@ -1334,60 +1322,44 @@
       </c>
       <c r="C7" s="1" t="inlineStr">
         <is>
-          <t>35.865</t>
+          <t>35.84625</t>
         </is>
       </c>
       <c r="D7" s="1" t="inlineStr">
         <is>
-          <t>-106.29884</t>
+          <t>-106.26018</t>
         </is>
       </c>
       <c r="E7" s="1" t="inlineStr">
         <is>
-          <t>7135.100</t>
-        </is>
-      </c>
-      <c r="F7" s="1" t="inlineStr">
-        <is>
-          <t>Qal</t>
-        </is>
-      </c>
+          <t>6771.81</t>
+        </is>
+      </c>
+      <c r="F7" s="1" t="inlineStr"/>
       <c r="G7" s="1" t="inlineStr">
         <is>
-          <t>2005-02-05 00:00:00</t>
+          <t>1992-06-01 00:00:00</t>
         </is>
       </c>
       <c r="H7" s="1" t="inlineStr">
         <is>
-          <t>5.40</t>
-        </is>
-      </c>
-      <c r="I7" s="1" t="inlineStr">
-        <is>
-          <t>1.0 in</t>
-        </is>
-      </c>
+          <t>44.00</t>
+        </is>
+      </c>
+      <c r="I7" s="1" t="inlineStr"/>
       <c r="J7" s="1" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t>29</t>
         </is>
       </c>
       <c r="K7" s="1" t="inlineStr">
         <is>
-          <t>5.300</t>
-        </is>
-      </c>
-      <c r="L7" s="1" t="inlineStr">
-        <is>
-          <t>Brass cap location, Brass cap location, Brass cap location</t>
-        </is>
-      </c>
+          <t>39.000</t>
+        </is>
+      </c>
+      <c r="L7" s="1" t="inlineStr"/>
       <c r="M7" s="1" t="inlineStr"/>
-      <c r="N7" s="1" t="inlineStr">
-        <is>
-          <t>MON</t>
-        </is>
-      </c>
+      <c r="N7" s="1" t="inlineStr"/>
       <c r="O7" s="1" t="inlineStr">
         <is>
           <t>General</t>
@@ -1395,7 +1367,7 @@
       </c>
       <c r="P7" s="1" t="inlineStr">
         <is>
-          <t>Upper Mortendad</t>
+          <t>Mortendad</t>
         </is>
       </c>
       <c r="Q7" s="1" t="inlineStr">
@@ -1411,496 +1383,536 @@
       </c>
       <c r="T7" s="1" t="inlineStr">
         <is>
+          <t>Ground Elevation updated from MW</t>
+        </is>
+      </c>
+      <c r="U7" s="1" t="inlineStr">
+        <is>
+          <t>Well Info</t>
+        </is>
+      </c>
+      <c r="V7" s="1" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="W7" s="1" t="inlineStr">
+        <is>
+          <t>2008-11-13</t>
+        </is>
+      </c>
+      <c r="X7" s="1" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="Y7" s="1" t="inlineStr">
+        <is>
+          <t>2009-05-06</t>
+        </is>
+      </c>
+      <c r="Z7" s="1" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="AA7" s="1" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="AB7" s="1" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="AC7" s="1" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="AD7" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AE7" s="1" t="inlineStr"/>
+      <c r="AF7" s="1" t="inlineStr"/>
+      <c r="AG7" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Substantial
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>MCA-1</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>Alluvial</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>35.86578</t>
+        </is>
+      </c>
+      <c r="D8" s="1" t="inlineStr">
+        <is>
+          <t>-106.29668</t>
+        </is>
+      </c>
+      <c r="E8" s="1" t="inlineStr">
+        <is>
+          <t>7070.600</t>
+        </is>
+      </c>
+      <c r="F8" s="1" t="inlineStr">
+        <is>
+          <t>Qal</t>
+        </is>
+      </c>
+      <c r="G8" s="1" t="inlineStr">
+        <is>
+          <t>2005-01-24 00:00:00</t>
+        </is>
+      </c>
+      <c r="H8" s="1" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="I8" s="1" t="inlineStr">
+        <is>
+          <t>1 in</t>
+        </is>
+      </c>
+      <c r="J8" s="1" t="inlineStr">
+        <is>
+          <t>2.4</t>
+        </is>
+      </c>
+      <c r="K8" s="1" t="inlineStr">
+        <is>
+          <t>5.400</t>
+        </is>
+      </c>
+      <c r="L8" s="1" t="inlineStr">
+        <is>
+          <t>Brass cap location, Brass cap location, Brass cap location</t>
+        </is>
+      </c>
+      <c r="M8" s="1" t="inlineStr"/>
+      <c r="N8" s="1" t="inlineStr">
+        <is>
+          <t>MON</t>
+        </is>
+      </c>
+      <c r="O8" s="1" t="inlineStr">
+        <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="P8" s="1" t="inlineStr">
+        <is>
+          <t>Mortendad</t>
+        </is>
+      </c>
+      <c r="Q8" s="1" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R8" s="1" t="inlineStr"/>
+      <c r="S8" s="1" t="inlineStr">
+        <is>
+          <t>[84]</t>
+        </is>
+      </c>
+      <c r="T8" s="1" t="inlineStr">
+        <is>
           <t>Geologic Unit Code updated from MW, Well Diameter [in] updated from MW</t>
         </is>
       </c>
-      <c r="U7" s="1" t="inlineStr">
+      <c r="U8" s="1" t="inlineStr">
         <is>
           <t>Well Info</t>
         </is>
       </c>
-      <c r="V7" s="1" t="inlineStr">
+      <c r="V8" s="1" t="inlineStr">
+        <is>
+          <t>17.1</t>
+        </is>
+      </c>
+      <c r="W8" s="1" t="inlineStr">
+        <is>
+          <t>2008-05-20</t>
+        </is>
+      </c>
+      <c r="X8" s="1" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="Y8" s="1" t="inlineStr">
+        <is>
+          <t>2009-08-06</t>
+        </is>
+      </c>
+      <c r="Z8" s="1" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="AA8" s="1" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="AB8" s="1" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="AC8" s="1" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="AD8" s="1" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="AE8" s="1" t="inlineStr"/>
+      <c r="AF8" s="1" t="inlineStr">
+        <is>
+          <t>Exceedance</t>
+        </is>
+      </c>
+      <c r="AG8" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Substantial
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>MCA-2</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>Alluvial</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t>35.86077</t>
+        </is>
+      </c>
+      <c r="D9" s="1" t="inlineStr">
+        <is>
+          <t>-106.27133</t>
+        </is>
+      </c>
+      <c r="E9" s="1" t="inlineStr">
+        <is>
+          <t>6837.200</t>
+        </is>
+      </c>
+      <c r="F9" s="1" t="inlineStr">
+        <is>
+          <t>Qal</t>
+        </is>
+      </c>
+      <c r="G9" s="1" t="inlineStr">
+        <is>
+          <t>2004-10-24 00:00:00</t>
+        </is>
+      </c>
+      <c r="H9" s="1" t="inlineStr">
+        <is>
+          <t>65.00</t>
+        </is>
+      </c>
+      <c r="I9" s="1" t="inlineStr">
+        <is>
+          <t>2.1 in</t>
+        </is>
+      </c>
+      <c r="J9" s="1" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="K9" s="1" t="inlineStr">
+        <is>
+          <t>60.000</t>
+        </is>
+      </c>
+      <c r="L9" s="1" t="inlineStr">
+        <is>
+          <t>Brass cap location, Brass cap location, Brass cap location</t>
+        </is>
+      </c>
+      <c r="M9" s="1" t="inlineStr"/>
+      <c r="N9" s="1" t="inlineStr">
+        <is>
+          <t>MON</t>
+        </is>
+      </c>
+      <c r="O9" s="1" t="inlineStr">
+        <is>
+          <t>Chromium</t>
+        </is>
+      </c>
+      <c r="P9" s="1" t="inlineStr">
+        <is>
+          <t>Mortendad</t>
+        </is>
+      </c>
+      <c r="Q9" s="1" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R9" s="1" t="inlineStr"/>
+      <c r="S9" s="1" t="inlineStr">
+        <is>
+          <t>[84]</t>
+        </is>
+      </c>
+      <c r="T9" s="1" t="inlineStr">
+        <is>
+          <t>Geologic Unit Code updated from MW, Well Diameter [in] updated from MW</t>
+        </is>
+      </c>
+      <c r="U9" s="1" t="inlineStr">
+        <is>
+          <t>Well Info</t>
+        </is>
+      </c>
+      <c r="V9" s="1" t="inlineStr">
+        <is>
+          <t>2.9</t>
+        </is>
+      </c>
+      <c r="W9" s="1" t="inlineStr">
+        <is>
+          <t>2007-02-28</t>
+        </is>
+      </c>
+      <c r="X9" s="1" t="inlineStr">
+        <is>
+          <t>2.3</t>
+        </is>
+      </c>
+      <c r="Y9" s="1" t="inlineStr">
+        <is>
+          <t>2007-06-05</t>
+        </is>
+      </c>
+      <c r="Z9" s="1" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="AA9" s="1" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="AB9" s="1" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="AC9" s="1" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="AD9" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AE9" s="1" t="inlineStr"/>
+      <c r="AF9" s="1" t="inlineStr"/>
+      <c r="AG9" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Substantial
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>MCA-4</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>Alluvial</t>
+        </is>
+      </c>
+      <c r="C10" s="1" t="inlineStr">
+        <is>
+          <t>35.865</t>
+        </is>
+      </c>
+      <c r="D10" s="1" t="inlineStr">
+        <is>
+          <t>-106.29884</t>
+        </is>
+      </c>
+      <c r="E10" s="1" t="inlineStr">
+        <is>
+          <t>7135.100</t>
+        </is>
+      </c>
+      <c r="F10" s="1" t="inlineStr">
+        <is>
+          <t>Qal</t>
+        </is>
+      </c>
+      <c r="G10" s="1" t="inlineStr">
+        <is>
+          <t>2005-02-05 00:00:00</t>
+        </is>
+      </c>
+      <c r="H10" s="1" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="I10" s="1" t="inlineStr">
+        <is>
+          <t>1.0 in</t>
+        </is>
+      </c>
+      <c r="J10" s="1" t="inlineStr">
+        <is>
+          <t>3.3</t>
+        </is>
+      </c>
+      <c r="K10" s="1" t="inlineStr">
+        <is>
+          <t>5.300</t>
+        </is>
+      </c>
+      <c r="L10" s="1" t="inlineStr">
+        <is>
+          <t>Brass cap location, Brass cap location, Brass cap location</t>
+        </is>
+      </c>
+      <c r="M10" s="1" t="inlineStr"/>
+      <c r="N10" s="1" t="inlineStr">
+        <is>
+          <t>MON</t>
+        </is>
+      </c>
+      <c r="O10" s="1" t="inlineStr">
+        <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="P10" s="1" t="inlineStr">
+        <is>
+          <t>Mortendad</t>
+        </is>
+      </c>
+      <c r="Q10" s="1" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R10" s="1" t="inlineStr"/>
+      <c r="S10" s="1" t="inlineStr">
+        <is>
+          <t>[84]</t>
+        </is>
+      </c>
+      <c r="T10" s="1" t="inlineStr">
+        <is>
+          <t>Geologic Unit Code updated from MW, Well Diameter [in] updated from MW</t>
+        </is>
+      </c>
+      <c r="U10" s="1" t="inlineStr">
+        <is>
+          <t>Well Info</t>
+        </is>
+      </c>
+      <c r="V10" s="1" t="inlineStr">
         <is>
           <t>101.0</t>
         </is>
       </c>
-      <c r="W7" s="1" t="inlineStr">
+      <c r="W10" s="1" t="inlineStr">
         <is>
           <t>2005-09-16</t>
         </is>
       </c>
-      <c r="X7" s="1" t="inlineStr">
+      <c r="X10" s="1" t="inlineStr">
         <is>
           <t>43.0</t>
         </is>
       </c>
-      <c r="Y7" s="1" t="inlineStr">
+      <c r="Y10" s="1" t="inlineStr">
         <is>
           <t>2005-09-16</t>
         </is>
       </c>
-      <c r="Z7" s="1" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
-      </c>
-      <c r="AA7" s="1" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
-      </c>
-      <c r="AB7" s="1" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
-      </c>
-      <c r="AC7" s="1" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
-      </c>
-      <c r="AD7" s="1" t="inlineStr">
+      <c r="Z10" s="1" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="AA10" s="1" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="AB10" s="1" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="AC10" s="1" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="AD10" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AE7" s="1" t="inlineStr"/>
-      <c r="AF7" s="1" t="inlineStr">
+      <c r="AE10" s="1" t="inlineStr"/>
+      <c r="AF10" s="1" t="inlineStr">
         <is>
           <t>Exceedance</t>
         </is>
       </c>
-      <c r="AG7" s="1" t="inlineStr">
+      <c r="AG10" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>MCO-2</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>Alluvial</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t>35.86502</t>
-        </is>
-      </c>
-      <c r="D8" s="1" t="inlineStr">
-        <is>
-          <t>-106.29893</t>
-        </is>
-      </c>
-      <c r="E8" s="1" t="inlineStr"/>
-      <c r="F8" s="1" t="inlineStr"/>
-      <c r="G8" s="1" t="inlineStr">
-        <is>
-          <t>1960-11-01 00:00:00</t>
-        </is>
-      </c>
-      <c r="H8" s="1" t="inlineStr">
-        <is>
-          <t>9.00</t>
-        </is>
-      </c>
-      <c r="I8" s="1" t="inlineStr"/>
-      <c r="J8" s="1" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K8" s="1" t="inlineStr">
-        <is>
-          <t>9.000</t>
-        </is>
-      </c>
-      <c r="L8" s="1" t="inlineStr"/>
-      <c r="M8" s="1" t="inlineStr"/>
-      <c r="N8" s="1" t="inlineStr"/>
-      <c r="O8" s="1" t="inlineStr">
-        <is>
-          <t>General</t>
-        </is>
-      </c>
-      <c r="P8" s="1" t="inlineStr">
-        <is>
-          <t>Upper Mortendad</t>
-        </is>
-      </c>
-      <c r="Q8" s="1" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="R8" s="1" t="inlineStr"/>
-      <c r="S8" s="1" t="inlineStr">
-        <is>
-          <t>[84]</t>
-        </is>
-      </c>
-      <c r="T8" s="1" t="inlineStr"/>
-      <c r="U8" s="1" t="inlineStr">
-        <is>
-          <t>Well Info</t>
-        </is>
-      </c>
-      <c r="V8" s="1" t="inlineStr">
-        <is>
-          <t>275.0</t>
-        </is>
-      </c>
-      <c r="W8" s="1" t="inlineStr">
-        <is>
-          <t>2008-05-28</t>
-        </is>
-      </c>
-      <c r="X8" s="1" t="inlineStr">
-        <is>
-          <t>10.6</t>
-        </is>
-      </c>
-      <c r="Y8" s="1" t="inlineStr">
-        <is>
-          <t>2010-07-01</t>
-        </is>
-      </c>
-      <c r="Z8" s="1" t="inlineStr">
-        <is>
-          <t>0.129703</t>
-        </is>
-      </c>
-      <c r="AA8" s="1" t="inlineStr">
-        <is>
-          <t>2008-05-28</t>
-        </is>
-      </c>
-      <c r="AB8" s="1" t="inlineStr">
-        <is>
-          <t>0.129703</t>
-        </is>
-      </c>
-      <c r="AC8" s="1" t="inlineStr">
-        <is>
-          <t>2008-05-28</t>
-        </is>
-      </c>
-      <c r="AD8" s="1" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="AE8" s="1" t="inlineStr"/>
-      <c r="AF8" s="1" t="inlineStr">
-        <is>
-          <t>Exceedance</t>
-        </is>
-      </c>
-      <c r="AG8" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Substantial
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>MCO-3</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="inlineStr">
-        <is>
-          <t>Alluvial</t>
-        </is>
-      </c>
-      <c r="C9" s="1" t="inlineStr">
-        <is>
-          <t>35.8653</t>
-        </is>
-      </c>
-      <c r="D9" s="1" t="inlineStr">
-        <is>
-          <t>-106.29406</t>
-        </is>
-      </c>
-      <c r="E9" s="1" t="inlineStr"/>
-      <c r="F9" s="1" t="inlineStr">
-        <is>
-          <t>Qal</t>
-        </is>
-      </c>
-      <c r="G9" s="1" t="inlineStr">
-        <is>
-          <t>1967-03-01 00:00:00</t>
-        </is>
-      </c>
-      <c r="H9" s="1" t="inlineStr">
-        <is>
-          <t>12.00</t>
-        </is>
-      </c>
-      <c r="I9" s="1" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J9" s="1" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K9" s="1" t="inlineStr">
-        <is>
-          <t>12.000</t>
-        </is>
-      </c>
-      <c r="L9" s="1" t="inlineStr"/>
-      <c r="M9" s="1" t="inlineStr"/>
-      <c r="N9" s="1" t="inlineStr"/>
-      <c r="O9" s="1" t="inlineStr">
-        <is>
-          <t>General</t>
-        </is>
-      </c>
-      <c r="P9" s="1" t="inlineStr">
-        <is>
-          <t>Upper Mortendad</t>
-        </is>
-      </c>
-      <c r="Q9" s="1" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="R9" s="1" t="inlineStr"/>
-      <c r="S9" s="1" t="inlineStr">
-        <is>
-          <t>[84]</t>
-        </is>
-      </c>
-      <c r="T9" s="1" t="inlineStr"/>
-      <c r="U9" s="1" t="inlineStr">
-        <is>
-          <t>Well Info</t>
-        </is>
-      </c>
-      <c r="V9" s="1" t="inlineStr">
-        <is>
-          <t>14.6</t>
-        </is>
-      </c>
-      <c r="W9" s="1" t="inlineStr">
-        <is>
-          <t>2009-08-12</t>
-        </is>
-      </c>
-      <c r="X9" s="1" t="inlineStr">
-        <is>
-          <t>3.4</t>
-        </is>
-      </c>
-      <c r="Y9" s="1" t="inlineStr">
-        <is>
-          <t>2010-02-02</t>
-        </is>
-      </c>
-      <c r="Z9" s="1" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
-      </c>
-      <c r="AA9" s="1" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
-      </c>
-      <c r="AB9" s="1" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
-      </c>
-      <c r="AC9" s="1" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
-      </c>
-      <c r="AD9" s="1" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AE9" s="1" t="inlineStr"/>
-      <c r="AF9" s="1" t="inlineStr">
-        <is>
-          <t>Exceedance</t>
-        </is>
-      </c>
-      <c r="AG9" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Substantial
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>CDBO-6</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="inlineStr">
-        <is>
-          <t>Alluvial</t>
-        </is>
-      </c>
-      <c r="C10" s="1" t="inlineStr">
-        <is>
-          <t>35.85026</t>
-        </is>
-      </c>
-      <c r="D10" s="1" t="inlineStr">
-        <is>
-          <t>-106.2642</t>
-        </is>
-      </c>
-      <c r="E10" s="1" t="inlineStr">
-        <is>
-          <t>6817.2</t>
-        </is>
-      </c>
-      <c r="F10" s="1" t="inlineStr">
-        <is>
-          <t>Qal</t>
-        </is>
-      </c>
-      <c r="G10" s="1" t="inlineStr">
-        <is>
-          <t>1992-06-01 00:00:00</t>
-        </is>
-      </c>
-      <c r="H10" s="1" t="inlineStr">
-        <is>
-          <t>49.00</t>
-        </is>
-      </c>
-      <c r="I10" s="1" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J10" s="1" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="K10" s="1" t="inlineStr">
-        <is>
-          <t>44.000</t>
-        </is>
-      </c>
-      <c r="L10" s="1" t="inlineStr"/>
-      <c r="M10" s="1" t="inlineStr"/>
-      <c r="N10" s="1" t="inlineStr"/>
-      <c r="O10" s="1" t="inlineStr">
-        <is>
-          <t>General</t>
-        </is>
-      </c>
-      <c r="P10" s="1" t="inlineStr">
-        <is>
-          <t>Lower Mortendad</t>
-        </is>
-      </c>
-      <c r="Q10" s="1" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="R10" s="1" t="inlineStr"/>
-      <c r="S10" s="1" t="inlineStr">
-        <is>
-          <t>[84]</t>
-        </is>
-      </c>
-      <c r="T10" s="1" t="inlineStr">
-        <is>
-          <t>Ground Elevation updated from MW</t>
-        </is>
-      </c>
-      <c r="U10" s="1" t="inlineStr">
-        <is>
-          <t>Well Info</t>
-        </is>
-      </c>
-      <c r="V10" s="1" t="inlineStr">
-        <is>
-          <t>50.0</t>
-        </is>
-      </c>
-      <c r="W10" s="1" t="inlineStr">
-        <is>
-          <t>2008-05-22</t>
-        </is>
-      </c>
-      <c r="X10" s="1" t="inlineStr">
-        <is>
-          <t>3.5</t>
-        </is>
-      </c>
-      <c r="Y10" s="1" t="inlineStr">
-        <is>
-          <t>2010-08-02</t>
-        </is>
-      </c>
-      <c r="Z10" s="1" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
-      </c>
-      <c r="AA10" s="1" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
-      </c>
-      <c r="AB10" s="1" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
-      </c>
-      <c r="AC10" s="1" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
-      </c>
-      <c r="AD10" s="1" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="AE10" s="1" t="inlineStr"/>
-      <c r="AF10" s="1" t="inlineStr">
-        <is>
-          <t>Exceedance</t>
-        </is>
-      </c>
-      <c r="AG10" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Substantial
-</t>
-        </is>
-      </c>
-    </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>CDBO-7</t>
+          <t>MCO-2</t>
         </is>
       </c>
       <c r="B11" s="1" t="inlineStr">
@@ -1910,39 +1922,35 @@
       </c>
       <c r="C11" s="1" t="inlineStr">
         <is>
-          <t>35.84625</t>
+          <t>35.86502</t>
         </is>
       </c>
       <c r="D11" s="1" t="inlineStr">
         <is>
-          <t>-106.26018</t>
-        </is>
-      </c>
-      <c r="E11" s="1" t="inlineStr">
-        <is>
-          <t>6771.81</t>
-        </is>
-      </c>
+          <t>-106.29893</t>
+        </is>
+      </c>
+      <c r="E11" s="1" t="inlineStr"/>
       <c r="F11" s="1" t="inlineStr"/>
       <c r="G11" s="1" t="inlineStr">
         <is>
-          <t>1992-06-01 00:00:00</t>
+          <t>1960-11-01 00:00:00</t>
         </is>
       </c>
       <c r="H11" s="1" t="inlineStr">
         <is>
-          <t>44.00</t>
+          <t>9.00</t>
         </is>
       </c>
       <c r="I11" s="1" t="inlineStr"/>
       <c r="J11" s="1" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K11" s="1" t="inlineStr">
         <is>
-          <t>39.000</t>
+          <t>9.000</t>
         </is>
       </c>
       <c r="L11" s="1" t="inlineStr"/>
@@ -1955,7 +1963,7 @@
       </c>
       <c r="P11" s="1" t="inlineStr">
         <is>
-          <t>Lower Mortendad</t>
+          <t>Mortendad</t>
         </is>
       </c>
       <c r="Q11" s="1" t="inlineStr">
@@ -1969,11 +1977,7 @@
           <t>[84]</t>
         </is>
       </c>
-      <c r="T11" s="1" t="inlineStr">
-        <is>
-          <t>Ground Elevation updated from MW</t>
-        </is>
-      </c>
+      <c r="T11" s="1" t="inlineStr"/>
       <c r="U11" s="1" t="inlineStr">
         <is>
           <t>Well Info</t>
@@ -1981,51 +1985,55 @@
       </c>
       <c r="V11" s="1" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>275.0</t>
         </is>
       </c>
       <c r="W11" s="1" t="inlineStr">
         <is>
-          <t>2008-11-13</t>
+          <t>2008-05-28</t>
         </is>
       </c>
       <c r="X11" s="1" t="inlineStr">
         <is>
-          <t>2.38</t>
+          <t>10.6</t>
         </is>
       </c>
       <c r="Y11" s="1" t="inlineStr">
         <is>
-          <t>2009-05-06</t>
+          <t>2010-07-01</t>
         </is>
       </c>
       <c r="Z11" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>0.129703</t>
         </is>
       </c>
       <c r="AA11" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>2008-05-28</t>
         </is>
       </c>
       <c r="AB11" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>0.129703</t>
         </is>
       </c>
       <c r="AC11" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>2008-05-28</t>
         </is>
       </c>
       <c r="AD11" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>19</t>
         </is>
       </c>
       <c r="AE11" s="1" t="inlineStr"/>
-      <c r="AF11" s="1" t="inlineStr"/>
+      <c r="AF11" s="1" t="inlineStr">
+        <is>
+          <t>Exceedance</t>
+        </is>
+      </c>
       <c r="AG11" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">Substantial
@@ -2036,7 +2044,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>MCA-2</t>
+          <t>MCO-3</t>
         </is>
       </c>
       <c r="B12" s="1" t="inlineStr">
@@ -2046,19 +2054,15 @@
       </c>
       <c r="C12" s="1" t="inlineStr">
         <is>
-          <t>35.86077</t>
+          <t>35.8653</t>
         </is>
       </c>
       <c r="D12" s="1" t="inlineStr">
         <is>
-          <t>-106.27133</t>
-        </is>
-      </c>
-      <c r="E12" s="1" t="inlineStr">
-        <is>
-          <t>6837.200</t>
-        </is>
-      </c>
+          <t>-106.29406</t>
+        </is>
+      </c>
+      <c r="E12" s="1" t="inlineStr"/>
       <c r="F12" s="1" t="inlineStr">
         <is>
           <t>Qal</t>
@@ -2066,48 +2070,40 @@
       </c>
       <c r="G12" s="1" t="inlineStr">
         <is>
-          <t>2004-10-24 00:00:00</t>
+          <t>1967-03-01 00:00:00</t>
         </is>
       </c>
       <c r="H12" s="1" t="inlineStr">
         <is>
-          <t>65.00</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="I12" s="1" t="inlineStr">
         <is>
-          <t>2.1 in</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J12" s="1" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K12" s="1" t="inlineStr">
         <is>
-          <t>60.000</t>
-        </is>
-      </c>
-      <c r="L12" s="1" t="inlineStr">
-        <is>
-          <t>Brass cap location, Brass cap location, Brass cap location</t>
-        </is>
-      </c>
+          <t>12.000</t>
+        </is>
+      </c>
+      <c r="L12" s="1" t="inlineStr"/>
       <c r="M12" s="1" t="inlineStr"/>
-      <c r="N12" s="1" t="inlineStr">
-        <is>
-          <t>MON</t>
-        </is>
-      </c>
+      <c r="N12" s="1" t="inlineStr"/>
       <c r="O12" s="1" t="inlineStr">
         <is>
-          <t>Chromium</t>
+          <t>General</t>
         </is>
       </c>
       <c r="P12" s="1" t="inlineStr">
         <is>
-          <t>Lower Mortendad</t>
+          <t>Mortendad</t>
         </is>
       </c>
       <c r="Q12" s="1" t="inlineStr">
@@ -2121,11 +2117,7 @@
           <t>[84]</t>
         </is>
       </c>
-      <c r="T12" s="1" t="inlineStr">
-        <is>
-          <t>Geologic Unit Code updated from MW, Well Diameter [in] updated from MW</t>
-        </is>
-      </c>
+      <c r="T12" s="1" t="inlineStr"/>
       <c r="U12" s="1" t="inlineStr">
         <is>
           <t>Well Info</t>
@@ -2133,22 +2125,22 @@
       </c>
       <c r="V12" s="1" t="inlineStr">
         <is>
-          <t>2.9</t>
+          <t>14.6</t>
         </is>
       </c>
       <c r="W12" s="1" t="inlineStr">
         <is>
-          <t>2007-02-28</t>
+          <t>2009-08-12</t>
         </is>
       </c>
       <c r="X12" s="1" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="Y12" s="1" t="inlineStr">
         <is>
-          <t>2007-06-05</t>
+          <t>2010-02-02</t>
         </is>
       </c>
       <c r="Z12" s="1" t="inlineStr">
@@ -2173,11 +2165,15 @@
       </c>
       <c r="AD12" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>17</t>
         </is>
       </c>
       <c r="AE12" s="1" t="inlineStr"/>
-      <c r="AF12" s="1" t="inlineStr"/>
+      <c r="AF12" s="1" t="inlineStr">
+        <is>
+          <t>Exceedance</t>
+        </is>
+      </c>
       <c r="AG12" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">Substantial
@@ -2247,7 +2243,7 @@
       </c>
       <c r="P13" s="1" t="inlineStr">
         <is>
-          <t>Lower Mortendad</t>
+          <t>Mortendad</t>
         </is>
       </c>
       <c r="Q13" s="1" t="inlineStr">
@@ -2269,24 +2265,24 @@
       </c>
       <c r="V13" s="1" t="inlineStr">
         <is>
-          <t>6.69</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="W13" s="1" t="inlineStr">
         <is>
+          <t>1996-03-05</t>
+        </is>
+      </c>
+      <c r="X13" s="1" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="Y13" s="1" t="inlineStr">
+        <is>
           <t>2010-07-06</t>
         </is>
       </c>
-      <c r="X13" s="1" t="inlineStr">
-        <is>
-          <t>4.78</t>
-        </is>
-      </c>
-      <c r="Y13" s="1" t="inlineStr">
-        <is>
-          <t>2010-07-06</t>
-        </is>
-      </c>
       <c r="Z13" s="1" t="inlineStr">
         <is>
           <t>No Data</t>
@@ -2309,7 +2305,7 @@
       </c>
       <c r="AD13" s="1" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>38</t>
         </is>
       </c>
       <c r="AE13" s="1" t="inlineStr"/>
@@ -2387,7 +2383,7 @@
       </c>
       <c r="P14" s="1" t="inlineStr">
         <is>
-          <t>Lower Mortendad</t>
+          <t>Mortendad</t>
         </is>
       </c>
       <c r="Q14" s="1" t="inlineStr">
@@ -2409,24 +2405,24 @@
       </c>
       <c r="V14" s="1" t="inlineStr">
         <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="W14" s="1" t="inlineStr">
+        <is>
+          <t>2008-02-21</t>
+        </is>
+      </c>
+      <c r="X14" s="1" t="inlineStr">
+        <is>
           <t>4.81</t>
         </is>
       </c>
-      <c r="W14" s="1" t="inlineStr">
+      <c r="Y14" s="1" t="inlineStr">
         <is>
           <t>2010-07-07</t>
         </is>
       </c>
-      <c r="X14" s="1" t="inlineStr">
-        <is>
-          <t>4.81</t>
-        </is>
-      </c>
-      <c r="Y14" s="1" t="inlineStr">
-        <is>
-          <t>2010-07-07</t>
-        </is>
-      </c>
       <c r="Z14" s="1" t="inlineStr">
         <is>
           <t>No Data</t>
@@ -2449,7 +2445,7 @@
       </c>
       <c r="AD14" s="1" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>41</t>
         </is>
       </c>
       <c r="AE14" s="1" t="inlineStr"/>
@@ -2531,7 +2527,7 @@
       </c>
       <c r="P15" s="1" t="inlineStr">
         <is>
-          <t>Lower Mortendad</t>
+          <t>Mortendad</t>
         </is>
       </c>
       <c r="Q15" s="1" t="inlineStr">
@@ -2671,7 +2667,7 @@
       </c>
       <c r="P16" s="1" t="inlineStr">
         <is>
-          <t>Lower Mortendad</t>
+          <t>Mortendad</t>
         </is>
       </c>
       <c r="Q16" s="1" t="inlineStr">
@@ -2693,12 +2689,12 @@
       </c>
       <c r="V16" s="1" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="W16" s="1" t="inlineStr">
         <is>
-          <t>1999-03-26</t>
+          <t>2008-02-06</t>
         </is>
       </c>
       <c r="X16" s="1" t="inlineStr">
@@ -2733,7 +2729,7 @@
       </c>
       <c r="AD16" s="1" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>36</t>
         </is>
       </c>
       <c r="AE16" s="1" t="inlineStr"/>
@@ -2807,7 +2803,7 @@
       </c>
       <c r="P17" s="1" t="inlineStr">
         <is>
-          <t>Lower Mortendad</t>
+          <t>Mortendad</t>
         </is>
       </c>
       <c r="Q17" s="1" t="inlineStr">
@@ -2939,7 +2935,7 @@
       </c>
       <c r="P18" s="1" t="inlineStr">
         <is>
-          <t>Lower Mortendad</t>
+          <t>Mortendad</t>
         </is>
       </c>
       <c r="Q18" s="1" t="inlineStr">
@@ -2965,24 +2961,24 @@
       </c>
       <c r="V18" s="1" t="inlineStr">
         <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="W18" s="1" t="inlineStr">
+        <is>
+          <t>2008-02-06</t>
+        </is>
+      </c>
+      <c r="X18" s="1" t="inlineStr">
+        <is>
           <t>5.63</t>
         </is>
       </c>
-      <c r="W18" s="1" t="inlineStr">
+      <c r="Y18" s="1" t="inlineStr">
         <is>
           <t>2010-07-09</t>
         </is>
       </c>
-      <c r="X18" s="1" t="inlineStr">
-        <is>
-          <t>5.63</t>
-        </is>
-      </c>
-      <c r="Y18" s="1" t="inlineStr">
-        <is>
-          <t>2010-07-09</t>
-        </is>
-      </c>
       <c r="Z18" s="1" t="inlineStr">
         <is>
           <t>No Data</t>
@@ -3005,7 +3001,7 @@
       </c>
       <c r="AD18" s="1" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="AE18" s="1" t="inlineStr"/>
@@ -3071,7 +3067,7 @@
       </c>
       <c r="P19" s="1" t="inlineStr">
         <is>
-          <t>Lower Mortendad</t>
+          <t>Mortendad</t>
         </is>
       </c>
       <c r="Q19" s="1" t="inlineStr">
@@ -3237,12 +3233,12 @@
       </c>
       <c r="V20" s="1" t="inlineStr">
         <is>
-          <t>7.7</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="W20" s="1" t="inlineStr">
         <is>
-          <t>2006-08-08</t>
+          <t>2008-01-16</t>
         </is>
       </c>
       <c r="X20" s="1" t="inlineStr">
@@ -3277,15 +3273,11 @@
       </c>
       <c r="AD20" s="1" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>37</t>
         </is>
       </c>
       <c r="AE20" s="1" t="inlineStr"/>
-      <c r="AF20" s="1" t="inlineStr">
-        <is>
-          <t>Exceedance</t>
-        </is>
-      </c>
+      <c r="AF20" s="1" t="inlineStr"/>
       <c r="AG20" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">Substantial
@@ -3369,22 +3361,22 @@
       </c>
       <c r="V21" s="1" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="W21" s="1" t="inlineStr">
         <is>
-          <t>1998-09-01</t>
+          <t>2011-03-07</t>
         </is>
       </c>
       <c r="X21" s="1" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="Y21" s="1" t="inlineStr">
         <is>
-          <t>2009-07-13</t>
+          <t>2011-03-07</t>
         </is>
       </c>
       <c r="Z21" s="1" t="inlineStr">
@@ -3409,7 +3401,7 @@
       </c>
       <c r="AD21" s="1" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>11</t>
         </is>
       </c>
       <c r="AE21" s="1" t="inlineStr"/>
@@ -3517,22 +3509,22 @@
       </c>
       <c r="V22" s="1" t="inlineStr">
         <is>
-          <t>5.7</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="W22" s="1" t="inlineStr">
         <is>
-          <t>2006-08-03</t>
+          <t>2011-03-08</t>
         </is>
       </c>
       <c r="X22" s="1" t="inlineStr">
         <is>
-          <t>3.73</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="Y22" s="1" t="inlineStr">
         <is>
-          <t>2009-07-13</t>
+          <t>2011-03-08</t>
         </is>
       </c>
       <c r="Z22" s="1" t="inlineStr">
@@ -3557,7 +3549,7 @@
       </c>
       <c r="AD22" s="1" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>11</t>
         </is>
       </c>
       <c r="AE22" s="1" t="inlineStr"/>
@@ -3963,12 +3955,12 @@
       </c>
       <c r="X25" s="1" t="inlineStr">
         <is>
-          <t>10.8</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="Y25" s="1" t="inlineStr">
         <is>
-          <t>2008-08-27</t>
+          <t>2009-07-16</t>
         </is>
       </c>
       <c r="Z25" s="1" t="inlineStr">
@@ -3993,7 +3985,7 @@
       </c>
       <c r="AD25" s="1" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>30</t>
         </is>
       </c>
       <c r="AE25" s="1" t="inlineStr"/>
@@ -4365,22 +4357,22 @@
       </c>
       <c r="V28" s="1" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="W28" s="1" t="inlineStr">
         <is>
-          <t>2001-11-06</t>
+          <t>2009-07-14</t>
         </is>
       </c>
       <c r="X28" s="1" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="Y28" s="1" t="inlineStr">
         <is>
-          <t>2008-08-29</t>
+          <t>2009-07-14</t>
         </is>
       </c>
       <c r="Z28" s="1" t="inlineStr">
@@ -4405,7 +4397,7 @@
       </c>
       <c r="AD28" s="1" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>20</t>
         </is>
       </c>
       <c r="AE28" s="1" t="inlineStr"/>
@@ -4641,22 +4633,22 @@
       </c>
       <c r="V30" s="1" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="W30" s="1" t="inlineStr">
         <is>
-          <t>2001-11-07</t>
+          <t>2009-07-14</t>
         </is>
       </c>
       <c r="X30" s="1" t="inlineStr">
         <is>
-          <t>1.9</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="Y30" s="1" t="inlineStr">
         <is>
-          <t>2008-08-26</t>
+          <t>2011-03-07</t>
         </is>
       </c>
       <c r="Z30" s="1" t="inlineStr">
@@ -4681,7 +4673,7 @@
       </c>
       <c r="AD30" s="1" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>36</t>
         </is>
       </c>
       <c r="AE30" s="1" t="inlineStr"/>
@@ -5241,12 +5233,12 @@
       </c>
       <c r="V34" s="1" t="inlineStr">
         <is>
-          <t>6.72</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="W34" s="1" t="inlineStr">
         <is>
-          <t>2010-02-22</t>
+          <t>2008-03-04</t>
         </is>
       </c>
       <c r="X34" s="1" t="inlineStr">
@@ -5281,7 +5273,7 @@
       </c>
       <c r="AD34" s="1" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>30</t>
         </is>
       </c>
       <c r="AE34" s="1" t="inlineStr"/>
@@ -5425,15 +5417,11 @@
       </c>
       <c r="AD35" s="1" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>28</t>
         </is>
       </c>
       <c r="AE35" s="1" t="inlineStr"/>
-      <c r="AF35" s="1" t="inlineStr">
-        <is>
-          <t>Exceedance</t>
-        </is>
-      </c>
+      <c r="AF35" s="1" t="inlineStr"/>
       <c r="AG35" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">Substantial
@@ -5537,22 +5525,22 @@
       </c>
       <c r="V36" s="1" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="W36" s="1" t="inlineStr">
         <is>
-          <t>2008-06-16</t>
+          <t>2008-03-03</t>
         </is>
       </c>
       <c r="X36" s="1" t="inlineStr">
         <is>
-          <t>2.78</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="Y36" s="1" t="inlineStr">
         <is>
-          <t>2009-09-08</t>
+          <t>2010-07-29</t>
         </is>
       </c>
       <c r="Z36" s="1" t="inlineStr">
@@ -5577,7 +5565,7 @@
       </c>
       <c r="AD36" s="1" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>28</t>
         </is>
       </c>
       <c r="AE36" s="1" t="inlineStr"/>
@@ -5689,22 +5677,22 @@
       </c>
       <c r="V37" s="1" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="W37" s="1" t="inlineStr">
         <is>
-          <t>2008-06-11</t>
+          <t>2007-12-18</t>
         </is>
       </c>
       <c r="X37" s="1" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="Y37" s="1" t="inlineStr">
         <is>
-          <t>2009-05-27</t>
+          <t>2010-08-03</t>
         </is>
       </c>
       <c r="Z37" s="1" t="inlineStr">
@@ -5729,7 +5717,7 @@
       </c>
       <c r="AD37" s="1" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>28</t>
         </is>
       </c>
       <c r="AE37" s="1" t="inlineStr"/>
@@ -5841,22 +5829,22 @@
       </c>
       <c r="V38" s="1" t="inlineStr">
         <is>
-          <t>5.56</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="W38" s="1" t="inlineStr">
         <is>
-          <t>2010-06-07</t>
+          <t>2008-06-23</t>
         </is>
       </c>
       <c r="X38" s="1" t="inlineStr">
         <is>
-          <t>3.83</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="Y38" s="1" t="inlineStr">
         <is>
-          <t>2010-06-07</t>
+          <t>2011-04-27</t>
         </is>
       </c>
       <c r="Z38" s="1" t="inlineStr">
@@ -5881,7 +5869,7 @@
       </c>
       <c r="AD38" s="1" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>18</t>
         </is>
       </c>
       <c r="AE38" s="1" t="inlineStr"/>
@@ -5993,22 +5981,22 @@
       </c>
       <c r="V39" s="1" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="W39" s="1" t="inlineStr">
         <is>
-          <t>2008-09-08</t>
+          <t>2008-06-09</t>
         </is>
       </c>
       <c r="X39" s="1" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="Y39" s="1" t="inlineStr">
         <is>
-          <t>2009-06-09</t>
+          <t>2010-10-18</t>
         </is>
       </c>
       <c r="Z39" s="1" t="inlineStr">
@@ -6033,7 +6021,7 @@
       </c>
       <c r="AD39" s="1" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>14</t>
         </is>
       </c>
       <c r="AE39" s="1" t="inlineStr"/>
@@ -6048,7 +6036,7 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>PCAO-7a</t>
+          <t>PCAO-6</t>
         </is>
       </c>
       <c r="B40" s="1" t="inlineStr">
@@ -6058,17 +6046,17 @@
       </c>
       <c r="C40" s="1" t="inlineStr">
         <is>
-          <t>35.83869</t>
+          <t>35.85336</t>
         </is>
       </c>
       <c r="D40" s="1" t="inlineStr">
         <is>
-          <t>-106.26174</t>
+          <t>-106.29322</t>
         </is>
       </c>
       <c r="E40" s="1" t="inlineStr">
         <is>
-          <t>6711.970</t>
+          <t>6921.400</t>
         </is>
       </c>
       <c r="F40" s="1" t="inlineStr">
@@ -6078,12 +6066,12 @@
       </c>
       <c r="G40" s="1" t="inlineStr">
         <is>
-          <t>2008-05-30 00:00:00</t>
+          <t>2008-06-05 00:00:00</t>
         </is>
       </c>
       <c r="H40" s="1" t="inlineStr">
         <is>
-          <t>25.00</t>
+          <t>20.00</t>
         </is>
       </c>
       <c r="I40" s="1" t="inlineStr">
@@ -6093,12 +6081,12 @@
       </c>
       <c r="J40" s="1" t="inlineStr">
         <is>
-          <t>9.7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="K40" s="1" t="inlineStr">
         <is>
-          <t>19.700</t>
+          <t>15.000</t>
         </is>
       </c>
       <c r="L40" s="1" t="inlineStr">
@@ -6114,7 +6102,7 @@
       </c>
       <c r="O40" s="1" t="inlineStr">
         <is>
-          <t>TA-54</t>
+          <t>General</t>
         </is>
       </c>
       <c r="P40" s="1" t="inlineStr">
@@ -6145,22 +6133,22 @@
       </c>
       <c r="V40" s="1" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="W40" s="1" t="inlineStr">
         <is>
-          <t>2008-09-08</t>
+          <t>2010-06-04</t>
         </is>
       </c>
       <c r="X40" s="1" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>2.68</t>
         </is>
       </c>
       <c r="Y40" s="1" t="inlineStr">
         <is>
-          <t>2009-06-02</t>
+          <t>2010-06-04</t>
         </is>
       </c>
       <c r="Z40" s="1" t="inlineStr">
@@ -6185,7 +6173,7 @@
       </c>
       <c r="AD40" s="1" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="AE40" s="1" t="inlineStr"/>
@@ -6200,7 +6188,7 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>PCAO-7b2</t>
+          <t>PCAO-7a</t>
         </is>
       </c>
       <c r="B41" s="1" t="inlineStr">
@@ -6210,17 +6198,17 @@
       </c>
       <c r="C41" s="1" t="inlineStr">
         <is>
-          <t>35.8385</t>
+          <t>35.83869</t>
         </is>
       </c>
       <c r="D41" s="1" t="inlineStr">
         <is>
-          <t>-106.26205</t>
+          <t>-106.26174</t>
         </is>
       </c>
       <c r="E41" s="1" t="inlineStr">
         <is>
-          <t>6713.390</t>
+          <t>6711.970</t>
         </is>
       </c>
       <c r="F41" s="1" t="inlineStr">
@@ -6230,7 +6218,7 @@
       </c>
       <c r="G41" s="1" t="inlineStr">
         <is>
-          <t>2008-05-27 00:00:00</t>
+          <t>2008-05-30 00:00:00</t>
         </is>
       </c>
       <c r="H41" s="1" t="inlineStr">
@@ -6245,12 +6233,12 @@
       </c>
       <c r="J41" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9.7</t>
         </is>
       </c>
       <c r="K41" s="1" t="inlineStr">
         <is>
-          <t>20.000</t>
+          <t>19.700</t>
         </is>
       </c>
       <c r="L41" s="1" t="inlineStr">
@@ -6297,22 +6285,22 @@
       </c>
       <c r="V41" s="1" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="W41" s="1" t="inlineStr">
         <is>
-          <t>2008-12-18</t>
+          <t>2008-06-22</t>
         </is>
       </c>
       <c r="X41" s="1" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="Y41" s="1" t="inlineStr">
         <is>
-          <t>2009-06-04</t>
+          <t>2010-10-20</t>
         </is>
       </c>
       <c r="Z41" s="1" t="inlineStr">
@@ -6337,7 +6325,7 @@
       </c>
       <c r="AD41" s="1" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>18</t>
         </is>
       </c>
       <c r="AE41" s="1" t="inlineStr"/>
@@ -6352,7 +6340,7 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>PCAO-7c</t>
+          <t>PCAO-7b2</t>
         </is>
       </c>
       <c r="B42" s="1" t="inlineStr">
@@ -6362,17 +6350,17 @@
       </c>
       <c r="C42" s="1" t="inlineStr">
         <is>
-          <t>35.8381</t>
+          <t>35.8385</t>
         </is>
       </c>
       <c r="D42" s="1" t="inlineStr">
         <is>
-          <t>-106.26252</t>
+          <t>-106.26205</t>
         </is>
       </c>
       <c r="E42" s="1" t="inlineStr">
         <is>
-          <t>6714.570</t>
+          <t>6713.390</t>
         </is>
       </c>
       <c r="F42" s="1" t="inlineStr">
@@ -6382,7 +6370,7 @@
       </c>
       <c r="G42" s="1" t="inlineStr">
         <is>
-          <t>2008-05-16 00:00:00</t>
+          <t>2008-05-27 00:00:00</t>
         </is>
       </c>
       <c r="H42" s="1" t="inlineStr">
@@ -6397,12 +6385,12 @@
       </c>
       <c r="J42" s="1" t="inlineStr">
         <is>
-          <t>9.7</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K42" s="1" t="inlineStr">
         <is>
-          <t>19.700</t>
+          <t>20.000</t>
         </is>
       </c>
       <c r="L42" s="1" t="inlineStr">
@@ -6418,7 +6406,7 @@
       </c>
       <c r="O42" s="1" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>TA-54</t>
         </is>
       </c>
       <c r="P42" s="1" t="inlineStr">
@@ -6449,22 +6437,22 @@
       </c>
       <c r="V42" s="1" t="inlineStr">
         <is>
-          <t>6.47</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="W42" s="1" t="inlineStr">
         <is>
-          <t>2010-03-02</t>
+          <t>2008-06-25</t>
         </is>
       </c>
       <c r="X42" s="1" t="inlineStr">
         <is>
-          <t>2.28</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="Y42" s="1" t="inlineStr">
         <is>
-          <t>2011-04-21</t>
+          <t>2010-10-21</t>
         </is>
       </c>
       <c r="Z42" s="1" t="inlineStr">
@@ -6489,7 +6477,7 @@
       </c>
       <c r="AD42" s="1" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="AE42" s="1" t="inlineStr"/>
@@ -6504,7 +6492,7 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>PCAO-9</t>
+          <t>PCAO-7c</t>
         </is>
       </c>
       <c r="B43" s="1" t="inlineStr">
@@ -6514,17 +6502,17 @@
       </c>
       <c r="C43" s="1" t="inlineStr">
         <is>
-          <t>35.82614</t>
+          <t>35.8381</t>
         </is>
       </c>
       <c r="D43" s="1" t="inlineStr">
         <is>
-          <t>-106.23271</t>
+          <t>-106.26252</t>
         </is>
       </c>
       <c r="E43" s="1" t="inlineStr">
         <is>
-          <t>6558.600</t>
+          <t>6714.570</t>
         </is>
       </c>
       <c r="F43" s="1" t="inlineStr">
@@ -6534,12 +6522,12 @@
       </c>
       <c r="G43" s="1" t="inlineStr">
         <is>
-          <t>2008-06-12 00:00:00</t>
+          <t>2008-05-16 00:00:00</t>
         </is>
       </c>
       <c r="H43" s="1" t="inlineStr">
         <is>
-          <t>21.00</t>
+          <t>25.00</t>
         </is>
       </c>
       <c r="I43" s="1" t="inlineStr">
@@ -6549,12 +6537,12 @@
       </c>
       <c r="J43" s="1" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>9.7</t>
         </is>
       </c>
       <c r="K43" s="1" t="inlineStr">
         <is>
-          <t>16.000</t>
+          <t>19.700</t>
         </is>
       </c>
       <c r="L43" s="1" t="inlineStr">
@@ -6570,7 +6558,7 @@
       </c>
       <c r="O43" s="1" t="inlineStr">
         <is>
-          <t>TA-54</t>
+          <t>General</t>
         </is>
       </c>
       <c r="P43" s="1" t="inlineStr">
@@ -6601,22 +6589,22 @@
       </c>
       <c r="V43" s="1" t="inlineStr">
         <is>
-          <t>9.1</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="W43" s="1" t="inlineStr">
         <is>
-          <t>2008-09-17</t>
+          <t>2008-06-22</t>
         </is>
       </c>
       <c r="X43" s="1" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>2.28</t>
         </is>
       </c>
       <c r="Y43" s="1" t="inlineStr">
         <is>
-          <t>2008-09-17</t>
+          <t>2011-04-21</t>
         </is>
       </c>
       <c r="Z43" s="1" t="inlineStr">
@@ -6641,18 +6629,14 @@
       </c>
       <c r="AD43" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>20</t>
         </is>
       </c>
       <c r="AE43" s="1" t="inlineStr"/>
-      <c r="AF43" s="1" t="inlineStr">
-        <is>
-          <t>Exceedance</t>
-        </is>
-      </c>
+      <c r="AF43" s="1" t="inlineStr"/>
       <c r="AG43" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">
+          <t xml:space="preserve">Substantial
 </t>
         </is>
       </c>
@@ -6660,7 +6644,7 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>PCO-1</t>
+          <t>PCAO-9</t>
         </is>
       </c>
       <c r="B44" s="1" t="inlineStr">
@@ -6670,44 +6654,60 @@
       </c>
       <c r="C44" s="1" t="inlineStr">
         <is>
-          <t>35.83716</t>
+          <t>35.82614</t>
         </is>
       </c>
       <c r="D44" s="1" t="inlineStr">
         <is>
-          <t>-106.25843</t>
+          <t>-106.23271</t>
         </is>
       </c>
       <c r="E44" s="1" t="inlineStr">
         <is>
-          <t>6687</t>
-        </is>
-      </c>
-      <c r="F44" s="1" t="inlineStr"/>
+          <t>6558.600</t>
+        </is>
+      </c>
+      <c r="F44" s="1" t="inlineStr">
+        <is>
+          <t>Qal</t>
+        </is>
+      </c>
       <c r="G44" s="1" t="inlineStr">
         <is>
-          <t>1985-06-30 00:00:00</t>
+          <t>2008-06-12 00:00:00</t>
         </is>
       </c>
       <c r="H44" s="1" t="inlineStr">
         <is>
-          <t>12.00</t>
-        </is>
-      </c>
-      <c r="I44" s="1" t="inlineStr"/>
+          <t>21.00</t>
+        </is>
+      </c>
+      <c r="I44" s="1" t="inlineStr">
+        <is>
+          <t>4 in</t>
+        </is>
+      </c>
       <c r="J44" s="1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="K44" s="1" t="inlineStr">
         <is>
-          <t>12.000</t>
-        </is>
-      </c>
-      <c r="L44" s="1" t="inlineStr"/>
+          <t>16.000</t>
+        </is>
+      </c>
+      <c r="L44" s="1" t="inlineStr">
+        <is>
+          <t>Brass Cap, Brass Cap, Brass Cap</t>
+        </is>
+      </c>
       <c r="M44" s="1" t="inlineStr"/>
-      <c r="N44" s="1" t="inlineStr"/>
+      <c r="N44" s="1" t="inlineStr">
+        <is>
+          <t>MON</t>
+        </is>
+      </c>
       <c r="O44" s="1" t="inlineStr">
         <is>
           <t>TA-54</t>
@@ -6731,7 +6731,7 @@
       </c>
       <c r="T44" s="1" t="inlineStr">
         <is>
-          <t>Ground Elevation updated from MW</t>
+          <t>Geologic Unit Code updated from MW, Well Diameter [in] updated from MW</t>
         </is>
       </c>
       <c r="U44" s="1" t="inlineStr">
@@ -6741,22 +6741,22 @@
       </c>
       <c r="V44" s="1" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="W44" s="1" t="inlineStr">
         <is>
-          <t>1999-03-26</t>
+          <t>2008-06-25</t>
         </is>
       </c>
       <c r="X44" s="1" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="Y44" s="1" t="inlineStr">
         <is>
-          <t>2005-08-24</t>
+          <t>2010-06-03</t>
         </is>
       </c>
       <c r="Z44" s="1" t="inlineStr">
@@ -6781,11 +6781,15 @@
       </c>
       <c r="AD44" s="1" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>6</t>
         </is>
       </c>
       <c r="AE44" s="1" t="inlineStr"/>
-      <c r="AF44" s="1" t="inlineStr"/>
+      <c r="AF44" s="1" t="inlineStr">
+        <is>
+          <t>Exceedance</t>
+        </is>
+      </c>
       <c r="AG44" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">Substantial
@@ -6796,7 +6800,7 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>PCO-2</t>
+          <t>PCO-1</t>
         </is>
       </c>
       <c r="B45" s="1" t="inlineStr">
@@ -6806,17 +6810,17 @@
       </c>
       <c r="C45" s="1" t="inlineStr">
         <is>
-          <t>35.83016</t>
+          <t>35.83716</t>
         </is>
       </c>
       <c r="D45" s="1" t="inlineStr">
         <is>
-          <t>-106.24567</t>
+          <t>-106.25843</t>
         </is>
       </c>
       <c r="E45" s="1" t="inlineStr">
         <is>
-          <t>6618.3</t>
+          <t>6687</t>
         </is>
       </c>
       <c r="F45" s="1" t="inlineStr"/>
@@ -6827,18 +6831,18 @@
       </c>
       <c r="H45" s="1" t="inlineStr">
         <is>
-          <t>9.50</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="I45" s="1" t="inlineStr"/>
       <c r="J45" s="1" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K45" s="1" t="inlineStr">
         <is>
-          <t>9.500</t>
+          <t>12.000</t>
         </is>
       </c>
       <c r="L45" s="1" t="inlineStr"/>
@@ -6877,22 +6881,22 @@
       </c>
       <c r="V45" s="1" t="inlineStr">
         <is>
-          <t>5.8</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="W45" s="1" t="inlineStr">
         <is>
-          <t>2007-06-25</t>
+          <t>1999-03-26</t>
         </is>
       </c>
       <c r="X45" s="1" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="Y45" s="1" t="inlineStr">
         <is>
-          <t>2007-12-06</t>
+          <t>2005-08-24</t>
         </is>
       </c>
       <c r="Z45" s="1" t="inlineStr">
@@ -6932,7 +6936,7 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>PCO-3</t>
+          <t>PCO-2</t>
         </is>
       </c>
       <c r="B46" s="1" t="inlineStr">
@@ -6942,17 +6946,17 @@
       </c>
       <c r="C46" s="1" t="inlineStr">
         <is>
-          <t>35.82479</t>
+          <t>35.83016</t>
         </is>
       </c>
       <c r="D46" s="1" t="inlineStr">
         <is>
-          <t>-106.23087</t>
+          <t>-106.24567</t>
         </is>
       </c>
       <c r="E46" s="1" t="inlineStr">
         <is>
-          <t>6546.3</t>
+          <t>6618.3</t>
         </is>
       </c>
       <c r="F46" s="1" t="inlineStr"/>
@@ -6963,18 +6967,18 @@
       </c>
       <c r="H46" s="1" t="inlineStr">
         <is>
-          <t>17.70</t>
+          <t>9.50</t>
         </is>
       </c>
       <c r="I46" s="1" t="inlineStr"/>
       <c r="J46" s="1" t="inlineStr">
         <is>
-          <t>5.7</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="K46" s="1" t="inlineStr">
         <is>
-          <t>17.700</t>
+          <t>9.500</t>
         </is>
       </c>
       <c r="L46" s="1" t="inlineStr"/>
@@ -6982,7 +6986,7 @@
       <c r="N46" s="1" t="inlineStr"/>
       <c r="O46" s="1" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>TA-54</t>
         </is>
       </c>
       <c r="P46" s="1" t="inlineStr">
@@ -7013,22 +7017,22 @@
       </c>
       <c r="V46" s="1" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="W46" s="1" t="inlineStr">
         <is>
-          <t>2007-12-07</t>
+          <t>2008-03-07</t>
         </is>
       </c>
       <c r="X46" s="1" t="inlineStr">
         <is>
-          <t>2.6</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="Y46" s="1" t="inlineStr">
         <is>
-          <t>2008-03-18</t>
+          <t>2010-06-02</t>
         </is>
       </c>
       <c r="Z46" s="1" t="inlineStr">
@@ -7053,7 +7057,7 @@
       </c>
       <c r="AD46" s="1" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>15</t>
         </is>
       </c>
       <c r="AE46" s="1" t="inlineStr"/>
@@ -7068,7 +7072,7 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>TMO-1</t>
+          <t>PCO-3</t>
         </is>
       </c>
       <c r="B47" s="1" t="inlineStr">
@@ -7078,60 +7082,44 @@
       </c>
       <c r="C47" s="1" t="inlineStr">
         <is>
-          <t>35.8541</t>
+          <t>35.82479</t>
         </is>
       </c>
       <c r="D47" s="1" t="inlineStr">
         <is>
-          <t>-106.29585</t>
+          <t>-106.23087</t>
         </is>
       </c>
       <c r="E47" s="1" t="inlineStr">
         <is>
-          <t>6945.200</t>
-        </is>
-      </c>
-      <c r="F47" s="1" t="inlineStr">
-        <is>
-          <t>Qal</t>
-        </is>
-      </c>
+          <t>6546.3</t>
+        </is>
+      </c>
+      <c r="F47" s="1" t="inlineStr"/>
       <c r="G47" s="1" t="inlineStr">
         <is>
-          <t>2008-06-09 00:00:00</t>
+          <t>1985-06-30 00:00:00</t>
         </is>
       </c>
       <c r="H47" s="1" t="inlineStr">
         <is>
-          <t>6.50</t>
-        </is>
-      </c>
-      <c r="I47" s="1" t="inlineStr">
-        <is>
-          <t>1.5 in</t>
-        </is>
-      </c>
+          <t>17.70</t>
+        </is>
+      </c>
+      <c r="I47" s="1" t="inlineStr"/>
       <c r="J47" s="1" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>5.7</t>
         </is>
       </c>
       <c r="K47" s="1" t="inlineStr">
         <is>
-          <t>6.500</t>
-        </is>
-      </c>
-      <c r="L47" s="1" t="inlineStr">
-        <is>
-          <t>Brass Cap, Brass Cap, Brass Cap</t>
-        </is>
-      </c>
+          <t>17.700</t>
+        </is>
+      </c>
+      <c r="L47" s="1" t="inlineStr"/>
       <c r="M47" s="1" t="inlineStr"/>
-      <c r="N47" s="1" t="inlineStr">
-        <is>
-          <t>MON</t>
-        </is>
-      </c>
+      <c r="N47" s="1" t="inlineStr"/>
       <c r="O47" s="1" t="inlineStr">
         <is>
           <t>General</t>
@@ -7155,7 +7143,7 @@
       </c>
       <c r="T47" s="1" t="inlineStr">
         <is>
-          <t>Geologic Unit Code updated from MW, Well Diameter [in] updated from MW</t>
+          <t>Ground Elevation updated from MW</t>
         </is>
       </c>
       <c r="U47" s="1" t="inlineStr">
@@ -7165,22 +7153,22 @@
       </c>
       <c r="V47" s="1" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="W47" s="1" t="inlineStr">
         <is>
-          <t>2008-09-12</t>
+          <t>2008-03-18</t>
         </is>
       </c>
       <c r="X47" s="1" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="Y47" s="1" t="inlineStr">
         <is>
-          <t>2009-06-09</t>
+          <t>2008-03-18</t>
         </is>
       </c>
       <c r="Z47" s="1" t="inlineStr">
@@ -7205,12 +7193,164 @@
       </c>
       <c r="AD47" s="1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>14</t>
         </is>
       </c>
       <c r="AE47" s="1" t="inlineStr"/>
       <c r="AF47" s="1" t="inlineStr"/>
       <c r="AG47" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Substantial
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>TMO-1</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>Alluvial</t>
+        </is>
+      </c>
+      <c r="C48" s="1" t="inlineStr">
+        <is>
+          <t>35.8541</t>
+        </is>
+      </c>
+      <c r="D48" s="1" t="inlineStr">
+        <is>
+          <t>-106.29585</t>
+        </is>
+      </c>
+      <c r="E48" s="1" t="inlineStr">
+        <is>
+          <t>6945.200</t>
+        </is>
+      </c>
+      <c r="F48" s="1" t="inlineStr">
+        <is>
+          <t>Qal</t>
+        </is>
+      </c>
+      <c r="G48" s="1" t="inlineStr">
+        <is>
+          <t>2008-06-09 00:00:00</t>
+        </is>
+      </c>
+      <c r="H48" s="1" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="I48" s="1" t="inlineStr">
+        <is>
+          <t>1.5 in</t>
+        </is>
+      </c>
+      <c r="J48" s="1" t="inlineStr">
+        <is>
+          <t>3.5</t>
+        </is>
+      </c>
+      <c r="K48" s="1" t="inlineStr">
+        <is>
+          <t>6.500</t>
+        </is>
+      </c>
+      <c r="L48" s="1" t="inlineStr">
+        <is>
+          <t>Brass Cap, Brass Cap, Brass Cap</t>
+        </is>
+      </c>
+      <c r="M48" s="1" t="inlineStr"/>
+      <c r="N48" s="1" t="inlineStr">
+        <is>
+          <t>MON</t>
+        </is>
+      </c>
+      <c r="O48" s="1" t="inlineStr">
+        <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="P48" s="1" t="inlineStr">
+        <is>
+          <t>Pajarito</t>
+        </is>
+      </c>
+      <c r="Q48" s="1" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R48" s="1" t="inlineStr"/>
+      <c r="S48" s="1" t="inlineStr">
+        <is>
+          <t>[84]</t>
+        </is>
+      </c>
+      <c r="T48" s="1" t="inlineStr">
+        <is>
+          <t>Geologic Unit Code updated from MW, Well Diameter [in] updated from MW</t>
+        </is>
+      </c>
+      <c r="U48" s="1" t="inlineStr">
+        <is>
+          <t>Well Info</t>
+        </is>
+      </c>
+      <c r="V48" s="1" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="W48" s="1" t="inlineStr">
+        <is>
+          <t>2010-06-02</t>
+        </is>
+      </c>
+      <c r="X48" s="1" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="Y48" s="1" t="inlineStr">
+        <is>
+          <t>2010-06-02</t>
+        </is>
+      </c>
+      <c r="Z48" s="1" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="AA48" s="1" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="AB48" s="1" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="AC48" s="1" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="AD48" s="1" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AE48" s="1" t="inlineStr"/>
+      <c r="AF48" s="1" t="inlineStr"/>
+      <c r="AG48" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">Substantial
 </t>
@@ -7482,487 +7622,521 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>MCA-1</t>
+          <t>CDBO-6</t>
         </is>
       </c>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>35.86578</t>
+          <t>35.85026</t>
         </is>
       </c>
       <c r="C9" s="1" t="inlineStr">
         <is>
-          <t>-106.29668</t>
+          <t>-106.2642</t>
         </is>
       </c>
       <c r="D9" s="1" t="inlineStr">
         <is>
-          <t>1/24/05</t>
+          <t>6/1/92</t>
         </is>
       </c>
       <c r="E9" s="1" t="inlineStr">
         <is>
-          <t>5.9</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F9" s="1" t="inlineStr">
         <is>
-          <t>2.4 - 5.4</t>
+          <t>34 - 44</t>
         </is>
       </c>
       <c r="G9" s="1" t="inlineStr">
         <is>
-          <t>17.1</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H9" s="1" t="inlineStr">
         <is>
-          <t>5/20/08</t>
+          <t>5/22/08</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>MCA-4</t>
+          <t>CDBO-7</t>
         </is>
       </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>35.865</t>
+          <t>35.84625</t>
         </is>
       </c>
       <c r="C10" s="1" t="inlineStr">
         <is>
-          <t>-106.29884</t>
+          <t>-106.26018</t>
         </is>
       </c>
       <c r="D10" s="1" t="inlineStr">
         <is>
-          <t>2/5/05</t>
+          <t>6/1/92</t>
         </is>
       </c>
       <c r="E10" s="1" t="inlineStr">
         <is>
-          <t>5.4</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F10" s="1" t="inlineStr">
         <is>
-          <t>3.3 - 5.3</t>
+          <t>29 - 39</t>
         </is>
       </c>
       <c r="G10" s="1" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H10" s="1" t="inlineStr">
         <is>
-          <t>9/16/05</t>
+          <t>11/13/08</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>MCO-2</t>
+          <t>MCA-1</t>
         </is>
       </c>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>35.86502</t>
+          <t>35.86578</t>
         </is>
       </c>
       <c r="C11" s="1" t="inlineStr">
         <is>
-          <t>-106.29893</t>
+          <t>-106.29668</t>
         </is>
       </c>
       <c r="D11" s="1" t="inlineStr">
         <is>
-          <t>11/1/60</t>
+          <t>1/24/05</t>
         </is>
       </c>
       <c r="E11" s="1" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>5.9</t>
         </is>
       </c>
       <c r="F11" s="1" t="inlineStr">
         <is>
-          <t>2 - 9</t>
+          <t>2.4 - 5.4</t>
         </is>
       </c>
       <c r="G11" s="1" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>17.1</t>
         </is>
       </c>
       <c r="H11" s="1" t="inlineStr">
         <is>
-          <t>5/28/08</t>
+          <t>5/20/08</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>MCO-3</t>
+          <t>MCA-2</t>
         </is>
       </c>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>35.8653</t>
+          <t>35.86077</t>
         </is>
       </c>
       <c r="C12" s="1" t="inlineStr">
         <is>
-          <t>-106.29406</t>
+          <t>-106.27133</t>
         </is>
       </c>
       <c r="D12" s="1" t="inlineStr">
         <is>
-          <t>3/1/67</t>
+          <t>10/24/04</t>
         </is>
       </c>
       <c r="E12" s="1" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>65</t>
         </is>
       </c>
       <c r="F12" s="1" t="inlineStr">
         <is>
-          <t>2 - 12</t>
+          <t>45 - 60</t>
         </is>
       </c>
       <c r="G12" s="1" t="inlineStr">
         <is>
-          <t>14.6</t>
+          <t>2.9</t>
         </is>
       </c>
       <c r="H12" s="1" t="inlineStr">
         <is>
-          <t>8/12/09</t>
+          <t>2/28/07</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="4" t="inlineStr">
-        <is>
-          <t>Mortendad Canyon</t>
-        </is>
-      </c>
-      <c r="H13" s="5" t="n"/>
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>MCA-4</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="inlineStr">
+        <is>
+          <t>35.865</t>
+        </is>
+      </c>
+      <c r="C13" s="1" t="inlineStr">
+        <is>
+          <t>-106.29884</t>
+        </is>
+      </c>
+      <c r="D13" s="1" t="inlineStr">
+        <is>
+          <t>2/5/05</t>
+        </is>
+      </c>
+      <c r="E13" s="1" t="inlineStr">
+        <is>
+          <t>5.4</t>
+        </is>
+      </c>
+      <c r="F13" s="1" t="inlineStr">
+        <is>
+          <t>3.3 - 5.3</t>
+        </is>
+      </c>
+      <c r="G13" s="1" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="H13" s="1" t="inlineStr">
+        <is>
+          <t>9/16/05</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>CDBO-6</t>
+          <t>MCO-2</t>
         </is>
       </c>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>35.85026</t>
+          <t>35.86502</t>
         </is>
       </c>
       <c r="C14" s="1" t="inlineStr">
         <is>
-          <t>-106.2642</t>
+          <t>-106.29893</t>
         </is>
       </c>
       <c r="D14" s="1" t="inlineStr">
         <is>
-          <t>6/1/92</t>
+          <t>11/1/60</t>
         </is>
       </c>
       <c r="E14" s="1" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>9</t>
         </is>
       </c>
       <c r="F14" s="1" t="inlineStr">
         <is>
-          <t>34 - 44</t>
+          <t>2 - 9</t>
         </is>
       </c>
       <c r="G14" s="1" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>275</t>
         </is>
       </c>
       <c r="H14" s="1" t="inlineStr">
         <is>
-          <t>5/22/08</t>
+          <t>5/28/08</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>CDBO-7</t>
+          <t>MCO-3</t>
         </is>
       </c>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>35.84625</t>
+          <t>35.8653</t>
         </is>
       </c>
       <c r="C15" s="1" t="inlineStr">
         <is>
-          <t>-106.26018</t>
+          <t>-106.29406</t>
         </is>
       </c>
       <c r="D15" s="1" t="inlineStr">
         <is>
-          <t>6/1/92</t>
+          <t>3/1/67</t>
         </is>
       </c>
       <c r="E15" s="1" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>12</t>
         </is>
       </c>
       <c r="F15" s="1" t="inlineStr">
         <is>
-          <t>29 - 39</t>
+          <t>2 - 12</t>
         </is>
       </c>
       <c r="G15" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>14.6</t>
         </is>
       </c>
       <c r="H15" s="1" t="inlineStr">
         <is>
-          <t>11/13/08</t>
+          <t>8/12/09</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>MCA-2</t>
+          <t>MCO-4B</t>
         </is>
       </c>
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>35.86077</t>
+          <t>35.86382</t>
         </is>
       </c>
       <c r="C16" s="1" t="inlineStr">
         <is>
-          <t>-106.27133</t>
+          <t>-106.27828</t>
         </is>
       </c>
       <c r="D16" s="1" t="inlineStr">
         <is>
-          <t>10/24/04</t>
+          <t>8/1/90</t>
         </is>
       </c>
       <c r="E16" s="1" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>33.9</t>
         </is>
       </c>
       <c r="F16" s="1" t="inlineStr">
         <is>
-          <t>45 - 60</t>
+          <t>8.9 - 28.9</t>
         </is>
       </c>
       <c r="G16" s="1" t="inlineStr">
         <is>
-          <t>2.9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H16" s="1" t="inlineStr">
         <is>
-          <t>2/28/07</t>
+          <t>3/5/96</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>MCO-4B</t>
+          <t>MCO-6</t>
         </is>
       </c>
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>35.86382</t>
+          <t>35.86194</t>
         </is>
       </c>
       <c r="C17" s="1" t="inlineStr">
         <is>
-          <t>-106.27828</t>
+          <t>-106.27289</t>
         </is>
       </c>
       <c r="D17" s="1" t="inlineStr">
         <is>
-          <t>8/1/90</t>
+          <t>3/1/74</t>
         </is>
       </c>
       <c r="E17" s="1" t="inlineStr">
         <is>
-          <t>33.9</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F17" s="1" t="inlineStr">
         <is>
-          <t>8.9 - 28.9</t>
+          <t>27 - 47</t>
         </is>
       </c>
       <c r="G17" s="1" t="inlineStr">
         <is>
-          <t>6.69</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H17" s="1" t="inlineStr">
         <is>
-          <t>7/6/10</t>
+          <t>2/21/08</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>MCO-6</t>
+          <t>MCO-6B</t>
         </is>
       </c>
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t>35.86194</t>
+          <t>35.86186</t>
         </is>
       </c>
       <c r="C18" s="1" t="inlineStr">
         <is>
-          <t>-106.27289</t>
+          <t>-106.2729</t>
         </is>
       </c>
       <c r="D18" s="1" t="inlineStr">
         <is>
-          <t>3/1/74</t>
+          <t>8/1/90</t>
         </is>
       </c>
       <c r="E18" s="1" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>47.1</t>
         </is>
       </c>
       <c r="F18" s="1" t="inlineStr">
         <is>
-          <t>27 - 47</t>
+          <t>22 - 42</t>
         </is>
       </c>
       <c r="G18" s="1" t="inlineStr">
         <is>
-          <t>4.81</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H18" s="1" t="inlineStr">
         <is>
-          <t>7/7/10</t>
+          <t>5/27/98</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>MCO-6B</t>
+          <t>MCO-7.5</t>
         </is>
       </c>
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>35.86186</t>
+          <t>35.86037</t>
         </is>
       </c>
       <c r="C19" s="1" t="inlineStr">
         <is>
-          <t>-106.2729</t>
+          <t>-106.26675</t>
         </is>
       </c>
       <c r="D19" s="1" t="inlineStr">
         <is>
-          <t>8/1/90</t>
+          <t>4/1/74</t>
         </is>
       </c>
       <c r="E19" s="1" t="inlineStr">
         <is>
-          <t>47.1</t>
+          <t>60</t>
         </is>
       </c>
       <c r="F19" s="1" t="inlineStr">
         <is>
-          <t>22 - 42</t>
+          <t>35 - 60</t>
         </is>
       </c>
       <c r="G19" s="1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H19" s="1" t="inlineStr">
         <is>
-          <t>5/27/98</t>
+          <t>2/6/08</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>MCO-7.5</t>
+          <t>MT-1</t>
         </is>
       </c>
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>35.86037</t>
+          <t>35.86052</t>
         </is>
       </c>
       <c r="C20" s="1" t="inlineStr">
         <is>
-          <t>-106.26675</t>
+          <t>-106.26739</t>
         </is>
       </c>
       <c r="D20" s="1" t="inlineStr">
         <is>
-          <t>4/1/74</t>
+          <t>11/1/88</t>
         </is>
       </c>
       <c r="E20" s="1" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>69</t>
         </is>
       </c>
       <c r="F20" s="1" t="inlineStr">
         <is>
-          <t>35 - 60</t>
+          <t>39 - 59</t>
         </is>
       </c>
       <c r="G20" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2.8</t>
         </is>
       </c>
       <c r="H20" s="1" t="inlineStr">
         <is>
-          <t>3/26/99</t>
+          <t>4/22/05</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>MT-1</t>
+          <t>MT-3</t>
         </is>
       </c>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>35.86052</t>
+          <t>35.86097</t>
         </is>
       </c>
       <c r="C21" s="1" t="inlineStr">
         <is>
-          <t>-106.26739</t>
+          <t>-106.26497</t>
         </is>
       </c>
       <c r="D21" s="1" t="inlineStr">
@@ -7972,39 +8146,39 @@
       </c>
       <c r="E21" s="1" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F21" s="1" t="inlineStr">
         <is>
-          <t>39 - 59</t>
+          <t>44 - 64</t>
         </is>
       </c>
       <c r="G21" s="1" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H21" s="1" t="inlineStr">
         <is>
-          <t>4/22/05</t>
+          <t>2/6/08</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>MT-3</t>
+          <t>MT-4</t>
         </is>
       </c>
       <c r="B22" s="1" t="inlineStr">
         <is>
-          <t>35.86097</t>
+          <t>35.86091</t>
         </is>
       </c>
       <c r="C22" s="1" t="inlineStr">
         <is>
-          <t>-106.26497</t>
+          <t>-106.26302</t>
         </is>
       </c>
       <c r="D22" s="1" t="inlineStr">
@@ -8019,336 +8193,336 @@
       </c>
       <c r="F22" s="1" t="inlineStr">
         <is>
-          <t>44 - 64</t>
+          <t>54 - 64</t>
         </is>
       </c>
       <c r="G22" s="1" t="inlineStr">
         <is>
-          <t>5.63</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="H22" s="1" t="inlineStr">
         <is>
-          <t>7/9/10</t>
+          <t>8/26/98</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>MT-4</t>
-        </is>
-      </c>
-      <c r="B23" s="1" t="inlineStr">
-        <is>
-          <t>35.86091</t>
-        </is>
-      </c>
-      <c r="C23" s="1" t="inlineStr">
-        <is>
-          <t>-106.26302</t>
-        </is>
-      </c>
-      <c r="D23" s="1" t="inlineStr">
-        <is>
-          <t>11/1/88</t>
-        </is>
-      </c>
-      <c r="E23" s="1" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="F23" s="1" t="inlineStr">
-        <is>
-          <t>54 - 64</t>
-        </is>
-      </c>
-      <c r="G23" s="1" t="inlineStr">
-        <is>
-          <t>4.2</t>
-        </is>
-      </c>
-      <c r="H23" s="1" t="inlineStr">
-        <is>
-          <t>8/26/98</t>
-        </is>
-      </c>
+      <c r="A23" s="4" t="inlineStr">
+        <is>
+          <t>Los Alamos and Pajarito Canyons</t>
+        </is>
+      </c>
+      <c r="H23" s="5" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="4" t="inlineStr">
-        <is>
-          <t>Mortendad Canyon</t>
-        </is>
-      </c>
-      <c r="H24" s="5" t="n"/>
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>APCO-1</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>35.87295</t>
+        </is>
+      </c>
+      <c r="C24" s="1" t="inlineStr">
+        <is>
+          <t>-106.22032</t>
+        </is>
+      </c>
+      <c r="D24" s="1" t="inlineStr">
+        <is>
+          <t>8/15/90</t>
+        </is>
+      </c>
+      <c r="E24" s="1" t="inlineStr">
+        <is>
+          <t>19.7</t>
+        </is>
+      </c>
+      <c r="F24" s="1" t="inlineStr">
+        <is>
+          <t>4.7 - 14.7</t>
+        </is>
+      </c>
+      <c r="G24" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H24" s="1" t="inlineStr">
+        <is>
+          <t>1/16/08</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>APCO-1</t>
+          <t>LAO-0.3</t>
         </is>
       </c>
       <c r="B25" s="1" t="inlineStr">
         <is>
-          <t>35.87295</t>
+          <t>35.87704</t>
         </is>
       </c>
       <c r="C25" s="1" t="inlineStr">
         <is>
-          <t>-106.22032</t>
+          <t>-106.30272</t>
         </is>
       </c>
       <c r="D25" s="1" t="inlineStr">
         <is>
-          <t>8/15/90</t>
+          <t>5/27/94</t>
         </is>
       </c>
       <c r="E25" s="1" t="inlineStr">
         <is>
-          <t>19.7</t>
+          <t>11.25</t>
         </is>
       </c>
       <c r="F25" s="1" t="inlineStr">
         <is>
-          <t>4.7 - 14.7</t>
+          <t>5.9 - 10.9</t>
         </is>
       </c>
       <c r="G25" s="1" t="inlineStr">
         <is>
-          <t>7.7</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H25" s="1" t="inlineStr">
         <is>
-          <t>8/8/06</t>
+          <t>3/7/11</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>LAO-0.3</t>
+          <t>LAO-0.6</t>
         </is>
       </c>
       <c r="B26" s="1" t="inlineStr">
         <is>
-          <t>35.87704</t>
+          <t>35.87655</t>
         </is>
       </c>
       <c r="C26" s="1" t="inlineStr">
         <is>
-          <t>-106.30272</t>
+          <t>-106.29614</t>
         </is>
       </c>
       <c r="D26" s="1" t="inlineStr">
         <is>
-          <t>5/27/94</t>
+          <t>5/6/94</t>
         </is>
       </c>
       <c r="E26" s="1" t="inlineStr">
         <is>
-          <t>11.25</t>
+          <t>13.35</t>
         </is>
       </c>
       <c r="F26" s="1" t="inlineStr">
         <is>
-          <t>5.9 - 10.9</t>
+          <t>8 - 13</t>
         </is>
       </c>
       <c r="G26" s="1" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H26" s="1" t="inlineStr">
         <is>
-          <t>9/1/98</t>
+          <t>3/8/11</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>LAO-0.6</t>
+          <t>LAO-0.7</t>
         </is>
       </c>
       <c r="B27" s="1" t="inlineStr">
         <is>
-          <t>35.87655</t>
+          <t>35.87635</t>
         </is>
       </c>
       <c r="C27" s="1" t="inlineStr">
         <is>
-          <t>-106.29614</t>
+          <t>-106.29457</t>
         </is>
       </c>
       <c r="D27" s="1" t="inlineStr">
         <is>
-          <t>5/6/94</t>
+          <t>6/16/93</t>
         </is>
       </c>
       <c r="E27" s="1" t="inlineStr">
         <is>
-          <t>13.35</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F27" s="1" t="inlineStr">
         <is>
-          <t>8 - 13</t>
+          <t>15 - 20</t>
         </is>
       </c>
       <c r="G27" s="1" t="inlineStr">
         <is>
-          <t>5.7</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="H27" s="1" t="inlineStr">
         <is>
-          <t>8/3/06</t>
+          <t>6/18/97</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>LAO-0.7</t>
+          <t>LAO-1</t>
         </is>
       </c>
       <c r="B28" s="1" t="inlineStr">
         <is>
-          <t>35.87635</t>
+          <t>35.87552</t>
         </is>
       </c>
       <c r="C28" s="1" t="inlineStr">
         <is>
-          <t>-106.29457</t>
+          <t>-106.2872</t>
         </is>
       </c>
       <c r="D28" s="1" t="inlineStr">
         <is>
-          <t>6/16/93</t>
+          <t>2/1/66</t>
         </is>
       </c>
       <c r="E28" s="1" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F28" s="1" t="inlineStr">
         <is>
-          <t>15 - 20</t>
+          <t>8 - 28</t>
         </is>
       </c>
       <c r="G28" s="1" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>17</t>
         </is>
       </c>
       <c r="H28" s="1" t="inlineStr">
         <is>
-          <t>6/18/97</t>
+          <t>8/5/02</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>LAO-1</t>
+          <t>LAO-1.6g</t>
         </is>
       </c>
       <c r="B29" s="1" t="inlineStr">
         <is>
-          <t>35.87552</t>
+          <t>35.87168</t>
         </is>
       </c>
       <c r="C29" s="1" t="inlineStr">
         <is>
-          <t>-106.2872</t>
+          <t>-106.26463</t>
         </is>
       </c>
       <c r="D29" s="1" t="inlineStr">
         <is>
-          <t>2/1/66</t>
+          <t>3/20/96</t>
         </is>
       </c>
       <c r="E29" s="1" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>30.82</t>
         </is>
       </c>
       <c r="F29" s="1" t="inlineStr">
         <is>
-          <t>8 - 28</t>
+          <t>10.47 - 25.47</t>
         </is>
       </c>
       <c r="G29" s="1" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>10.8</t>
         </is>
       </c>
       <c r="H29" s="1" t="inlineStr">
         <is>
-          <t>8/5/02</t>
+          <t>8/27/08</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>LAO-1.6g</t>
+          <t>LAO-2</t>
         </is>
       </c>
       <c r="B30" s="1" t="inlineStr">
         <is>
-          <t>35.87168</t>
+          <t>35.87316</t>
         </is>
       </c>
       <c r="C30" s="1" t="inlineStr">
         <is>
-          <t>-106.26463</t>
+          <t>-106.25948</t>
         </is>
       </c>
       <c r="D30" s="1" t="inlineStr">
         <is>
-          <t>3/20/96</t>
+          <t>2/1/66</t>
         </is>
       </c>
       <c r="E30" s="1" t="inlineStr">
         <is>
-          <t>30.82</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F30" s="1" t="inlineStr">
         <is>
-          <t>10.47 - 25.47</t>
+          <t>7 - 32</t>
         </is>
       </c>
       <c r="G30" s="1" t="inlineStr">
         <is>
-          <t>10.8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="H30" s="1" t="inlineStr">
         <is>
-          <t>8/27/08</t>
+          <t>11/13/96</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>LAO-2</t>
+          <t>LAO-4</t>
         </is>
       </c>
       <c r="B31" s="1" t="inlineStr">
         <is>
-          <t>35.87316</t>
+          <t>35.87216</t>
         </is>
       </c>
       <c r="C31" s="1" t="inlineStr">
         <is>
-          <t>-106.25948</t>
+          <t>-106.24887</t>
         </is>
       </c>
       <c r="D31" s="1" t="inlineStr">
@@ -8358,502 +8532,502 @@
       </c>
       <c r="E31" s="1" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>24</t>
         </is>
       </c>
       <c r="F31" s="1" t="inlineStr">
         <is>
-          <t>7 - 32</t>
+          <t>14 - 24</t>
         </is>
       </c>
       <c r="G31" s="1" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H31" s="1" t="inlineStr">
         <is>
-          <t>11/13/96</t>
+          <t>7/29/96</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>LAO-4</t>
+          <t>LAO-4.5c</t>
         </is>
       </c>
       <c r="B32" s="1" t="inlineStr">
         <is>
-          <t>35.87216</t>
+          <t>35.87036</t>
         </is>
       </c>
       <c r="C32" s="1" t="inlineStr">
         <is>
-          <t>-106.24887</t>
+          <t>-106.23943</t>
         </is>
       </c>
       <c r="D32" s="1" t="inlineStr">
         <is>
-          <t>2/1/66</t>
+          <t>11/1/89</t>
         </is>
       </c>
       <c r="E32" s="1" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>23.3</t>
         </is>
       </c>
       <c r="F32" s="1" t="inlineStr">
         <is>
-          <t>14 - 24</t>
+          <t>13.3 - 23.3</t>
         </is>
       </c>
       <c r="G32" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H32" s="1" t="inlineStr">
         <is>
-          <t>7/29/96</t>
+          <t>7/14/09</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>LAO-4.5c</t>
+          <t>LAO-5</t>
         </is>
       </c>
       <c r="B33" s="1" t="inlineStr">
         <is>
-          <t>35.87036</t>
+          <t>35.86857</t>
         </is>
       </c>
       <c r="C33" s="1" t="inlineStr">
         <is>
-          <t>-106.23943</t>
+          <t>-106.23047</t>
         </is>
       </c>
       <c r="D33" s="1" t="inlineStr">
         <is>
-          <t>11/1/89</t>
+          <t>2/1/66</t>
         </is>
       </c>
       <c r="E33" s="1" t="inlineStr">
         <is>
-          <t>23.3</t>
+          <t>25</t>
         </is>
       </c>
       <c r="F33" s="1" t="inlineStr">
         <is>
-          <t>13.3 - 23.3</t>
+          <t>5 - 25</t>
         </is>
       </c>
       <c r="G33" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="H33" s="1" t="inlineStr">
         <is>
-          <t>11/6/01</t>
+          <t>8/31/98</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>LAO-5</t>
+          <t>LAO-B</t>
         </is>
       </c>
       <c r="B34" s="1" t="inlineStr">
         <is>
-          <t>35.86857</t>
+          <t>35.87883</t>
         </is>
       </c>
       <c r="C34" s="1" t="inlineStr">
         <is>
-          <t>-106.23047</t>
+          <t>-106.3353</t>
         </is>
       </c>
       <c r="D34" s="1" t="inlineStr">
         <is>
-          <t>2/1/66</t>
+          <t>4/28/94</t>
         </is>
       </c>
       <c r="E34" s="1" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>27.2</t>
         </is>
       </c>
       <c r="F34" s="1" t="inlineStr">
         <is>
-          <t>5 - 25</t>
+          <t>11.84 - 26.84</t>
         </is>
       </c>
       <c r="G34" s="1" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H34" s="1" t="inlineStr">
         <is>
-          <t>8/31/98</t>
+          <t>7/14/09</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>LAO-B</t>
+          <t>LAO-C</t>
         </is>
       </c>
       <c r="B35" s="1" t="inlineStr">
         <is>
-          <t>35.87883</t>
+          <t>35.87906</t>
         </is>
       </c>
       <c r="C35" s="1" t="inlineStr">
         <is>
-          <t>-106.3353</t>
+          <t>-106.31164</t>
         </is>
       </c>
       <c r="D35" s="1" t="inlineStr">
         <is>
-          <t>4/28/94</t>
+          <t>8/1/70</t>
         </is>
       </c>
       <c r="E35" s="1" t="inlineStr">
         <is>
-          <t>27.2</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F35" s="1" t="inlineStr">
         <is>
-          <t>11.84 - 26.84</t>
+          <t>3 - 13</t>
         </is>
       </c>
       <c r="G35" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6.5</t>
         </is>
       </c>
       <c r="H35" s="1" t="inlineStr">
         <is>
-          <t>11/7/01</t>
+          <t>7/10/96</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>LAO-C</t>
+          <t>PAO-3</t>
         </is>
       </c>
       <c r="B36" s="1" t="inlineStr">
         <is>
-          <t>35.87906</t>
+          <t>35.88349</t>
         </is>
       </c>
       <c r="C36" s="1" t="inlineStr">
         <is>
-          <t>-106.31164</t>
+          <t>-106.25901</t>
         </is>
       </c>
       <c r="D36" s="1" t="inlineStr">
         <is>
-          <t>8/1/70</t>
+          <t>8/27/98</t>
         </is>
       </c>
       <c r="E36" s="1" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>13.47</t>
         </is>
       </c>
       <c r="F36" s="1" t="inlineStr">
         <is>
-          <t>3 - 13</t>
+          <t>5.62 - 10.62</t>
         </is>
       </c>
       <c r="G36" s="1" t="inlineStr">
         <is>
-          <t>6.5</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="H36" s="1" t="inlineStr">
         <is>
-          <t>7/10/96</t>
+          <t>5/10/05</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>PAO-3</t>
+          <t>PAO-4</t>
         </is>
       </c>
       <c r="B37" s="1" t="inlineStr">
         <is>
-          <t>35.88349</t>
+          <t>35.87866</t>
         </is>
       </c>
       <c r="C37" s="1" t="inlineStr">
         <is>
-          <t>-106.25901</t>
+          <t>-106.23085</t>
         </is>
       </c>
       <c r="D37" s="1" t="inlineStr">
         <is>
-          <t>8/27/98</t>
+          <t>7/24/97</t>
         </is>
       </c>
       <c r="E37" s="1" t="inlineStr">
         <is>
-          <t>13.47</t>
+          <t>9.82</t>
         </is>
       </c>
       <c r="F37" s="1" t="inlineStr">
         <is>
-          <t>5.62 - 10.62</t>
+          <t>1.97 - 6.97</t>
         </is>
       </c>
       <c r="G37" s="1" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>7.04</t>
         </is>
       </c>
       <c r="H37" s="1" t="inlineStr">
         <is>
-          <t>5/10/05</t>
+          <t>7/20/09</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>PAO-4</t>
+          <t>18-BG-1</t>
         </is>
       </c>
       <c r="B38" s="1" t="inlineStr">
         <is>
-          <t>35.87866</t>
+          <t>35.84426</t>
         </is>
       </c>
       <c r="C38" s="1" t="inlineStr">
         <is>
-          <t>-106.23085</t>
+          <t>-106.27114</t>
         </is>
       </c>
       <c r="D38" s="1" t="inlineStr">
         <is>
-          <t>7/24/97</t>
+          <t>9/1/94</t>
         </is>
       </c>
       <c r="E38" s="1" t="inlineStr">
         <is>
-          <t>9.82</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F38" s="1" t="inlineStr">
         <is>
-          <t>1.97 - 6.97</t>
+          <t>10 - 35</t>
         </is>
       </c>
       <c r="G38" s="1" t="inlineStr">
         <is>
-          <t>7.04</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H38" s="1" t="inlineStr">
         <is>
-          <t>7/20/09</t>
+          <t>3/4/08</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>18-BG-1</t>
+          <t>18-MW-11</t>
         </is>
       </c>
       <c r="B39" s="1" t="inlineStr">
         <is>
-          <t>35.84426</t>
+          <t>35.84031</t>
         </is>
       </c>
       <c r="C39" s="1" t="inlineStr">
         <is>
-          <t>-106.27114</t>
-        </is>
-      </c>
-      <c r="D39" s="1" t="inlineStr">
-        <is>
-          <t>9/1/94</t>
-        </is>
-      </c>
+          <t>-106.2649</t>
+        </is>
+      </c>
+      <c r="D39" s="1" t="inlineStr"/>
       <c r="E39" s="1" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F39" s="1" t="inlineStr">
         <is>
-          <t>10 - 35</t>
+          <t>27 - 47</t>
         </is>
       </c>
       <c r="G39" s="1" t="inlineStr">
         <is>
-          <t>6.72</t>
+          <t>10.9</t>
         </is>
       </c>
       <c r="H39" s="1" t="inlineStr">
         <is>
-          <t>2/22/10</t>
+          <t>3/28/07</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>18-MW-11</t>
+          <t>18-MW-8</t>
         </is>
       </c>
       <c r="B40" s="1" t="inlineStr">
         <is>
-          <t>35.84031</t>
+          <t>35.83899</t>
         </is>
       </c>
       <c r="C40" s="1" t="inlineStr">
         <is>
-          <t>-106.2649</t>
-        </is>
-      </c>
-      <c r="D40" s="1" t="inlineStr"/>
+          <t>-106.26924</t>
+        </is>
+      </c>
+      <c r="D40" s="1" t="inlineStr">
+        <is>
+          <t>8/4/94</t>
+        </is>
+      </c>
       <c r="E40" s="1" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>37.9</t>
         </is>
       </c>
       <c r="F40" s="1" t="inlineStr">
         <is>
-          <t>27 - 47</t>
+          <t>8 - 38</t>
         </is>
       </c>
       <c r="G40" s="1" t="inlineStr">
         <is>
-          <t>10.9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H40" s="1" t="inlineStr">
         <is>
-          <t>3/28/07</t>
+          <t>3/3/08</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>18-MW-8</t>
+          <t>18-MW-9</t>
         </is>
       </c>
       <c r="B41" s="1" t="inlineStr">
         <is>
-          <t>35.83899</t>
+          <t>35.83964</t>
         </is>
       </c>
       <c r="C41" s="1" t="inlineStr">
         <is>
-          <t>-106.26924</t>
+          <t>-106.26507</t>
         </is>
       </c>
       <c r="D41" s="1" t="inlineStr">
         <is>
-          <t>8/4/94</t>
+          <t>7/21/94</t>
         </is>
       </c>
       <c r="E41" s="1" t="inlineStr">
         <is>
-          <t>37.9</t>
+          <t>21</t>
         </is>
       </c>
       <c r="F41" s="1" t="inlineStr">
         <is>
-          <t>8 - 38</t>
+          <t>6 - 21</t>
         </is>
       </c>
       <c r="G41" s="1" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H41" s="1" t="inlineStr">
         <is>
-          <t>6/16/08</t>
+          <t>12/18/07</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>18-MW-9</t>
+          <t>3MAO-2</t>
         </is>
       </c>
       <c r="B42" s="1" t="inlineStr">
         <is>
-          <t>35.83964</t>
+          <t>35.83915</t>
         </is>
       </c>
       <c r="C42" s="1" t="inlineStr">
         <is>
-          <t>-106.26507</t>
+          <t>-106.27238</t>
         </is>
       </c>
       <c r="D42" s="1" t="inlineStr">
         <is>
-          <t>7/21/94</t>
+          <t>6/4/08</t>
         </is>
       </c>
       <c r="E42" s="1" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>30</t>
         </is>
       </c>
       <c r="F42" s="1" t="inlineStr">
         <is>
-          <t>6 - 21</t>
+          <t>14.7 - 24.7</t>
         </is>
       </c>
       <c r="G42" s="1" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H42" s="1" t="inlineStr">
         <is>
-          <t>6/11/08</t>
+          <t>6/23/08</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>3MAO-2</t>
+          <t>PCAO-5</t>
         </is>
       </c>
       <c r="B43" s="1" t="inlineStr">
         <is>
-          <t>35.83915</t>
+          <t>35.85353</t>
         </is>
       </c>
       <c r="C43" s="1" t="inlineStr">
         <is>
-          <t>-106.27238</t>
+          <t>-106.29474</t>
         </is>
       </c>
       <c r="D43" s="1" t="inlineStr">
         <is>
-          <t>6/4/08</t>
+          <t>5/3/08</t>
         </is>
       </c>
       <c r="E43" s="1" t="inlineStr">
@@ -8868,54 +9042,54 @@
       </c>
       <c r="G43" s="1" t="inlineStr">
         <is>
-          <t>5.56</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H43" s="1" t="inlineStr">
         <is>
-          <t>6/7/10</t>
+          <t>6/9/08</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>PCAO-5</t>
+          <t>PCAO-6</t>
         </is>
       </c>
       <c r="B44" s="1" t="inlineStr">
         <is>
-          <t>35.85353</t>
+          <t>35.85336</t>
         </is>
       </c>
       <c r="C44" s="1" t="inlineStr">
         <is>
-          <t>-106.29474</t>
+          <t>-106.29322</t>
         </is>
       </c>
       <c r="D44" s="1" t="inlineStr">
         <is>
-          <t>5/3/08</t>
+          <t>6/5/08</t>
         </is>
       </c>
       <c r="E44" s="1" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>20</t>
         </is>
       </c>
       <c r="F44" s="1" t="inlineStr">
         <is>
-          <t>14.7 - 24.7</t>
+          <t>8 - 15</t>
         </is>
       </c>
       <c r="G44" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H44" s="1" t="inlineStr">
         <is>
-          <t>9/8/08</t>
+          <t>6/4/10</t>
         </is>
       </c>
     </row>
@@ -8952,12 +9126,12 @@
       </c>
       <c r="G45" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H45" s="1" t="inlineStr">
         <is>
-          <t>9/8/08</t>
+          <t>6/22/08</t>
         </is>
       </c>
     </row>
@@ -8994,12 +9168,12 @@
       </c>
       <c r="G46" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H46" s="1" t="inlineStr">
         <is>
-          <t>12/18/08</t>
+          <t>6/25/08</t>
         </is>
       </c>
     </row>
@@ -9036,12 +9210,12 @@
       </c>
       <c r="G47" s="1" t="inlineStr">
         <is>
-          <t>6.47</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H47" s="1" t="inlineStr">
         <is>
-          <t>3/2/10</t>
+          <t>6/22/08</t>
         </is>
       </c>
     </row>
@@ -9078,12 +9252,12 @@
       </c>
       <c r="G48" s="1" t="inlineStr">
         <is>
-          <t>9.1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H48" s="1" t="inlineStr">
         <is>
-          <t>9/17/08</t>
+          <t>6/25/08</t>
         </is>
       </c>
     </row>
@@ -9162,12 +9336,12 @@
       </c>
       <c r="G50" s="1" t="inlineStr">
         <is>
-          <t>5.8</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H50" s="1" t="inlineStr">
         <is>
-          <t>6/25/07</t>
+          <t>3/7/08</t>
         </is>
       </c>
     </row>
@@ -9204,12 +9378,12 @@
       </c>
       <c r="G51" s="1" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H51" s="1" t="inlineStr">
         <is>
-          <t>12/7/07</t>
+          <t>3/18/08</t>
         </is>
       </c>
     </row>
@@ -9246,22 +9420,21 @@
       </c>
       <c r="G52" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H52" s="1" t="inlineStr">
         <is>
-          <t>9/12/08</t>
+          <t>6/2/10</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="A23:H23"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Tables/Alluvial- Appendix.xlsx
+++ b/Tables/Alluvial- Appendix.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Alluvial for Mapping" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Alluvial Exhibit" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alluvial for Mapping" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alluvial Exhibit" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1257,12 +1257,12 @@
       </c>
       <c r="V6" s="1" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>5.5</t>
         </is>
       </c>
       <c r="W6" s="1" t="inlineStr">
         <is>
-          <t>2008-05-22</t>
+          <t>2008-02-11</t>
         </is>
       </c>
       <c r="X6" s="1" t="inlineStr">
@@ -1393,12 +1393,12 @@
       </c>
       <c r="V7" s="1" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>No Detect Data</t>
         </is>
       </c>
       <c r="W7" s="1" t="inlineStr">
         <is>
-          <t>2008-11-13</t>
+          <t>No Detect Data</t>
         </is>
       </c>
       <c r="X7" s="1" t="inlineStr">
@@ -2265,12 +2265,12 @@
       </c>
       <c r="V13" s="1" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>6.69</t>
         </is>
       </c>
       <c r="W13" s="1" t="inlineStr">
         <is>
-          <t>1996-03-05</t>
+          <t>2010-07-06</t>
         </is>
       </c>
       <c r="X13" s="1" t="inlineStr">
@@ -2405,12 +2405,12 @@
       </c>
       <c r="V14" s="1" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>4.81</t>
         </is>
       </c>
       <c r="W14" s="1" t="inlineStr">
         <is>
-          <t>2008-02-21</t>
+          <t>2010-07-07</t>
         </is>
       </c>
       <c r="X14" s="1" t="inlineStr">
@@ -2557,12 +2557,12 @@
       </c>
       <c r="V15" s="1" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>No Detect Data</t>
         </is>
       </c>
       <c r="W15" s="1" t="inlineStr">
         <is>
-          <t>1998-05-27</t>
+          <t>No Detect Data</t>
         </is>
       </c>
       <c r="X15" s="1" t="inlineStr">
@@ -2689,12 +2689,12 @@
       </c>
       <c r="V16" s="1" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>4.69</t>
         </is>
       </c>
       <c r="W16" s="1" t="inlineStr">
         <is>
-          <t>2008-02-06</t>
+          <t>2010-07-08</t>
         </is>
       </c>
       <c r="X16" s="1" t="inlineStr">
@@ -2961,12 +2961,12 @@
       </c>
       <c r="V18" s="1" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>5.63</t>
         </is>
       </c>
       <c r="W18" s="1" t="inlineStr">
         <is>
-          <t>2008-02-06</t>
+          <t>2010-07-09</t>
         </is>
       </c>
       <c r="X18" s="1" t="inlineStr">
@@ -3089,12 +3089,12 @@
       </c>
       <c r="V19" s="1" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="W19" s="1" t="inlineStr">
         <is>
-          <t>1998-08-26</t>
+          <t>2007-03-13</t>
         </is>
       </c>
       <c r="X19" s="1" t="inlineStr">
@@ -3233,12 +3233,12 @@
       </c>
       <c r="V20" s="1" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>2.26</t>
         </is>
       </c>
       <c r="W20" s="1" t="inlineStr">
         <is>
-          <t>2008-01-16</t>
+          <t>2013-06-05</t>
         </is>
       </c>
       <c r="X20" s="1" t="inlineStr">
@@ -3361,12 +3361,12 @@
       </c>
       <c r="V21" s="1" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>No Detect Data</t>
         </is>
       </c>
       <c r="W21" s="1" t="inlineStr">
         <is>
-          <t>2011-03-07</t>
+          <t>No Detect Data</t>
         </is>
       </c>
       <c r="X21" s="1" t="inlineStr">
@@ -3509,12 +3509,12 @@
       </c>
       <c r="V22" s="1" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>5.7</t>
         </is>
       </c>
       <c r="W22" s="1" t="inlineStr">
         <is>
-          <t>2011-03-08</t>
+          <t>2006-08-03</t>
         </is>
       </c>
       <c r="X22" s="1" t="inlineStr">
@@ -3653,12 +3653,12 @@
       </c>
       <c r="V23" s="1" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>0.885</t>
         </is>
       </c>
       <c r="W23" s="1" t="inlineStr">
         <is>
-          <t>1997-06-18</t>
+          <t>2003-07-09</t>
         </is>
       </c>
       <c r="X23" s="1" t="inlineStr">
@@ -4077,12 +4077,12 @@
       </c>
       <c r="V26" s="1" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="W26" s="1" t="inlineStr">
         <is>
-          <t>1996-11-13</t>
+          <t>2007-07-23</t>
         </is>
       </c>
       <c r="X26" s="1" t="inlineStr">
@@ -4229,12 +4229,12 @@
       </c>
       <c r="V27" s="1" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>No Detect Data</t>
         </is>
       </c>
       <c r="W27" s="1" t="inlineStr">
         <is>
-          <t>1996-07-29</t>
+          <t>No Detect Data</t>
         </is>
       </c>
       <c r="X27" s="1" t="inlineStr">
@@ -4357,12 +4357,12 @@
       </c>
       <c r="V28" s="1" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="W28" s="1" t="inlineStr">
         <is>
-          <t>2009-07-14</t>
+          <t>2007-07-19</t>
         </is>
       </c>
       <c r="X28" s="1" t="inlineStr">
@@ -4485,12 +4485,12 @@
       </c>
       <c r="V29" s="1" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="W29" s="1" t="inlineStr">
         <is>
-          <t>1998-08-31</t>
+          <t>2007-08-03</t>
         </is>
       </c>
       <c r="X29" s="1" t="inlineStr">
@@ -4633,12 +4633,12 @@
       </c>
       <c r="V30" s="1" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="W30" s="1" t="inlineStr">
         <is>
-          <t>2009-07-14</t>
+          <t>2005-05-10</t>
         </is>
       </c>
       <c r="X30" s="1" t="inlineStr">
@@ -4781,12 +4781,12 @@
       </c>
       <c r="V31" s="1" t="inlineStr">
         <is>
-          <t>6.5</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="W31" s="1" t="inlineStr">
         <is>
-          <t>1996-07-10</t>
+          <t>2003-07-09</t>
         </is>
       </c>
       <c r="X31" s="1" t="inlineStr">
@@ -5085,12 +5085,12 @@
       </c>
       <c r="V33" s="1" t="inlineStr">
         <is>
-          <t>7.04</t>
+          <t>2.6</t>
         </is>
       </c>
       <c r="W33" s="1" t="inlineStr">
         <is>
-          <t>2009-07-20</t>
+          <t>2007-08-02</t>
         </is>
       </c>
       <c r="X33" s="1" t="inlineStr">
@@ -5233,12 +5233,12 @@
       </c>
       <c r="V34" s="1" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>6.72</t>
         </is>
       </c>
       <c r="W34" s="1" t="inlineStr">
         <is>
-          <t>2008-03-04</t>
+          <t>2010-02-22</t>
         </is>
       </c>
       <c r="X34" s="1" t="inlineStr">
@@ -5377,12 +5377,12 @@
       </c>
       <c r="V35" s="1" t="inlineStr">
         <is>
-          <t>10.9</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="W35" s="1" t="inlineStr">
         <is>
-          <t>2007-03-28</t>
+          <t>2008-06-17</t>
         </is>
       </c>
       <c r="X35" s="1" t="inlineStr">
@@ -5525,12 +5525,12 @@
       </c>
       <c r="V36" s="1" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="W36" s="1" t="inlineStr">
         <is>
-          <t>2008-03-03</t>
+          <t>2008-06-16</t>
         </is>
       </c>
       <c r="X36" s="1" t="inlineStr">
@@ -5677,12 +5677,12 @@
       </c>
       <c r="V37" s="1" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>2.8</t>
         </is>
       </c>
       <c r="W37" s="1" t="inlineStr">
         <is>
-          <t>2007-12-18</t>
+          <t>2006-12-11</t>
         </is>
       </c>
       <c r="X37" s="1" t="inlineStr">
@@ -5829,12 +5829,12 @@
       </c>
       <c r="V38" s="1" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>5.56</t>
         </is>
       </c>
       <c r="W38" s="1" t="inlineStr">
         <is>
-          <t>2008-06-23</t>
+          <t>2010-06-07</t>
         </is>
       </c>
       <c r="X38" s="1" t="inlineStr">
@@ -5981,12 +5981,12 @@
       </c>
       <c r="V39" s="1" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>No Detect Data</t>
         </is>
       </c>
       <c r="W39" s="1" t="inlineStr">
         <is>
-          <t>2008-06-09</t>
+          <t>No Detect Data</t>
         </is>
       </c>
       <c r="X39" s="1" t="inlineStr">
@@ -6133,7 +6133,7 @@
       </c>
       <c r="V40" s="1" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>2.68</t>
         </is>
       </c>
       <c r="W40" s="1" t="inlineStr">
@@ -6285,12 +6285,12 @@
       </c>
       <c r="V41" s="1" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>No Detect Data</t>
         </is>
       </c>
       <c r="W41" s="1" t="inlineStr">
         <is>
-          <t>2008-06-22</t>
+          <t>No Detect Data</t>
         </is>
       </c>
       <c r="X41" s="1" t="inlineStr">
@@ -6437,12 +6437,12 @@
       </c>
       <c r="V42" s="1" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="W42" s="1" t="inlineStr">
         <is>
-          <t>2008-06-25</t>
+          <t>2008-12-18</t>
         </is>
       </c>
       <c r="X42" s="1" t="inlineStr">
@@ -6589,12 +6589,12 @@
       </c>
       <c r="V43" s="1" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>2.74</t>
         </is>
       </c>
       <c r="W43" s="1" t="inlineStr">
         <is>
-          <t>2008-06-22</t>
+          <t>2009-09-14</t>
         </is>
       </c>
       <c r="X43" s="1" t="inlineStr">
@@ -6741,12 +6741,12 @@
       </c>
       <c r="V44" s="1" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>9.1</t>
         </is>
       </c>
       <c r="W44" s="1" t="inlineStr">
         <is>
-          <t>2008-06-25</t>
+          <t>2008-09-17</t>
         </is>
       </c>
       <c r="X44" s="1" t="inlineStr">
@@ -6881,12 +6881,12 @@
       </c>
       <c r="V45" s="1" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="W45" s="1" t="inlineStr">
         <is>
-          <t>1999-03-26</t>
+          <t>2005-08-24</t>
         </is>
       </c>
       <c r="X45" s="1" t="inlineStr">
@@ -7017,12 +7017,12 @@
       </c>
       <c r="V46" s="1" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>5.8</t>
         </is>
       </c>
       <c r="W46" s="1" t="inlineStr">
         <is>
-          <t>2008-03-07</t>
+          <t>2007-06-25</t>
         </is>
       </c>
       <c r="X46" s="1" t="inlineStr">
@@ -7153,12 +7153,12 @@
       </c>
       <c r="V47" s="1" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="W47" s="1" t="inlineStr">
         <is>
-          <t>2008-03-18</t>
+          <t>2007-12-07</t>
         </is>
       </c>
       <c r="X47" s="1" t="inlineStr">
@@ -7305,12 +7305,12 @@
       </c>
       <c r="V48" s="1" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>No Detect Data</t>
         </is>
       </c>
       <c r="W48" s="1" t="inlineStr">
         <is>
-          <t>2010-06-02</t>
+          <t>No Detect Data</t>
         </is>
       </c>
       <c r="X48" s="1" t="inlineStr">
@@ -7652,12 +7652,12 @@
       </c>
       <c r="G9" s="1" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>5.5</t>
         </is>
       </c>
       <c r="H9" s="1" t="inlineStr">
         <is>
-          <t>5/22/08</t>
+          <t>2/11/08</t>
         </is>
       </c>
     </row>
@@ -7694,12 +7694,12 @@
       </c>
       <c r="G10" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H10" s="1" t="inlineStr">
         <is>
-          <t>11/13/08</t>
+          <t>NA</t>
         </is>
       </c>
     </row>
@@ -7946,12 +7946,12 @@
       </c>
       <c r="G16" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6.69</t>
         </is>
       </c>
       <c r="H16" s="1" t="inlineStr">
         <is>
-          <t>3/5/96</t>
+          <t>7/6/10</t>
         </is>
       </c>
     </row>
@@ -7988,12 +7988,12 @@
       </c>
       <c r="G17" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4.81</t>
         </is>
       </c>
       <c r="H17" s="1" t="inlineStr">
         <is>
-          <t>2/21/08</t>
+          <t>7/7/10</t>
         </is>
       </c>
     </row>
@@ -8030,12 +8030,12 @@
       </c>
       <c r="G18" s="1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H18" s="1" t="inlineStr">
         <is>
-          <t>5/27/98</t>
+          <t>NA</t>
         </is>
       </c>
     </row>
@@ -8072,12 +8072,12 @@
       </c>
       <c r="G19" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4.69</t>
         </is>
       </c>
       <c r="H19" s="1" t="inlineStr">
         <is>
-          <t>2/6/08</t>
+          <t>7/8/10</t>
         </is>
       </c>
     </row>
@@ -8156,12 +8156,12 @@
       </c>
       <c r="G21" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5.63</t>
         </is>
       </c>
       <c r="H21" s="1" t="inlineStr">
         <is>
-          <t>2/6/08</t>
+          <t>7/9/10</t>
         </is>
       </c>
     </row>
@@ -8198,12 +8198,12 @@
       </c>
       <c r="G22" s="1" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="H22" s="1" t="inlineStr">
         <is>
-          <t>8/26/98</t>
+          <t>3/13/07</t>
         </is>
       </c>
     </row>
@@ -8248,12 +8248,12 @@
       </c>
       <c r="G24" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2.26</t>
         </is>
       </c>
       <c r="H24" s="1" t="inlineStr">
         <is>
-          <t>1/16/08</t>
+          <t>6/5/13</t>
         </is>
       </c>
     </row>
@@ -8290,12 +8290,12 @@
       </c>
       <c r="G25" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H25" s="1" t="inlineStr">
         <is>
-          <t>3/7/11</t>
+          <t>NA</t>
         </is>
       </c>
     </row>
@@ -8332,12 +8332,12 @@
       </c>
       <c r="G26" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5.7</t>
         </is>
       </c>
       <c r="H26" s="1" t="inlineStr">
         <is>
-          <t>3/8/11</t>
+          <t>8/3/06</t>
         </is>
       </c>
     </row>
@@ -8374,12 +8374,12 @@
       </c>
       <c r="G27" s="1" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>0.885</t>
         </is>
       </c>
       <c r="H27" s="1" t="inlineStr">
         <is>
-          <t>6/18/97</t>
+          <t>7/9/03</t>
         </is>
       </c>
     </row>
@@ -8500,12 +8500,12 @@
       </c>
       <c r="G30" s="1" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H30" s="1" t="inlineStr">
         <is>
-          <t>11/13/96</t>
+          <t>7/23/07</t>
         </is>
       </c>
     </row>
@@ -8542,12 +8542,12 @@
       </c>
       <c r="G31" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H31" s="1" t="inlineStr">
         <is>
-          <t>7/29/96</t>
+          <t>NA</t>
         </is>
       </c>
     </row>
@@ -8584,12 +8584,12 @@
       </c>
       <c r="G32" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="H32" s="1" t="inlineStr">
         <is>
-          <t>7/14/09</t>
+          <t>7/19/07</t>
         </is>
       </c>
     </row>
@@ -8626,12 +8626,12 @@
       </c>
       <c r="G33" s="1" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="H33" s="1" t="inlineStr">
         <is>
-          <t>8/31/98</t>
+          <t>8/3/07</t>
         </is>
       </c>
     </row>
@@ -8668,12 +8668,12 @@
       </c>
       <c r="G34" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="H34" s="1" t="inlineStr">
         <is>
-          <t>7/14/09</t>
+          <t>5/10/05</t>
         </is>
       </c>
     </row>
@@ -8710,12 +8710,12 @@
       </c>
       <c r="G35" s="1" t="inlineStr">
         <is>
-          <t>6.5</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="H35" s="1" t="inlineStr">
         <is>
-          <t>7/10/96</t>
+          <t>7/9/03</t>
         </is>
       </c>
     </row>
@@ -8794,12 +8794,12 @@
       </c>
       <c r="G37" s="1" t="inlineStr">
         <is>
-          <t>7.04</t>
+          <t>2.6</t>
         </is>
       </c>
       <c r="H37" s="1" t="inlineStr">
         <is>
-          <t>7/20/09</t>
+          <t>8/2/07</t>
         </is>
       </c>
     </row>
@@ -8836,12 +8836,12 @@
       </c>
       <c r="G38" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6.72</t>
         </is>
       </c>
       <c r="H38" s="1" t="inlineStr">
         <is>
-          <t>3/4/08</t>
+          <t>2/22/10</t>
         </is>
       </c>
     </row>
@@ -8874,12 +8874,12 @@
       </c>
       <c r="G39" s="1" t="inlineStr">
         <is>
-          <t>10.9</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="H39" s="1" t="inlineStr">
         <is>
-          <t>3/28/07</t>
+          <t>6/17/08</t>
         </is>
       </c>
     </row>
@@ -8916,12 +8916,12 @@
       </c>
       <c r="G40" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="H40" s="1" t="inlineStr">
         <is>
-          <t>3/3/08</t>
+          <t>6/16/08</t>
         </is>
       </c>
     </row>
@@ -8958,12 +8958,12 @@
       </c>
       <c r="G41" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2.8</t>
         </is>
       </c>
       <c r="H41" s="1" t="inlineStr">
         <is>
-          <t>12/18/07</t>
+          <t>12/11/06</t>
         </is>
       </c>
     </row>
@@ -9000,12 +9000,12 @@
       </c>
       <c r="G42" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5.56</t>
         </is>
       </c>
       <c r="H42" s="1" t="inlineStr">
         <is>
-          <t>6/23/08</t>
+          <t>6/7/10</t>
         </is>
       </c>
     </row>
@@ -9042,12 +9042,12 @@
       </c>
       <c r="G43" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H43" s="1" t="inlineStr">
         <is>
-          <t>6/9/08</t>
+          <t>NA</t>
         </is>
       </c>
     </row>
@@ -9084,7 +9084,7 @@
       </c>
       <c r="G44" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2.68</t>
         </is>
       </c>
       <c r="H44" s="1" t="inlineStr">
@@ -9126,12 +9126,12 @@
       </c>
       <c r="G45" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H45" s="1" t="inlineStr">
         <is>
-          <t>6/22/08</t>
+          <t>NA</t>
         </is>
       </c>
     </row>
@@ -9168,12 +9168,12 @@
       </c>
       <c r="G46" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H46" s="1" t="inlineStr">
         <is>
-          <t>6/25/08</t>
+          <t>12/18/08</t>
         </is>
       </c>
     </row>
@@ -9210,12 +9210,12 @@
       </c>
       <c r="G47" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2.74</t>
         </is>
       </c>
       <c r="H47" s="1" t="inlineStr">
         <is>
-          <t>6/22/08</t>
+          <t>9/14/09</t>
         </is>
       </c>
     </row>
@@ -9252,12 +9252,12 @@
       </c>
       <c r="G48" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9.1</t>
         </is>
       </c>
       <c r="H48" s="1" t="inlineStr">
         <is>
-          <t>6/25/08</t>
+          <t>9/17/08</t>
         </is>
       </c>
     </row>
@@ -9294,12 +9294,12 @@
       </c>
       <c r="G49" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H49" s="1" t="inlineStr">
         <is>
-          <t>3/26/99</t>
+          <t>8/24/05</t>
         </is>
       </c>
     </row>
@@ -9336,12 +9336,12 @@
       </c>
       <c r="G50" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5.8</t>
         </is>
       </c>
       <c r="H50" s="1" t="inlineStr">
         <is>
-          <t>3/7/08</t>
+          <t>6/25/07</t>
         </is>
       </c>
     </row>
@@ -9378,12 +9378,12 @@
       </c>
       <c r="G51" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="H51" s="1" t="inlineStr">
         <is>
-          <t>3/18/08</t>
+          <t>12/7/07</t>
         </is>
       </c>
     </row>
@@ -9420,12 +9420,12 @@
       </c>
       <c r="G52" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H52" s="1" t="inlineStr">
         <is>
-          <t>6/2/10</t>
+          <t>NA</t>
         </is>
       </c>
     </row>

--- a/Tables/Alluvial- Appendix.xlsx
+++ b/Tables/Alluvial- Appendix.xlsx
@@ -1267,7 +1267,7 @@
       </c>
       <c r="X6" s="1" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="Y6" s="1" t="inlineStr">
@@ -1403,12 +1403,12 @@
       </c>
       <c r="X7" s="1" t="inlineStr">
         <is>
-          <t>2.38</t>
+          <t>No Detect Data</t>
         </is>
       </c>
       <c r="Y7" s="1" t="inlineStr">
         <is>
-          <t>2009-05-06</t>
+          <t>No Detect Data</t>
         </is>
       </c>
       <c r="Z7" s="1" t="inlineStr">
@@ -1555,12 +1555,12 @@
       </c>
       <c r="X8" s="1" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>2.8</t>
         </is>
       </c>
       <c r="Y8" s="1" t="inlineStr">
         <is>
-          <t>2009-08-06</t>
+          <t>2008-11-06</t>
         </is>
       </c>
       <c r="Z8" s="1" t="inlineStr">
@@ -2567,12 +2567,12 @@
       </c>
       <c r="X15" s="1" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>No Detect Data</t>
         </is>
       </c>
       <c r="Y15" s="1" t="inlineStr">
         <is>
-          <t>1999-04-14</t>
+          <t>No Detect Data</t>
         </is>
       </c>
       <c r="Z15" s="1" t="inlineStr">
@@ -3371,12 +3371,12 @@
       </c>
       <c r="X21" s="1" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>No Detect Data</t>
         </is>
       </c>
       <c r="Y21" s="1" t="inlineStr">
         <is>
-          <t>2011-03-07</t>
+          <t>No Detect Data</t>
         </is>
       </c>
       <c r="Z21" s="1" t="inlineStr">
@@ -3519,12 +3519,12 @@
       </c>
       <c r="X22" s="1" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>3.2</t>
         </is>
       </c>
       <c r="Y22" s="1" t="inlineStr">
         <is>
-          <t>2011-03-08</t>
+          <t>2008-08-29</t>
         </is>
       </c>
       <c r="Z22" s="1" t="inlineStr">
@@ -3955,12 +3955,12 @@
       </c>
       <c r="X25" s="1" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>10.8</t>
         </is>
       </c>
       <c r="Y25" s="1" t="inlineStr">
         <is>
-          <t>2009-07-16</t>
+          <t>2008-08-27</t>
         </is>
       </c>
       <c r="Z25" s="1" t="inlineStr">
@@ -4239,12 +4239,12 @@
       </c>
       <c r="X27" s="1" t="inlineStr">
         <is>
-          <t>0.687</t>
+          <t>No Detect Data</t>
         </is>
       </c>
       <c r="Y27" s="1" t="inlineStr">
         <is>
-          <t>2001-04-05</t>
+          <t>No Detect Data</t>
         </is>
       </c>
       <c r="Z27" s="1" t="inlineStr">
@@ -4367,12 +4367,12 @@
       </c>
       <c r="X28" s="1" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="Y28" s="1" t="inlineStr">
         <is>
-          <t>2009-07-14</t>
+          <t>2007-07-19</t>
         </is>
       </c>
       <c r="Z28" s="1" t="inlineStr">
@@ -4643,12 +4643,12 @@
       </c>
       <c r="X30" s="1" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="Y30" s="1" t="inlineStr">
         <is>
-          <t>2011-03-07</t>
+          <t>2005-05-10</t>
         </is>
       </c>
       <c r="Z30" s="1" t="inlineStr">
@@ -4791,12 +4791,12 @@
       </c>
       <c r="X31" s="1" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.509</t>
         </is>
       </c>
       <c r="Y31" s="1" t="inlineStr">
         <is>
-          <t>2005-05-05</t>
+          <t>2004-06-03</t>
         </is>
       </c>
       <c r="Z31" s="1" t="inlineStr">
@@ -5095,12 +5095,12 @@
       </c>
       <c r="X33" s="1" t="inlineStr">
         <is>
-          <t>7.04</t>
+          <t>2.6</t>
         </is>
       </c>
       <c r="Y33" s="1" t="inlineStr">
         <is>
-          <t>2009-07-20</t>
+          <t>2007-08-02</t>
         </is>
       </c>
       <c r="Z33" s="1" t="inlineStr">
@@ -5535,12 +5535,12 @@
       </c>
       <c r="X36" s="1" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>2.78</t>
         </is>
       </c>
       <c r="Y36" s="1" t="inlineStr">
         <is>
-          <t>2010-07-29</t>
+          <t>2009-09-08</t>
         </is>
       </c>
       <c r="Z36" s="1" t="inlineStr">
@@ -5687,12 +5687,12 @@
       </c>
       <c r="X37" s="1" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="Y37" s="1" t="inlineStr">
         <is>
-          <t>2010-08-03</t>
+          <t>2008-09-11</t>
         </is>
       </c>
       <c r="Z37" s="1" t="inlineStr">
@@ -5839,12 +5839,12 @@
       </c>
       <c r="X38" s="1" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>5.56</t>
         </is>
       </c>
       <c r="Y38" s="1" t="inlineStr">
         <is>
-          <t>2011-04-27</t>
+          <t>2010-06-07</t>
         </is>
       </c>
       <c r="Z38" s="1" t="inlineStr">
@@ -5991,12 +5991,12 @@
       </c>
       <c r="X39" s="1" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>No Detect Data</t>
         </is>
       </c>
       <c r="Y39" s="1" t="inlineStr">
         <is>
-          <t>2010-10-18</t>
+          <t>No Detect Data</t>
         </is>
       </c>
       <c r="Z39" s="1" t="inlineStr">
@@ -6295,12 +6295,12 @@
       </c>
       <c r="X41" s="1" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>No Detect Data</t>
         </is>
       </c>
       <c r="Y41" s="1" t="inlineStr">
         <is>
-          <t>2010-10-20</t>
+          <t>No Detect Data</t>
         </is>
       </c>
       <c r="Z41" s="1" t="inlineStr">
@@ -6447,12 +6447,12 @@
       </c>
       <c r="X42" s="1" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="Y42" s="1" t="inlineStr">
         <is>
-          <t>2010-10-21</t>
+          <t>2009-03-06</t>
         </is>
       </c>
       <c r="Z42" s="1" t="inlineStr">
@@ -6599,12 +6599,12 @@
       </c>
       <c r="X43" s="1" t="inlineStr">
         <is>
-          <t>2.28</t>
+          <t>2.74</t>
         </is>
       </c>
       <c r="Y43" s="1" t="inlineStr">
         <is>
-          <t>2011-04-21</t>
+          <t>2009-09-14</t>
         </is>
       </c>
       <c r="Z43" s="1" t="inlineStr">
@@ -6751,12 +6751,12 @@
       </c>
       <c r="X44" s="1" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>9.1</t>
         </is>
       </c>
       <c r="Y44" s="1" t="inlineStr">
         <is>
-          <t>2010-06-03</t>
+          <t>2008-09-17</t>
         </is>
       </c>
       <c r="Z44" s="1" t="inlineStr">
@@ -7027,12 +7027,12 @@
       </c>
       <c r="X46" s="1" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="Y46" s="1" t="inlineStr">
         <is>
-          <t>2010-06-02</t>
+          <t>2007-12-06</t>
         </is>
       </c>
       <c r="Z46" s="1" t="inlineStr">
@@ -7163,7 +7163,7 @@
       </c>
       <c r="X47" s="1" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>2.6</t>
         </is>
       </c>
       <c r="Y47" s="1" t="inlineStr">
@@ -7315,12 +7315,12 @@
       </c>
       <c r="X48" s="1" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>No Detect Data</t>
         </is>
       </c>
       <c r="Y48" s="1" t="inlineStr">
         <is>
-          <t>2010-06-02</t>
+          <t>No Detect Data</t>
         </is>
       </c>
       <c r="Z48" s="1" t="inlineStr">

--- a/Tables/Alluvial- Appendix.xlsx
+++ b/Tables/Alluvial- Appendix.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG48"/>
+  <dimension ref="A1:AG54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="AD6" s="1" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>35</t>
         </is>
       </c>
       <c r="AE6" s="1" t="inlineStr"/>
@@ -1433,7 +1433,7 @@
       </c>
       <c r="AD7" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="AE7" s="1" t="inlineStr"/>
@@ -2165,7 +2165,7 @@
       </c>
       <c r="AD12" s="1" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>19</t>
         </is>
       </c>
       <c r="AE12" s="1" t="inlineStr"/>
@@ -2184,7 +2184,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>MCO-4B</t>
+          <t>MCO-4</t>
         </is>
       </c>
       <c r="B13" s="1" t="inlineStr">
@@ -2194,51 +2194,59 @@
       </c>
       <c r="C13" s="1" t="inlineStr">
         <is>
-          <t>35.86382</t>
+          <t>35.86407</t>
         </is>
       </c>
       <c r="D13" s="1" t="inlineStr">
         <is>
-          <t>-106.27828</t>
-        </is>
-      </c>
-      <c r="E13" s="1" t="inlineStr"/>
-      <c r="F13" s="1" t="inlineStr">
-        <is>
-          <t>Qal</t>
-        </is>
-      </c>
+          <t>-106.28106</t>
+        </is>
+      </c>
+      <c r="E13" s="1" t="inlineStr">
+        <is>
+          <t>6897.540</t>
+        </is>
+      </c>
+      <c r="F13" s="1" t="inlineStr"/>
       <c r="G13" s="1" t="inlineStr">
         <is>
-          <t>1990-08-01 00:00:00</t>
+          <t>1963-10-01 00:00:00</t>
         </is>
       </c>
       <c r="H13" s="1" t="inlineStr">
         <is>
-          <t>33.90</t>
+          <t>19.00</t>
         </is>
       </c>
       <c r="I13" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3 in</t>
         </is>
       </c>
       <c r="J13" s="1" t="inlineStr">
         <is>
-          <t>8.9</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K13" s="1" t="inlineStr">
         <is>
-          <t>28.900</t>
-        </is>
-      </c>
-      <c r="L13" s="1" t="inlineStr"/>
+          <t>19.000</t>
+        </is>
+      </c>
+      <c r="L13" s="1" t="inlineStr">
+        <is>
+          <t>MCO-4 plugged and abandoned in 2000, see Benak et al. 2000, MCO-4 Plugged and Abandoned, MCO-4 plugged and abandoned in 2000, see Benak et al. 2000, MCO-4 plugged and abandoned in 2000, see Benak et al. 2000</t>
+        </is>
+      </c>
       <c r="M13" s="1" t="inlineStr"/>
-      <c r="N13" s="1" t="inlineStr"/>
+      <c r="N13" s="1" t="inlineStr">
+        <is>
+          <t>MON</t>
+        </is>
+      </c>
       <c r="O13" s="1" t="inlineStr">
         <is>
-          <t>Chromium</t>
+          <t>General</t>
         </is>
       </c>
       <c r="P13" s="1" t="inlineStr">
@@ -2248,7 +2256,7 @@
       </c>
       <c r="Q13" s="1" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>PA</t>
         </is>
       </c>
       <c r="R13" s="1" t="inlineStr"/>
@@ -2257,7 +2265,11 @@
           <t>[84]</t>
         </is>
       </c>
-      <c r="T13" s="1" t="inlineStr"/>
+      <c r="T13" s="1" t="inlineStr">
+        <is>
+          <t>Well Diameter [in] updated from MW</t>
+        </is>
+      </c>
       <c r="U13" s="1" t="inlineStr">
         <is>
           <t>Well Info</t>
@@ -2265,22 +2277,22 @@
       </c>
       <c r="V13" s="1" t="inlineStr">
         <is>
-          <t>6.69</t>
+          <t>No Detect Data</t>
         </is>
       </c>
       <c r="W13" s="1" t="inlineStr">
         <is>
-          <t>2010-07-06</t>
+          <t>No Detect Data</t>
         </is>
       </c>
       <c r="X13" s="1" t="inlineStr">
         <is>
-          <t>4.78</t>
+          <t>No Detect Data</t>
         </is>
       </c>
       <c r="Y13" s="1" t="inlineStr">
         <is>
-          <t>2010-07-06</t>
+          <t>No Detect Data</t>
         </is>
       </c>
       <c r="Z13" s="1" t="inlineStr">
@@ -2305,7 +2317,7 @@
       </c>
       <c r="AD13" s="1" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>5</t>
         </is>
       </c>
       <c r="AE13" s="1" t="inlineStr"/>
@@ -2320,7 +2332,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>MCO-6</t>
+          <t>MCO-4B</t>
         </is>
       </c>
       <c r="B14" s="1" t="inlineStr">
@@ -2330,12 +2342,12 @@
       </c>
       <c r="C14" s="1" t="inlineStr">
         <is>
-          <t>35.86194</t>
+          <t>35.86382</t>
         </is>
       </c>
       <c r="D14" s="1" t="inlineStr">
         <is>
-          <t>-106.27289</t>
+          <t>-106.27828</t>
         </is>
       </c>
       <c r="E14" s="1" t="inlineStr"/>
@@ -2346,34 +2358,30 @@
       </c>
       <c r="G14" s="1" t="inlineStr">
         <is>
-          <t>1974-03-01 00:00:00</t>
+          <t>1990-08-01 00:00:00</t>
         </is>
       </c>
       <c r="H14" s="1" t="inlineStr">
         <is>
-          <t>47.00</t>
+          <t>33.90</t>
         </is>
       </c>
       <c r="I14" s="1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J14" s="1" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>8.9</t>
         </is>
       </c>
       <c r="K14" s="1" t="inlineStr">
         <is>
-          <t>47.000</t>
-        </is>
-      </c>
-      <c r="L14" s="1" t="inlineStr">
-        <is>
-          <t>Replaced older MCO-6 that was P&amp;A</t>
-        </is>
-      </c>
+          <t>28.900</t>
+        </is>
+      </c>
+      <c r="L14" s="1" t="inlineStr"/>
       <c r="M14" s="1" t="inlineStr"/>
       <c r="N14" s="1" t="inlineStr"/>
       <c r="O14" s="1" t="inlineStr">
@@ -2405,22 +2413,22 @@
       </c>
       <c r="V14" s="1" t="inlineStr">
         <is>
-          <t>4.81</t>
+          <t>6.69</t>
         </is>
       </c>
       <c r="W14" s="1" t="inlineStr">
         <is>
-          <t>2010-07-07</t>
+          <t>2010-07-06</t>
         </is>
       </c>
       <c r="X14" s="1" t="inlineStr">
         <is>
-          <t>4.81</t>
+          <t>4.78</t>
         </is>
       </c>
       <c r="Y14" s="1" t="inlineStr">
         <is>
-          <t>2010-07-07</t>
+          <t>2010-07-06</t>
         </is>
       </c>
       <c r="Z14" s="1" t="inlineStr">
@@ -2445,7 +2453,7 @@
       </c>
       <c r="AD14" s="1" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>45</t>
         </is>
       </c>
       <c r="AE14" s="1" t="inlineStr"/>
@@ -2460,7 +2468,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>MCO-6B</t>
+          <t>MCO-6</t>
         </is>
       </c>
       <c r="B15" s="1" t="inlineStr">
@@ -2470,19 +2478,15 @@
       </c>
       <c r="C15" s="1" t="inlineStr">
         <is>
-          <t>35.86186</t>
+          <t>35.86194</t>
         </is>
       </c>
       <c r="D15" s="1" t="inlineStr">
         <is>
-          <t>-106.2729</t>
-        </is>
-      </c>
-      <c r="E15" s="1" t="inlineStr">
-        <is>
-          <t>6850.290</t>
-        </is>
-      </c>
+          <t>-106.27289</t>
+        </is>
+      </c>
+      <c r="E15" s="1" t="inlineStr"/>
       <c r="F15" s="1" t="inlineStr">
         <is>
           <t>Qal</t>
@@ -2490,36 +2494,36 @@
       </c>
       <c r="G15" s="1" t="inlineStr">
         <is>
-          <t>1990-08-01 00:00:00</t>
+          <t>1974-03-01 00:00:00</t>
         </is>
       </c>
       <c r="H15" s="1" t="inlineStr">
         <is>
-          <t>47.10</t>
+          <t>47.00</t>
         </is>
       </c>
       <c r="I15" s="1" t="inlineStr">
         <is>
-          <t>2 in</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J15" s="1" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>27</t>
         </is>
       </c>
       <c r="K15" s="1" t="inlineStr">
         <is>
-          <t>42.000</t>
-        </is>
-      </c>
-      <c r="L15" s="1" t="inlineStr"/>
+          <t>47.000</t>
+        </is>
+      </c>
+      <c r="L15" s="1" t="inlineStr">
+        <is>
+          <t>Replaced older MCO-6 that was P&amp;A</t>
+        </is>
+      </c>
       <c r="M15" s="1" t="inlineStr"/>
-      <c r="N15" s="1" t="inlineStr">
-        <is>
-          <t>MON</t>
-        </is>
-      </c>
+      <c r="N15" s="1" t="inlineStr"/>
       <c r="O15" s="1" t="inlineStr">
         <is>
           <t>Chromium</t>
@@ -2535,21 +2539,13 @@
           <t>A</t>
         </is>
       </c>
-      <c r="R15" s="1" t="inlineStr">
-        <is>
-          <t>2012-03-15 10:48:00</t>
-        </is>
-      </c>
+      <c r="R15" s="1" t="inlineStr"/>
       <c r="S15" s="1" t="inlineStr">
         <is>
           <t>[84]</t>
         </is>
       </c>
-      <c r="T15" s="1" t="inlineStr">
-        <is>
-          <t>Geologic Unit Code updated from MW, Well Diameter [in] updated from MW</t>
-        </is>
-      </c>
+      <c r="T15" s="1" t="inlineStr"/>
       <c r="U15" s="1" t="inlineStr">
         <is>
           <t>Well Info</t>
@@ -2557,22 +2553,22 @@
       </c>
       <c r="V15" s="1" t="inlineStr">
         <is>
-          <t>No Detect Data</t>
+          <t>4.81</t>
         </is>
       </c>
       <c r="W15" s="1" t="inlineStr">
         <is>
-          <t>No Detect Data</t>
+          <t>2010-07-07</t>
         </is>
       </c>
       <c r="X15" s="1" t="inlineStr">
         <is>
-          <t>No Detect Data</t>
+          <t>4.81</t>
         </is>
       </c>
       <c r="Y15" s="1" t="inlineStr">
         <is>
-          <t>No Detect Data</t>
+          <t>2010-07-07</t>
         </is>
       </c>
       <c r="Z15" s="1" t="inlineStr">
@@ -2597,7 +2593,7 @@
       </c>
       <c r="AD15" s="1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>55</t>
         </is>
       </c>
       <c r="AE15" s="1" t="inlineStr"/>
@@ -2612,7 +2608,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>MCO-7.5</t>
+          <t>MCO-6B</t>
         </is>
       </c>
       <c r="B16" s="1" t="inlineStr">
@@ -2622,44 +2618,56 @@
       </c>
       <c r="C16" s="1" t="inlineStr">
         <is>
-          <t>35.86037</t>
+          <t>35.86186</t>
         </is>
       </c>
       <c r="D16" s="1" t="inlineStr">
         <is>
-          <t>-106.26675</t>
-        </is>
-      </c>
-      <c r="E16" s="1" t="inlineStr"/>
-      <c r="F16" s="1" t="inlineStr"/>
+          <t>-106.2729</t>
+        </is>
+      </c>
+      <c r="E16" s="1" t="inlineStr">
+        <is>
+          <t>6850.290</t>
+        </is>
+      </c>
+      <c r="F16" s="1" t="inlineStr">
+        <is>
+          <t>Qal</t>
+        </is>
+      </c>
       <c r="G16" s="1" t="inlineStr">
         <is>
-          <t>1974-04-01 00:00:00</t>
+          <t>1990-08-01 00:00:00</t>
         </is>
       </c>
       <c r="H16" s="1" t="inlineStr">
         <is>
-          <t>60.00</t>
-        </is>
-      </c>
-      <c r="I16" s="1" t="inlineStr"/>
+          <t>47.10</t>
+        </is>
+      </c>
+      <c r="I16" s="1" t="inlineStr">
+        <is>
+          <t>2 in</t>
+        </is>
+      </c>
       <c r="J16" s="1" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>22</t>
         </is>
       </c>
       <c r="K16" s="1" t="inlineStr">
         <is>
-          <t>60.000</t>
-        </is>
-      </c>
-      <c r="L16" s="1" t="inlineStr">
-        <is>
-          <t>Redrilled in 1974</t>
-        </is>
-      </c>
+          <t>42.000</t>
+        </is>
+      </c>
+      <c r="L16" s="1" t="inlineStr"/>
       <c r="M16" s="1" t="inlineStr"/>
-      <c r="N16" s="1" t="inlineStr"/>
+      <c r="N16" s="1" t="inlineStr">
+        <is>
+          <t>MON</t>
+        </is>
+      </c>
       <c r="O16" s="1" t="inlineStr">
         <is>
           <t>Chromium</t>
@@ -2675,13 +2683,21 @@
           <t>A</t>
         </is>
       </c>
-      <c r="R16" s="1" t="inlineStr"/>
+      <c r="R16" s="1" t="inlineStr">
+        <is>
+          <t>2012-03-15 10:48:00</t>
+        </is>
+      </c>
       <c r="S16" s="1" t="inlineStr">
         <is>
           <t>[84]</t>
         </is>
       </c>
-      <c r="T16" s="1" t="inlineStr"/>
+      <c r="T16" s="1" t="inlineStr">
+        <is>
+          <t>Geologic Unit Code updated from MW, Well Diameter [in] updated from MW</t>
+        </is>
+      </c>
       <c r="U16" s="1" t="inlineStr">
         <is>
           <t>Well Info</t>
@@ -2689,47 +2705,47 @@
       </c>
       <c r="V16" s="1" t="inlineStr">
         <is>
-          <t>4.69</t>
+          <t>No Detect Data</t>
         </is>
       </c>
       <c r="W16" s="1" t="inlineStr">
         <is>
-          <t>2010-07-08</t>
+          <t>No Detect Data</t>
         </is>
       </c>
       <c r="X16" s="1" t="inlineStr">
         <is>
-          <t>4.69</t>
+          <t>No Detect Data</t>
         </is>
       </c>
       <c r="Y16" s="1" t="inlineStr">
         <is>
-          <t>2010-07-08</t>
+          <t>No Detect Data</t>
         </is>
       </c>
       <c r="Z16" s="1" t="inlineStr">
         <is>
-          <t>0.559544</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="AA16" s="1" t="inlineStr">
         <is>
-          <t>2008-05-28</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="AB16" s="1" t="inlineStr">
         <is>
-          <t>0.559544</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="AC16" s="1" t="inlineStr">
         <is>
-          <t>2008-05-28</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="AD16" s="1" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>6</t>
         </is>
       </c>
       <c r="AE16" s="1" t="inlineStr"/>
@@ -2744,7 +2760,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>MT-1</t>
+          <t>MCO-7.5</t>
         </is>
       </c>
       <c r="B17" s="1" t="inlineStr">
@@ -2754,48 +2770,44 @@
       </c>
       <c r="C17" s="1" t="inlineStr">
         <is>
-          <t>35.86052</t>
+          <t>35.86037</t>
         </is>
       </c>
       <c r="D17" s="1" t="inlineStr">
         <is>
-          <t>-106.26739</t>
-        </is>
-      </c>
-      <c r="E17" s="1" t="inlineStr">
-        <is>
-          <t>6811.630</t>
-        </is>
-      </c>
+          <t>-106.26675</t>
+        </is>
+      </c>
+      <c r="E17" s="1" t="inlineStr"/>
       <c r="F17" s="1" t="inlineStr"/>
       <c r="G17" s="1" t="inlineStr">
         <is>
-          <t>1988-11-01 00:00:00</t>
+          <t>1974-04-01 00:00:00</t>
         </is>
       </c>
       <c r="H17" s="1" t="inlineStr">
         <is>
-          <t>69.00</t>
+          <t>60.00</t>
         </is>
       </c>
       <c r="I17" s="1" t="inlineStr"/>
       <c r="J17" s="1" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>35</t>
         </is>
       </c>
       <c r="K17" s="1" t="inlineStr">
         <is>
-          <t>59.000</t>
-        </is>
-      </c>
-      <c r="L17" s="1" t="inlineStr"/>
+          <t>60.000</t>
+        </is>
+      </c>
+      <c r="L17" s="1" t="inlineStr">
+        <is>
+          <t>Redrilled in 1974</t>
+        </is>
+      </c>
       <c r="M17" s="1" t="inlineStr"/>
-      <c r="N17" s="1" t="inlineStr">
-        <is>
-          <t>MON</t>
-        </is>
-      </c>
+      <c r="N17" s="1" t="inlineStr"/>
       <c r="O17" s="1" t="inlineStr">
         <is>
           <t>Chromium</t>
@@ -2825,47 +2837,47 @@
       </c>
       <c r="V17" s="1" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>4.69</t>
         </is>
       </c>
       <c r="W17" s="1" t="inlineStr">
         <is>
-          <t>2005-04-22</t>
+          <t>2010-07-08</t>
         </is>
       </c>
       <c r="X17" s="1" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>4.69</t>
         </is>
       </c>
       <c r="Y17" s="1" t="inlineStr">
         <is>
-          <t>2005-09-16</t>
+          <t>2010-07-08</t>
         </is>
       </c>
       <c r="Z17" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>0.559544</t>
         </is>
       </c>
       <c r="AA17" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>2008-05-28</t>
         </is>
       </c>
       <c r="AB17" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>0.559544</t>
         </is>
       </c>
       <c r="AC17" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>2008-05-28</t>
         </is>
       </c>
       <c r="AD17" s="1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>40</t>
         </is>
       </c>
       <c r="AE17" s="1" t="inlineStr"/>
@@ -2880,7 +2892,7 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>MT-3</t>
+          <t>MCO-7A</t>
         </is>
       </c>
       <c r="B18" s="1" t="inlineStr">
@@ -2890,44 +2902,56 @@
       </c>
       <c r="C18" s="1" t="inlineStr">
         <is>
-          <t>35.86097</t>
+          <t>35.86056</t>
         </is>
       </c>
       <c r="D18" s="1" t="inlineStr">
         <is>
-          <t>-106.26497</t>
+          <t>-106.26996</t>
         </is>
       </c>
       <c r="E18" s="1" t="inlineStr">
         <is>
-          <t>6796.65</t>
-        </is>
-      </c>
-      <c r="F18" s="1" t="inlineStr"/>
+          <t>6827.580</t>
+        </is>
+      </c>
+      <c r="F18" s="1" t="inlineStr">
+        <is>
+          <t>Qal</t>
+        </is>
+      </c>
       <c r="G18" s="1" t="inlineStr">
         <is>
-          <t>1988-11-01 00:00:00</t>
+          <t>1989-11-04 00:00:00</t>
         </is>
       </c>
       <c r="H18" s="1" t="inlineStr">
         <is>
-          <t>74.00</t>
-        </is>
-      </c>
-      <c r="I18" s="1" t="inlineStr"/>
+          <t>44.80</t>
+        </is>
+      </c>
+      <c r="I18" s="1" t="inlineStr">
+        <is>
+          <t>3 in</t>
+        </is>
+      </c>
       <c r="J18" s="1" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>34.8</t>
         </is>
       </c>
       <c r="K18" s="1" t="inlineStr">
         <is>
-          <t>64.000</t>
+          <t>44.800</t>
         </is>
       </c>
       <c r="L18" s="1" t="inlineStr"/>
       <c r="M18" s="1" t="inlineStr"/>
-      <c r="N18" s="1" t="inlineStr"/>
+      <c r="N18" s="1" t="inlineStr">
+        <is>
+          <t>MON</t>
+        </is>
+      </c>
       <c r="O18" s="1" t="inlineStr">
         <is>
           <t>Chromium</t>
@@ -2943,7 +2967,11 @@
           <t>A</t>
         </is>
       </c>
-      <c r="R18" s="1" t="inlineStr"/>
+      <c r="R18" s="1" t="inlineStr">
+        <is>
+          <t>2012-03-15 10:48:00</t>
+        </is>
+      </c>
       <c r="S18" s="1" t="inlineStr">
         <is>
           <t>[84]</t>
@@ -2951,7 +2979,7 @@
       </c>
       <c r="T18" s="1" t="inlineStr">
         <is>
-          <t>Ground Elevation updated from MW</t>
+          <t>Geologic Unit Code updated from MW, Well Diameter [in] updated from MW</t>
         </is>
       </c>
       <c r="U18" s="1" t="inlineStr">
@@ -2961,22 +2989,22 @@
       </c>
       <c r="V18" s="1" t="inlineStr">
         <is>
-          <t>5.63</t>
+          <t>No Detect Data</t>
         </is>
       </c>
       <c r="W18" s="1" t="inlineStr">
         <is>
-          <t>2010-07-09</t>
+          <t>No Detect Data</t>
         </is>
       </c>
       <c r="X18" s="1" t="inlineStr">
         <is>
-          <t>5.63</t>
+          <t>No Detect Data</t>
         </is>
       </c>
       <c r="Y18" s="1" t="inlineStr">
         <is>
-          <t>2010-07-09</t>
+          <t>No Detect Data</t>
         </is>
       </c>
       <c r="Z18" s="1" t="inlineStr">
@@ -3001,7 +3029,7 @@
       </c>
       <c r="AD18" s="1" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>7</t>
         </is>
       </c>
       <c r="AE18" s="1" t="inlineStr"/>
@@ -3016,7 +3044,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>MT-4</t>
+          <t>MT-1</t>
         </is>
       </c>
       <c r="B19" s="1" t="inlineStr">
@@ -3026,15 +3054,19 @@
       </c>
       <c r="C19" s="1" t="inlineStr">
         <is>
-          <t>35.86091</t>
+          <t>35.86052</t>
         </is>
       </c>
       <c r="D19" s="1" t="inlineStr">
         <is>
-          <t>-106.26302</t>
-        </is>
-      </c>
-      <c r="E19" s="1" t="inlineStr"/>
+          <t>-106.26739</t>
+        </is>
+      </c>
+      <c r="E19" s="1" t="inlineStr">
+        <is>
+          <t>6811.630</t>
+        </is>
+      </c>
       <c r="F19" s="1" t="inlineStr"/>
       <c r="G19" s="1" t="inlineStr">
         <is>
@@ -3043,23 +3075,27 @@
       </c>
       <c r="H19" s="1" t="inlineStr">
         <is>
-          <t>74.00</t>
+          <t>69.00</t>
         </is>
       </c>
       <c r="I19" s="1" t="inlineStr"/>
       <c r="J19" s="1" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>39</t>
         </is>
       </c>
       <c r="K19" s="1" t="inlineStr">
         <is>
-          <t>64.000</t>
+          <t>59.000</t>
         </is>
       </c>
       <c r="L19" s="1" t="inlineStr"/>
       <c r="M19" s="1" t="inlineStr"/>
-      <c r="N19" s="1" t="inlineStr"/>
+      <c r="N19" s="1" t="inlineStr">
+        <is>
+          <t>MON</t>
+        </is>
+      </c>
       <c r="O19" s="1" t="inlineStr">
         <is>
           <t>Chromium</t>
@@ -3089,12 +3125,12 @@
       </c>
       <c r="V19" s="1" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>2.8</t>
         </is>
       </c>
       <c r="W19" s="1" t="inlineStr">
         <is>
-          <t>2007-03-13</t>
+          <t>2005-04-22</t>
         </is>
       </c>
       <c r="X19" s="1" t="inlineStr">
@@ -3104,7 +3140,7 @@
       </c>
       <c r="Y19" s="1" t="inlineStr">
         <is>
-          <t>2007-03-13</t>
+          <t>2005-09-16</t>
         </is>
       </c>
       <c r="Z19" s="1" t="inlineStr">
@@ -3129,7 +3165,7 @@
       </c>
       <c r="AD19" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="AE19" s="1" t="inlineStr"/>
@@ -3144,7 +3180,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>APCO-1</t>
+          <t>MT-3</t>
         </is>
       </c>
       <c r="B20" s="1" t="inlineStr">
@@ -3154,47 +3190,39 @@
       </c>
       <c r="C20" s="1" t="inlineStr">
         <is>
-          <t>35.87295</t>
+          <t>35.86097</t>
         </is>
       </c>
       <c r="D20" s="1" t="inlineStr">
         <is>
-          <t>-106.22032</t>
+          <t>-106.26497</t>
         </is>
       </c>
       <c r="E20" s="1" t="inlineStr">
         <is>
-          <t>6367.53</t>
-        </is>
-      </c>
-      <c r="F20" s="1" t="inlineStr">
-        <is>
-          <t>Qal</t>
-        </is>
-      </c>
+          <t>6796.65</t>
+        </is>
+      </c>
+      <c r="F20" s="1" t="inlineStr"/>
       <c r="G20" s="1" t="inlineStr">
         <is>
-          <t>1990-08-15 00:00:00</t>
+          <t>1988-11-01 00:00:00</t>
         </is>
       </c>
       <c r="H20" s="1" t="inlineStr">
         <is>
-          <t>19.70</t>
-        </is>
-      </c>
-      <c r="I20" s="1" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>74.00</t>
+        </is>
+      </c>
+      <c r="I20" s="1" t="inlineStr"/>
       <c r="J20" s="1" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>44</t>
         </is>
       </c>
       <c r="K20" s="1" t="inlineStr">
         <is>
-          <t>14.700</t>
+          <t>64.000</t>
         </is>
       </c>
       <c r="L20" s="1" t="inlineStr"/>
@@ -3202,12 +3230,12 @@
       <c r="N20" s="1" t="inlineStr"/>
       <c r="O20" s="1" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Chromium</t>
         </is>
       </c>
       <c r="P20" s="1" t="inlineStr">
         <is>
-          <t>Los Alamos</t>
+          <t>Mortendad</t>
         </is>
       </c>
       <c r="Q20" s="1" t="inlineStr">
@@ -3233,22 +3261,22 @@
       </c>
       <c r="V20" s="1" t="inlineStr">
         <is>
-          <t>2.26</t>
+          <t>5.63</t>
         </is>
       </c>
       <c r="W20" s="1" t="inlineStr">
         <is>
-          <t>2013-06-05</t>
+          <t>2010-07-09</t>
         </is>
       </c>
       <c r="X20" s="1" t="inlineStr">
         <is>
-          <t>2.26</t>
+          <t>5.63</t>
         </is>
       </c>
       <c r="Y20" s="1" t="inlineStr">
         <is>
-          <t>2013-06-05</t>
+          <t>2010-07-09</t>
         </is>
       </c>
       <c r="Z20" s="1" t="inlineStr">
@@ -3273,7 +3301,7 @@
       </c>
       <c r="AD20" s="1" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>22</t>
         </is>
       </c>
       <c r="AE20" s="1" t="inlineStr"/>
@@ -3288,7 +3316,7 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>LAO-0.3</t>
+          <t>MT-4</t>
         </is>
       </c>
       <c r="B21" s="1" t="inlineStr">
@@ -3298,35 +3326,35 @@
       </c>
       <c r="C21" s="1" t="inlineStr">
         <is>
-          <t>35.87704</t>
+          <t>35.86091</t>
         </is>
       </c>
       <c r="D21" s="1" t="inlineStr">
         <is>
-          <t>-106.30272</t>
+          <t>-106.26302</t>
         </is>
       </c>
       <c r="E21" s="1" t="inlineStr"/>
       <c r="F21" s="1" t="inlineStr"/>
       <c r="G21" s="1" t="inlineStr">
         <is>
-          <t>1994-05-27 00:00:00</t>
+          <t>1988-11-01 00:00:00</t>
         </is>
       </c>
       <c r="H21" s="1" t="inlineStr">
         <is>
-          <t>11.25</t>
+          <t>74.00</t>
         </is>
       </c>
       <c r="I21" s="1" t="inlineStr"/>
       <c r="J21" s="1" t="inlineStr">
         <is>
-          <t>5.9</t>
+          <t>54</t>
         </is>
       </c>
       <c r="K21" s="1" t="inlineStr">
         <is>
-          <t>10.900</t>
+          <t>64.000</t>
         </is>
       </c>
       <c r="L21" s="1" t="inlineStr"/>
@@ -3334,12 +3362,12 @@
       <c r="N21" s="1" t="inlineStr"/>
       <c r="O21" s="1" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Chromium</t>
         </is>
       </c>
       <c r="P21" s="1" t="inlineStr">
         <is>
-          <t>Los Alamos</t>
+          <t>Mortendad</t>
         </is>
       </c>
       <c r="Q21" s="1" t="inlineStr">
@@ -3361,22 +3389,22 @@
       </c>
       <c r="V21" s="1" t="inlineStr">
         <is>
-          <t>No Detect Data</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="W21" s="1" t="inlineStr">
         <is>
-          <t>No Detect Data</t>
+          <t>2007-03-13</t>
         </is>
       </c>
       <c r="X21" s="1" t="inlineStr">
         <is>
-          <t>No Detect Data</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="Y21" s="1" t="inlineStr">
         <is>
-          <t>No Detect Data</t>
+          <t>2007-03-13</t>
         </is>
       </c>
       <c r="Z21" s="1" t="inlineStr">
@@ -3401,7 +3429,7 @@
       </c>
       <c r="AD21" s="1" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>7</t>
         </is>
       </c>
       <c r="AE21" s="1" t="inlineStr"/>
@@ -3416,7 +3444,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>LAO-0.6</t>
+          <t>APCO-1</t>
         </is>
       </c>
       <c r="B22" s="1" t="inlineStr">
@@ -3426,17 +3454,17 @@
       </c>
       <c r="C22" s="1" t="inlineStr">
         <is>
-          <t>35.87655</t>
+          <t>35.87295</t>
         </is>
       </c>
       <c r="D22" s="1" t="inlineStr">
         <is>
-          <t>-106.29614</t>
+          <t>-106.22032</t>
         </is>
       </c>
       <c r="E22" s="1" t="inlineStr">
         <is>
-          <t>6910.74</t>
+          <t>6367.53</t>
         </is>
       </c>
       <c r="F22" s="1" t="inlineStr">
@@ -3446,34 +3474,30 @@
       </c>
       <c r="G22" s="1" t="inlineStr">
         <is>
-          <t>1994-05-06 00:00:00</t>
+          <t>1990-08-15 00:00:00</t>
         </is>
       </c>
       <c r="H22" s="1" t="inlineStr">
         <is>
-          <t>13.35</t>
+          <t>19.70</t>
         </is>
       </c>
       <c r="I22" s="1" t="inlineStr">
         <is>
-          <t>4 in</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J22" s="1" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="K22" s="1" t="inlineStr">
         <is>
-          <t>13.000</t>
-        </is>
-      </c>
-      <c r="L22" s="1" t="inlineStr">
-        <is>
-          <t>RJK revised added elev 5/25/05, RJK revised added elev 5/25/05</t>
-        </is>
-      </c>
+          <t>14.700</t>
+        </is>
+      </c>
+      <c r="L22" s="1" t="inlineStr"/>
       <c r="M22" s="1" t="inlineStr"/>
       <c r="N22" s="1" t="inlineStr"/>
       <c r="O22" s="1" t="inlineStr">
@@ -3499,7 +3523,7 @@
       </c>
       <c r="T22" s="1" t="inlineStr">
         <is>
-          <t>Ground Elevation updated from MW, Geologic Unit Code updated from MW, Well Diameter [in] updated from MW</t>
+          <t>Ground Elevation updated from MW</t>
         </is>
       </c>
       <c r="U22" s="1" t="inlineStr">
@@ -3509,22 +3533,22 @@
       </c>
       <c r="V22" s="1" t="inlineStr">
         <is>
-          <t>5.7</t>
+          <t>2.26</t>
         </is>
       </c>
       <c r="W22" s="1" t="inlineStr">
         <is>
-          <t>2006-08-03</t>
+          <t>2013-06-05</t>
         </is>
       </c>
       <c r="X22" s="1" t="inlineStr">
         <is>
-          <t>3.2</t>
+          <t>2.26</t>
         </is>
       </c>
       <c r="Y22" s="1" t="inlineStr">
         <is>
-          <t>2008-08-29</t>
+          <t>2013-06-05</t>
         </is>
       </c>
       <c r="Z22" s="1" t="inlineStr">
@@ -3549,7 +3573,7 @@
       </c>
       <c r="AD22" s="1" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>45</t>
         </is>
       </c>
       <c r="AE22" s="1" t="inlineStr"/>
@@ -3564,7 +3588,7 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>LAO-0.7</t>
+          <t>LAO-0.3</t>
         </is>
       </c>
       <c r="B23" s="1" t="inlineStr">
@@ -3574,50 +3598,38 @@
       </c>
       <c r="C23" s="1" t="inlineStr">
         <is>
-          <t>35.87635</t>
+          <t>35.87704</t>
         </is>
       </c>
       <c r="D23" s="1" t="inlineStr">
         <is>
-          <t>-106.29457</t>
-        </is>
-      </c>
-      <c r="E23" s="1" t="inlineStr">
-        <is>
-          <t>6904</t>
-        </is>
-      </c>
+          <t>-106.30272</t>
+        </is>
+      </c>
+      <c r="E23" s="1" t="inlineStr"/>
       <c r="F23" s="1" t="inlineStr"/>
       <c r="G23" s="1" t="inlineStr">
         <is>
-          <t>1993-06-16 00:00:00</t>
+          <t>1994-05-27 00:00:00</t>
         </is>
       </c>
       <c r="H23" s="1" t="inlineStr">
         <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="I23" s="1" t="inlineStr">
-        <is>
-          <t>2 in</t>
-        </is>
-      </c>
+          <t>11.25</t>
+        </is>
+      </c>
+      <c r="I23" s="1" t="inlineStr"/>
       <c r="J23" s="1" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>5.9</t>
         </is>
       </c>
       <c r="K23" s="1" t="inlineStr">
         <is>
-          <t>20.000</t>
-        </is>
-      </c>
-      <c r="L23" s="1" t="inlineStr">
-        <is>
-          <t>RJK added elev 8/3/05, 2 inch PVC casing, 12 inch diameter steel riser 1 ft. 10.5 inches above ground surface.  Water level 12.19 ft bgs on 6/18/1997.  Purge time 24 min., RJK added elev 8/3/05</t>
-        </is>
-      </c>
+          <t>10.900</t>
+        </is>
+      </c>
+      <c r="L23" s="1" t="inlineStr"/>
       <c r="M23" s="1" t="inlineStr"/>
       <c r="N23" s="1" t="inlineStr"/>
       <c r="O23" s="1" t="inlineStr">
@@ -3641,11 +3653,7 @@
           <t>[84]</t>
         </is>
       </c>
-      <c r="T23" s="1" t="inlineStr">
-        <is>
-          <t>Ground Elevation updated from MW, Total Well Depth [ft] updated from MW, Well Diameter [in] updated from MW</t>
-        </is>
-      </c>
+      <c r="T23" s="1" t="inlineStr"/>
       <c r="U23" s="1" t="inlineStr">
         <is>
           <t>Well Info</t>
@@ -3653,22 +3661,22 @@
       </c>
       <c r="V23" s="1" t="inlineStr">
         <is>
-          <t>0.885</t>
+          <t>No Detect Data</t>
         </is>
       </c>
       <c r="W23" s="1" t="inlineStr">
         <is>
-          <t>2003-07-09</t>
+          <t>No Detect Data</t>
         </is>
       </c>
       <c r="X23" s="1" t="inlineStr">
         <is>
-          <t>0.885</t>
+          <t>No Detect Data</t>
         </is>
       </c>
       <c r="Y23" s="1" t="inlineStr">
         <is>
-          <t>2003-07-09</t>
+          <t>No Detect Data</t>
         </is>
       </c>
       <c r="Z23" s="1" t="inlineStr">
@@ -3693,7 +3701,7 @@
       </c>
       <c r="AD23" s="1" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="AE23" s="1" t="inlineStr"/>
@@ -3708,7 +3716,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>LAO-1</t>
+          <t>LAO-0.6</t>
         </is>
       </c>
       <c r="B24" s="1" t="inlineStr">
@@ -3718,17 +3726,17 @@
       </c>
       <c r="C24" s="1" t="inlineStr">
         <is>
-          <t>35.87552</t>
+          <t>35.87655</t>
         </is>
       </c>
       <c r="D24" s="1" t="inlineStr">
         <is>
-          <t>-106.2872</t>
+          <t>-106.29614</t>
         </is>
       </c>
       <c r="E24" s="1" t="inlineStr">
         <is>
-          <t>6836.24</t>
+          <t>6910.74</t>
         </is>
       </c>
       <c r="F24" s="1" t="inlineStr">
@@ -3738,17 +3746,17 @@
       </c>
       <c r="G24" s="1" t="inlineStr">
         <is>
-          <t>1966-02-01 00:00:00</t>
+          <t>1994-05-06 00:00:00</t>
         </is>
       </c>
       <c r="H24" s="1" t="inlineStr">
         <is>
-          <t>28.00</t>
+          <t>13.35</t>
         </is>
       </c>
       <c r="I24" s="1" t="inlineStr">
         <is>
-          <t>3 in</t>
+          <t>4 in</t>
         </is>
       </c>
       <c r="J24" s="1" t="inlineStr">
@@ -3758,15 +3766,19 @@
       </c>
       <c r="K24" s="1" t="inlineStr">
         <is>
-          <t>28.000</t>
-        </is>
-      </c>
-      <c r="L24" s="1" t="inlineStr"/>
+          <t>13.000</t>
+        </is>
+      </c>
+      <c r="L24" s="1" t="inlineStr">
+        <is>
+          <t>RJK revised added elev 5/25/05, RJK revised added elev 5/25/05</t>
+        </is>
+      </c>
       <c r="M24" s="1" t="inlineStr"/>
       <c r="N24" s="1" t="inlineStr"/>
       <c r="O24" s="1" t="inlineStr">
         <is>
-          <t>TA-21</t>
+          <t>General</t>
         </is>
       </c>
       <c r="P24" s="1" t="inlineStr">
@@ -3797,22 +3809,22 @@
       </c>
       <c r="V24" s="1" t="inlineStr">
         <is>
-          <t>17.0</t>
+          <t>5.7</t>
         </is>
       </c>
       <c r="W24" s="1" t="inlineStr">
         <is>
-          <t>2002-08-05</t>
+          <t>2006-08-03</t>
         </is>
       </c>
       <c r="X24" s="1" t="inlineStr">
         <is>
-          <t>5.22</t>
+          <t>3.2</t>
         </is>
       </c>
       <c r="Y24" s="1" t="inlineStr">
         <is>
-          <t>2009-07-16</t>
+          <t>2008-08-29</t>
         </is>
       </c>
       <c r="Z24" s="1" t="inlineStr">
@@ -3837,15 +3849,11 @@
       </c>
       <c r="AD24" s="1" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>12</t>
         </is>
       </c>
       <c r="AE24" s="1" t="inlineStr"/>
-      <c r="AF24" s="1" t="inlineStr">
-        <is>
-          <t>Exceedance</t>
-        </is>
-      </c>
+      <c r="AF24" s="1" t="inlineStr"/>
       <c r="AG24" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">Substantial
@@ -3856,7 +3864,7 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>LAO-1.6g</t>
+          <t>LAO-0.7</t>
         </is>
       </c>
       <c r="B25" s="1" t="inlineStr">
@@ -3866,55 +3874,55 @@
       </c>
       <c r="C25" s="1" t="inlineStr">
         <is>
-          <t>35.87168</t>
+          <t>35.87635</t>
         </is>
       </c>
       <c r="D25" s="1" t="inlineStr">
         <is>
-          <t>-106.26463</t>
+          <t>-106.29457</t>
         </is>
       </c>
       <c r="E25" s="1" t="inlineStr">
         <is>
-          <t>6658.01</t>
-        </is>
-      </c>
-      <c r="F25" s="1" t="inlineStr">
-        <is>
-          <t>Qal</t>
-        </is>
-      </c>
+          <t>6904</t>
+        </is>
+      </c>
+      <c r="F25" s="1" t="inlineStr"/>
       <c r="G25" s="1" t="inlineStr">
         <is>
-          <t>1996-03-20 00:00:00</t>
+          <t>1993-06-16 00:00:00</t>
         </is>
       </c>
       <c r="H25" s="1" t="inlineStr">
         <is>
-          <t>30.82</t>
+          <t>23</t>
         </is>
       </c>
       <c r="I25" s="1" t="inlineStr">
         <is>
-          <t>4 in</t>
+          <t>2 in</t>
         </is>
       </c>
       <c r="J25" s="1" t="inlineStr">
         <is>
-          <t>10.47</t>
+          <t>15</t>
         </is>
       </c>
       <c r="K25" s="1" t="inlineStr">
         <is>
-          <t>25.470</t>
-        </is>
-      </c>
-      <c r="L25" s="1" t="inlineStr"/>
+          <t>20.000</t>
+        </is>
+      </c>
+      <c r="L25" s="1" t="inlineStr">
+        <is>
+          <t>RJK added elev 8/3/05, 2 inch PVC casing, 12 inch diameter steel riser 1 ft. 10.5 inches above ground surface.  Water level 12.19 ft bgs on 6/18/1997.  Purge time 24 min., RJK added elev 8/3/05</t>
+        </is>
+      </c>
       <c r="M25" s="1" t="inlineStr"/>
       <c r="N25" s="1" t="inlineStr"/>
       <c r="O25" s="1" t="inlineStr">
         <is>
-          <t>TA-21</t>
+          <t>General</t>
         </is>
       </c>
       <c r="P25" s="1" t="inlineStr">
@@ -3935,7 +3943,7 @@
       </c>
       <c r="T25" s="1" t="inlineStr">
         <is>
-          <t>Ground Elevation updated from MW, Geologic Unit Code updated from MW, Well Diameter [in] updated from MW</t>
+          <t>Ground Elevation updated from MW, Total Well Depth [ft] updated from MW, Well Diameter [in] updated from MW</t>
         </is>
       </c>
       <c r="U25" s="1" t="inlineStr">
@@ -3945,22 +3953,22 @@
       </c>
       <c r="V25" s="1" t="inlineStr">
         <is>
-          <t>10.8</t>
+          <t>0.885</t>
         </is>
       </c>
       <c r="W25" s="1" t="inlineStr">
         <is>
-          <t>2008-08-27</t>
+          <t>2003-07-09</t>
         </is>
       </c>
       <c r="X25" s="1" t="inlineStr">
         <is>
-          <t>10.8</t>
+          <t>0.885</t>
         </is>
       </c>
       <c r="Y25" s="1" t="inlineStr">
         <is>
-          <t>2008-08-27</t>
+          <t>2003-07-09</t>
         </is>
       </c>
       <c r="Z25" s="1" t="inlineStr">
@@ -3985,15 +3993,11 @@
       </c>
       <c r="AD25" s="1" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>14</t>
         </is>
       </c>
       <c r="AE25" s="1" t="inlineStr"/>
-      <c r="AF25" s="1" t="inlineStr">
-        <is>
-          <t>Exceedance</t>
-        </is>
-      </c>
+      <c r="AF25" s="1" t="inlineStr"/>
       <c r="AG25" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">Substantial
@@ -4004,7 +4008,7 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>LAO-2</t>
+          <t>LAO-1</t>
         </is>
       </c>
       <c r="B26" s="1" t="inlineStr">
@@ -4014,16 +4018,24 @@
       </c>
       <c r="C26" s="1" t="inlineStr">
         <is>
-          <t>35.87316</t>
+          <t>35.87552</t>
         </is>
       </c>
       <c r="D26" s="1" t="inlineStr">
         <is>
-          <t>-106.25948</t>
-        </is>
-      </c>
-      <c r="E26" s="1" t="inlineStr"/>
-      <c r="F26" s="1" t="inlineStr"/>
+          <t>-106.2872</t>
+        </is>
+      </c>
+      <c r="E26" s="1" t="inlineStr">
+        <is>
+          <t>6836.24</t>
+        </is>
+      </c>
+      <c r="F26" s="1" t="inlineStr">
+        <is>
+          <t>Qal</t>
+        </is>
+      </c>
       <c r="G26" s="1" t="inlineStr">
         <is>
           <t>1966-02-01 00:00:00</t>
@@ -4031,18 +4043,22 @@
       </c>
       <c r="H26" s="1" t="inlineStr">
         <is>
-          <t>32.00</t>
-        </is>
-      </c>
-      <c r="I26" s="1" t="inlineStr"/>
+          <t>28.00</t>
+        </is>
+      </c>
+      <c r="I26" s="1" t="inlineStr">
+        <is>
+          <t>3 in</t>
+        </is>
+      </c>
       <c r="J26" s="1" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="K26" s="1" t="inlineStr">
         <is>
-          <t>32.000</t>
+          <t>28.000</t>
         </is>
       </c>
       <c r="L26" s="1" t="inlineStr"/>
@@ -4069,7 +4085,11 @@
           <t>[84]</t>
         </is>
       </c>
-      <c r="T26" s="1" t="inlineStr"/>
+      <c r="T26" s="1" t="inlineStr">
+        <is>
+          <t>Ground Elevation updated from MW, Geologic Unit Code updated from MW, Well Diameter [in] updated from MW</t>
+        </is>
+      </c>
       <c r="U26" s="1" t="inlineStr">
         <is>
           <t>Well Info</t>
@@ -4077,22 +4097,22 @@
       </c>
       <c r="V26" s="1" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>17.0</t>
         </is>
       </c>
       <c r="W26" s="1" t="inlineStr">
         <is>
-          <t>2007-07-23</t>
+          <t>2002-08-05</t>
         </is>
       </c>
       <c r="X26" s="1" t="inlineStr">
         <is>
-          <t>2.61</t>
+          <t>5.22</t>
         </is>
       </c>
       <c r="Y26" s="1" t="inlineStr">
         <is>
-          <t>2009-07-15</t>
+          <t>2009-07-16</t>
         </is>
       </c>
       <c r="Z26" s="1" t="inlineStr">
@@ -4117,11 +4137,15 @@
       </c>
       <c r="AD26" s="1" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>25</t>
         </is>
       </c>
       <c r="AE26" s="1" t="inlineStr"/>
-      <c r="AF26" s="1" t="inlineStr"/>
+      <c r="AF26" s="1" t="inlineStr">
+        <is>
+          <t>Exceedance</t>
+        </is>
+      </c>
       <c r="AG26" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">Substantial
@@ -4132,7 +4156,7 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>LAO-4</t>
+          <t>LAO-1.6g</t>
         </is>
       </c>
       <c r="B27" s="1" t="inlineStr">
@@ -4142,17 +4166,17 @@
       </c>
       <c r="C27" s="1" t="inlineStr">
         <is>
-          <t>35.87216</t>
+          <t>35.87168</t>
         </is>
       </c>
       <c r="D27" s="1" t="inlineStr">
         <is>
-          <t>-106.24887</t>
+          <t>-106.26463</t>
         </is>
       </c>
       <c r="E27" s="1" t="inlineStr">
         <is>
-          <t>6548.000</t>
+          <t>6658.01</t>
         </is>
       </c>
       <c r="F27" s="1" t="inlineStr">
@@ -4162,40 +4186,32 @@
       </c>
       <c r="G27" s="1" t="inlineStr">
         <is>
-          <t>1966-02-01 00:00:00</t>
+          <t>1996-03-20 00:00:00</t>
         </is>
       </c>
       <c r="H27" s="1" t="inlineStr">
         <is>
-          <t>24.00</t>
+          <t>30.82</t>
         </is>
       </c>
       <c r="I27" s="1" t="inlineStr">
         <is>
-          <t>3 in</t>
+          <t>4 in</t>
         </is>
       </c>
       <c r="J27" s="1" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>10.47</t>
         </is>
       </c>
       <c r="K27" s="1" t="inlineStr">
         <is>
-          <t>24.000</t>
-        </is>
-      </c>
-      <c r="L27" s="1" t="inlineStr">
-        <is>
-          <t>Elevation revised based on LIDAR surface location pick, Elevation revised based on LIDAR surface location pick, Elevation revised based on LIDAR surface location pick</t>
-        </is>
-      </c>
+          <t>25.470</t>
+        </is>
+      </c>
+      <c r="L27" s="1" t="inlineStr"/>
       <c r="M27" s="1" t="inlineStr"/>
-      <c r="N27" s="1" t="inlineStr">
-        <is>
-          <t>MON</t>
-        </is>
-      </c>
+      <c r="N27" s="1" t="inlineStr"/>
       <c r="O27" s="1" t="inlineStr">
         <is>
           <t>TA-21</t>
@@ -4219,7 +4235,7 @@
       </c>
       <c r="T27" s="1" t="inlineStr">
         <is>
-          <t>Geologic Unit Code updated from MW, Well Diameter [in] updated from MW</t>
+          <t>Ground Elevation updated from MW, Geologic Unit Code updated from MW, Well Diameter [in] updated from MW</t>
         </is>
       </c>
       <c r="U27" s="1" t="inlineStr">
@@ -4229,22 +4245,22 @@
       </c>
       <c r="V27" s="1" t="inlineStr">
         <is>
-          <t>No Detect Data</t>
+          <t>10.8</t>
         </is>
       </c>
       <c r="W27" s="1" t="inlineStr">
         <is>
-          <t>No Detect Data</t>
+          <t>2008-08-27</t>
         </is>
       </c>
       <c r="X27" s="1" t="inlineStr">
         <is>
-          <t>No Detect Data</t>
+          <t>10.8</t>
         </is>
       </c>
       <c r="Y27" s="1" t="inlineStr">
         <is>
-          <t>No Detect Data</t>
+          <t>2008-08-27</t>
         </is>
       </c>
       <c r="Z27" s="1" t="inlineStr">
@@ -4269,11 +4285,15 @@
       </c>
       <c r="AD27" s="1" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>30</t>
         </is>
       </c>
       <c r="AE27" s="1" t="inlineStr"/>
-      <c r="AF27" s="1" t="inlineStr"/>
+      <c r="AF27" s="1" t="inlineStr">
+        <is>
+          <t>Exceedance</t>
+        </is>
+      </c>
       <c r="AG27" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">Substantial
@@ -4284,7 +4304,7 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>LAO-4.5c</t>
+          <t>LAO-2</t>
         </is>
       </c>
       <c r="B28" s="1" t="inlineStr">
@@ -4294,35 +4314,35 @@
       </c>
       <c r="C28" s="1" t="inlineStr">
         <is>
-          <t>35.87036</t>
+          <t>35.87316</t>
         </is>
       </c>
       <c r="D28" s="1" t="inlineStr">
         <is>
-          <t>-106.23943</t>
+          <t>-106.25948</t>
         </is>
       </c>
       <c r="E28" s="1" t="inlineStr"/>
       <c r="F28" s="1" t="inlineStr"/>
       <c r="G28" s="1" t="inlineStr">
         <is>
-          <t>1989-11-01 00:00:00</t>
+          <t>1966-02-01 00:00:00</t>
         </is>
       </c>
       <c r="H28" s="1" t="inlineStr">
         <is>
-          <t>23.30</t>
+          <t>32.00</t>
         </is>
       </c>
       <c r="I28" s="1" t="inlineStr"/>
       <c r="J28" s="1" t="inlineStr">
         <is>
-          <t>13.3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="K28" s="1" t="inlineStr">
         <is>
-          <t>23.300</t>
+          <t>32.000</t>
         </is>
       </c>
       <c r="L28" s="1" t="inlineStr"/>
@@ -4357,22 +4377,22 @@
       </c>
       <c r="V28" s="1" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="W28" s="1" t="inlineStr">
         <is>
-          <t>2007-07-19</t>
+          <t>2007-07-23</t>
         </is>
       </c>
       <c r="X28" s="1" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>2.61</t>
         </is>
       </c>
       <c r="Y28" s="1" t="inlineStr">
         <is>
-          <t>2007-07-19</t>
+          <t>2009-07-15</t>
         </is>
       </c>
       <c r="Z28" s="1" t="inlineStr">
@@ -4397,7 +4417,7 @@
       </c>
       <c r="AD28" s="1" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>33</t>
         </is>
       </c>
       <c r="AE28" s="1" t="inlineStr"/>
@@ -4412,7 +4432,7 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>LAO-5</t>
+          <t>LAO-3</t>
         </is>
       </c>
       <c r="B29" s="1" t="inlineStr">
@@ -4422,15 +4442,19 @@
       </c>
       <c r="C29" s="1" t="inlineStr">
         <is>
-          <t>35.86857</t>
+          <t>35.87317</t>
         </is>
       </c>
       <c r="D29" s="1" t="inlineStr">
         <is>
-          <t>-106.23047</t>
-        </is>
-      </c>
-      <c r="E29" s="1" t="inlineStr"/>
+          <t>-106.25812</t>
+        </is>
+      </c>
+      <c r="E29" s="1" t="inlineStr">
+        <is>
+          <t>6607.600</t>
+        </is>
+      </c>
       <c r="F29" s="1" t="inlineStr"/>
       <c r="G29" s="1" t="inlineStr">
         <is>
@@ -4439,23 +4463,31 @@
       </c>
       <c r="H29" s="1" t="inlineStr">
         <is>
-          <t>25.00</t>
+          <t>24.00</t>
         </is>
       </c>
       <c r="I29" s="1" t="inlineStr"/>
       <c r="J29" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>9</t>
         </is>
       </c>
       <c r="K29" s="1" t="inlineStr">
         <is>
-          <t>25.000</t>
-        </is>
-      </c>
-      <c r="L29" s="1" t="inlineStr"/>
+          <t>24.000</t>
+        </is>
+      </c>
+      <c r="L29" s="1" t="inlineStr">
+        <is>
+          <t>Elevation revised based on LIDAR surface location pick, NULL</t>
+        </is>
+      </c>
       <c r="M29" s="1" t="inlineStr"/>
-      <c r="N29" s="1" t="inlineStr"/>
+      <c r="N29" s="1" t="inlineStr">
+        <is>
+          <t>OBS</t>
+        </is>
+      </c>
       <c r="O29" s="1" t="inlineStr">
         <is>
           <t>TA-21</t>
@@ -4471,7 +4503,11 @@
           <t>A</t>
         </is>
       </c>
-      <c r="R29" s="1" t="inlineStr"/>
+      <c r="R29" s="1" t="inlineStr">
+        <is>
+          <t>2012-03-15 10:48:00</t>
+        </is>
+      </c>
       <c r="S29" s="1" t="inlineStr">
         <is>
           <t>[84]</t>
@@ -4485,22 +4521,22 @@
       </c>
       <c r="V29" s="1" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>No Detect Data</t>
         </is>
       </c>
       <c r="W29" s="1" t="inlineStr">
         <is>
-          <t>2007-08-03</t>
+          <t>No Detect Data</t>
         </is>
       </c>
       <c r="X29" s="1" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>No Detect Data</t>
         </is>
       </c>
       <c r="Y29" s="1" t="inlineStr">
         <is>
-          <t>2007-08-03</t>
+          <t>No Detect Data</t>
         </is>
       </c>
       <c r="Z29" s="1" t="inlineStr">
@@ -4525,7 +4561,7 @@
       </c>
       <c r="AD29" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>9</t>
         </is>
       </c>
       <c r="AE29" s="1" t="inlineStr"/>
@@ -4540,7 +4576,7 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>LAO-B</t>
+          <t>LAO-4</t>
         </is>
       </c>
       <c r="B30" s="1" t="inlineStr">
@@ -4550,17 +4586,17 @@
       </c>
       <c r="C30" s="1" t="inlineStr">
         <is>
-          <t>35.87883</t>
+          <t>35.87216</t>
         </is>
       </c>
       <c r="D30" s="1" t="inlineStr">
         <is>
-          <t>-106.3353</t>
+          <t>-106.24887</t>
         </is>
       </c>
       <c r="E30" s="1" t="inlineStr">
         <is>
-          <t>7323.59</t>
+          <t>6548.000</t>
         </is>
       </c>
       <c r="F30" s="1" t="inlineStr">
@@ -4570,39 +4606,43 @@
       </c>
       <c r="G30" s="1" t="inlineStr">
         <is>
-          <t>1994-04-28 00:00:00</t>
+          <t>1966-02-01 00:00:00</t>
         </is>
       </c>
       <c r="H30" s="1" t="inlineStr">
         <is>
-          <t>27.20</t>
+          <t>24.00</t>
         </is>
       </c>
       <c r="I30" s="1" t="inlineStr">
         <is>
-          <t>4 in</t>
+          <t>3 in</t>
         </is>
       </c>
       <c r="J30" s="1" t="inlineStr">
         <is>
-          <t>11.84</t>
+          <t>14</t>
         </is>
       </c>
       <c r="K30" s="1" t="inlineStr">
         <is>
-          <t>26.840</t>
+          <t>24.000</t>
         </is>
       </c>
       <c r="L30" s="1" t="inlineStr">
         <is>
-          <t>Elev. measured from GL. Background alluvial monitoring well.  Background well west of ice rink in LA canyon</t>
+          <t>Elevation revised based on LIDAR surface location pick, Elevation revised based on LIDAR surface location pick, Elevation revised based on LIDAR surface location pick</t>
         </is>
       </c>
       <c r="M30" s="1" t="inlineStr"/>
-      <c r="N30" s="1" t="inlineStr"/>
+      <c r="N30" s="1" t="inlineStr">
+        <is>
+          <t>MON</t>
+        </is>
+      </c>
       <c r="O30" s="1" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>TA-21</t>
         </is>
       </c>
       <c r="P30" s="1" t="inlineStr">
@@ -4623,7 +4663,7 @@
       </c>
       <c r="T30" s="1" t="inlineStr">
         <is>
-          <t>Ground Elevation updated from MW, Geologic Unit Code updated from MW, Well Diameter [in] updated from MW</t>
+          <t>Geologic Unit Code updated from MW, Well Diameter [in] updated from MW</t>
         </is>
       </c>
       <c r="U30" s="1" t="inlineStr">
@@ -4633,22 +4673,22 @@
       </c>
       <c r="V30" s="1" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>No Detect Data</t>
         </is>
       </c>
       <c r="W30" s="1" t="inlineStr">
         <is>
-          <t>2005-05-10</t>
+          <t>No Detect Data</t>
         </is>
       </c>
       <c r="X30" s="1" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>No Detect Data</t>
         </is>
       </c>
       <c r="Y30" s="1" t="inlineStr">
         <is>
-          <t>2005-05-10</t>
+          <t>No Detect Data</t>
         </is>
       </c>
       <c r="Z30" s="1" t="inlineStr">
@@ -4673,7 +4713,7 @@
       </c>
       <c r="AD30" s="1" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>11</t>
         </is>
       </c>
       <c r="AE30" s="1" t="inlineStr"/>
@@ -4688,7 +4728,7 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>LAO-C</t>
+          <t>LAO-4.5</t>
         </is>
       </c>
       <c r="B31" s="1" t="inlineStr">
@@ -4698,17 +4738,17 @@
       </c>
       <c r="C31" s="1" t="inlineStr">
         <is>
-          <t>35.87906</t>
+          <t>35.87039</t>
         </is>
       </c>
       <c r="D31" s="1" t="inlineStr">
         <is>
-          <t>-106.31164</t>
+          <t>-106.23906</t>
         </is>
       </c>
       <c r="E31" s="1" t="inlineStr">
         <is>
-          <t>7049.980</t>
+          <t>6479.800</t>
         </is>
       </c>
       <c r="F31" s="1" t="inlineStr">
@@ -4718,12 +4758,12 @@
       </c>
       <c r="G31" s="1" t="inlineStr">
         <is>
-          <t>1970-08-01 00:00:00</t>
+          <t>1969-04-01 00:00:00</t>
         </is>
       </c>
       <c r="H31" s="1" t="inlineStr">
         <is>
-          <t>13.00</t>
+          <t>40.00</t>
         </is>
       </c>
       <c r="I31" s="1" t="inlineStr">
@@ -4733,15 +4773,19 @@
       </c>
       <c r="J31" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K31" s="1" t="inlineStr">
         <is>
-          <t>13.000</t>
-        </is>
-      </c>
-      <c r="L31" s="1" t="inlineStr"/>
+          <t>40.000</t>
+        </is>
+      </c>
+      <c r="L31" s="1" t="inlineStr">
+        <is>
+          <t>Elevation revised based on LIDAR surface location pick, Elevation revised based on LIDAR surface location pick, Elevation revised based on LIDAR surface location pick</t>
+        </is>
+      </c>
       <c r="M31" s="1" t="inlineStr"/>
       <c r="N31" s="1" t="inlineStr">
         <is>
@@ -4750,7 +4794,7 @@
       </c>
       <c r="O31" s="1" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>TA-21</t>
         </is>
       </c>
       <c r="P31" s="1" t="inlineStr">
@@ -4763,7 +4807,11 @@
           <t>A</t>
         </is>
       </c>
-      <c r="R31" s="1" t="inlineStr"/>
+      <c r="R31" s="1" t="inlineStr">
+        <is>
+          <t>2012-03-15 10:48:00</t>
+        </is>
+      </c>
       <c r="S31" s="1" t="inlineStr">
         <is>
           <t>[84]</t>
@@ -4781,22 +4829,22 @@
       </c>
       <c r="V31" s="1" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>No Detect Data</t>
         </is>
       </c>
       <c r="W31" s="1" t="inlineStr">
         <is>
-          <t>2003-07-09</t>
+          <t>No Detect Data</t>
         </is>
       </c>
       <c r="X31" s="1" t="inlineStr">
         <is>
-          <t>0.509</t>
+          <t>No Detect Data</t>
         </is>
       </c>
       <c r="Y31" s="1" t="inlineStr">
         <is>
-          <t>2004-06-03</t>
+          <t>No Detect Data</t>
         </is>
       </c>
       <c r="Z31" s="1" t="inlineStr">
@@ -4821,7 +4869,7 @@
       </c>
       <c r="AD31" s="1" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>6</t>
         </is>
       </c>
       <c r="AE31" s="1" t="inlineStr"/>
@@ -4836,7 +4884,7 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>PAO-3</t>
+          <t>LAO-4.5c</t>
         </is>
       </c>
       <c r="B32" s="1" t="inlineStr">
@@ -4846,63 +4894,43 @@
       </c>
       <c r="C32" s="1" t="inlineStr">
         <is>
-          <t>35.88349</t>
+          <t>35.87036</t>
         </is>
       </c>
       <c r="D32" s="1" t="inlineStr">
         <is>
-          <t>-106.25901</t>
-        </is>
-      </c>
-      <c r="E32" s="1" t="inlineStr">
-        <is>
-          <t>6578.580</t>
-        </is>
-      </c>
-      <c r="F32" s="1" t="inlineStr">
-        <is>
-          <t>Qal</t>
-        </is>
-      </c>
+          <t>-106.23943</t>
+        </is>
+      </c>
+      <c r="E32" s="1" t="inlineStr"/>
+      <c r="F32" s="1" t="inlineStr"/>
       <c r="G32" s="1" t="inlineStr">
         <is>
-          <t>1998-08-27 00:00:00</t>
+          <t>1989-11-01 00:00:00</t>
         </is>
       </c>
       <c r="H32" s="1" t="inlineStr">
         <is>
-          <t>13.47</t>
-        </is>
-      </c>
-      <c r="I32" s="1" t="inlineStr">
-        <is>
-          <t>4 in</t>
-        </is>
-      </c>
+          <t>23.30</t>
+        </is>
+      </c>
+      <c r="I32" s="1" t="inlineStr"/>
       <c r="J32" s="1" t="inlineStr">
         <is>
-          <t>5.62</t>
+          <t>13.3</t>
         </is>
       </c>
       <c r="K32" s="1" t="inlineStr">
         <is>
-          <t>10.620</t>
-        </is>
-      </c>
-      <c r="L32" s="1" t="inlineStr">
-        <is>
-          <t>Pueblo Canyon alluvial wellefile N. McCranie allu PAO-3. Source Org Code changed to ER/WQH.  Location data from ER, sampled by WQH.  Deleted ULI 170252, duplicate location, changed to Synonym., Pueblo Canyon alluvial wellefile N. McCranie allu PAO-3. Source Org Code changed to ER/WQH.  Location data from ER, sampled by WQH.  Deleted ULI 170252, duplicate location, changed to Synonym., Pueblo Canyon alluvial wellefile N. McCranie allu PAO-3. Source Org Code changed to ER/WQH.  Location data from ER, sampled by WQH.  Deleted ULI 170252, duplicate location, changed to Synonym.</t>
-        </is>
-      </c>
+          <t>23.300</t>
+        </is>
+      </c>
+      <c r="L32" s="1" t="inlineStr"/>
       <c r="M32" s="1" t="inlineStr"/>
-      <c r="N32" s="1" t="inlineStr">
-        <is>
-          <t>MON</t>
-        </is>
-      </c>
+      <c r="N32" s="1" t="inlineStr"/>
       <c r="O32" s="1" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>TA-21</t>
         </is>
       </c>
       <c r="P32" s="1" t="inlineStr">
@@ -4921,11 +4949,7 @@
           <t>[84]</t>
         </is>
       </c>
-      <c r="T32" s="1" t="inlineStr">
-        <is>
-          <t>Geologic Unit Code updated from MW, Well Diameter [in] updated from MW</t>
-        </is>
-      </c>
+      <c r="T32" s="1" t="inlineStr"/>
       <c r="U32" s="1" t="inlineStr">
         <is>
           <t>Well Info</t>
@@ -4933,22 +4957,22 @@
       </c>
       <c r="V32" s="1" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="W32" s="1" t="inlineStr">
         <is>
-          <t>2005-05-10</t>
+          <t>2007-07-19</t>
         </is>
       </c>
       <c r="X32" s="1" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="Y32" s="1" t="inlineStr">
         <is>
-          <t>2005-05-10</t>
+          <t>2007-07-19</t>
         </is>
       </c>
       <c r="Z32" s="1" t="inlineStr">
@@ -4973,7 +4997,7 @@
       </c>
       <c r="AD32" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>24</t>
         </is>
       </c>
       <c r="AE32" s="1" t="inlineStr"/>
@@ -4988,7 +5012,7 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>PAO-4</t>
+          <t>LAO-5</t>
         </is>
       </c>
       <c r="B33" s="1" t="inlineStr">
@@ -4998,63 +5022,43 @@
       </c>
       <c r="C33" s="1" t="inlineStr">
         <is>
-          <t>35.87866</t>
+          <t>35.86857</t>
         </is>
       </c>
       <c r="D33" s="1" t="inlineStr">
         <is>
-          <t>-106.23085</t>
-        </is>
-      </c>
-      <c r="E33" s="1" t="inlineStr">
-        <is>
-          <t>6437.370</t>
-        </is>
-      </c>
-      <c r="F33" s="1" t="inlineStr">
-        <is>
-          <t>Alluvial</t>
-        </is>
-      </c>
+          <t>-106.23047</t>
+        </is>
+      </c>
+      <c r="E33" s="1" t="inlineStr"/>
+      <c r="F33" s="1" t="inlineStr"/>
       <c r="G33" s="1" t="inlineStr">
         <is>
-          <t>1997-07-24 00:00:00</t>
+          <t>1966-02-01 00:00:00</t>
         </is>
       </c>
       <c r="H33" s="1" t="inlineStr">
         <is>
-          <t>9.82</t>
-        </is>
-      </c>
-      <c r="I33" s="1" t="inlineStr">
-        <is>
-          <t>6440.77</t>
-        </is>
-      </c>
+          <t>25.00</t>
+        </is>
+      </c>
+      <c r="I33" s="1" t="inlineStr"/>
       <c r="J33" s="1" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K33" s="1" t="inlineStr">
         <is>
-          <t>6.970</t>
-        </is>
-      </c>
-      <c r="L33" s="1" t="inlineStr">
-        <is>
-          <t>Pueblo Canyon alluvial wellefile N. McCranie ALLU PAO-4. Source Org Code changed to ER/WQH.  Location data from ER, sampled by WQH.  Deleted ULI 170262, duplicate location, changed to Synonym., Pueblo Canyon alluvial wellefile N. McCranie ALLU PAO-4. Source Org Code changed to ER/WQH.  Location data from ER, sampled by WQH.  Deleted ULI 170262, duplicate location, changed to Synonym., Pueblo Canyon alluvial wellefile N. McCranie ALLU PAO-4. Source Org Code changed to ER/WQH.  Location data from ER, sampled by WQH.  Deleted ULI 170262, duplicate location, changed to Synonym.</t>
-        </is>
-      </c>
+          <t>25.000</t>
+        </is>
+      </c>
+      <c r="L33" s="1" t="inlineStr"/>
       <c r="M33" s="1" t="inlineStr"/>
-      <c r="N33" s="1" t="inlineStr">
-        <is>
-          <t>MON</t>
-        </is>
-      </c>
+      <c r="N33" s="1" t="inlineStr"/>
       <c r="O33" s="1" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>TA-21</t>
         </is>
       </c>
       <c r="P33" s="1" t="inlineStr">
@@ -5073,11 +5077,7 @@
           <t>[84]</t>
         </is>
       </c>
-      <c r="T33" s="1" t="inlineStr">
-        <is>
-          <t>Geologic Unit Code updated from MW, Well Diameter [in] updated from MW</t>
-        </is>
-      </c>
+      <c r="T33" s="1" t="inlineStr"/>
       <c r="U33" s="1" t="inlineStr">
         <is>
           <t>Well Info</t>
@@ -5085,22 +5085,22 @@
       </c>
       <c r="V33" s="1" t="inlineStr">
         <is>
-          <t>2.6</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="W33" s="1" t="inlineStr">
         <is>
-          <t>2007-08-02</t>
+          <t>2007-08-03</t>
         </is>
       </c>
       <c r="X33" s="1" t="inlineStr">
         <is>
-          <t>2.6</t>
+          <t>1.4</t>
         </is>
       </c>
       <c r="Y33" s="1" t="inlineStr">
         <is>
-          <t>2007-08-02</t>
+          <t>2007-08-03</t>
         </is>
       </c>
       <c r="Z33" s="1" t="inlineStr">
@@ -5125,7 +5125,7 @@
       </c>
       <c r="AD33" s="1" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>5</t>
         </is>
       </c>
       <c r="AE33" s="1" t="inlineStr"/>
@@ -5140,7 +5140,7 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>18-BG-1</t>
+          <t>LAO-6</t>
         </is>
       </c>
       <c r="B34" s="1" t="inlineStr">
@@ -5150,17 +5150,17 @@
       </c>
       <c r="C34" s="1" t="inlineStr">
         <is>
-          <t>35.84426</t>
+          <t>35.86831</t>
         </is>
       </c>
       <c r="D34" s="1" t="inlineStr">
         <is>
-          <t>-106.27114</t>
+          <t>-106.23041</t>
         </is>
       </c>
       <c r="E34" s="1" t="inlineStr">
         <is>
-          <t>6776.450</t>
+          <t>6423.500</t>
         </is>
       </c>
       <c r="F34" s="1" t="inlineStr">
@@ -5170,30 +5170,34 @@
       </c>
       <c r="G34" s="1" t="inlineStr">
         <is>
-          <t>1994-09-01 00:00:00</t>
+          <t>1966-02-01 00:00:00</t>
         </is>
       </c>
       <c r="H34" s="1" t="inlineStr">
         <is>
-          <t>35.00</t>
+          <t>16.00</t>
         </is>
       </c>
       <c r="I34" s="1" t="inlineStr">
         <is>
-          <t>2 in</t>
+          <t>3 in</t>
         </is>
       </c>
       <c r="J34" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6</t>
         </is>
       </c>
       <c r="K34" s="1" t="inlineStr">
         <is>
-          <t>35.000</t>
-        </is>
-      </c>
-      <c r="L34" s="1" t="inlineStr"/>
+          <t>16.000</t>
+        </is>
+      </c>
+      <c r="L34" s="1" t="inlineStr">
+        <is>
+          <t>Elevation revised based on LIDAR surface location pick, Elevation revised based on LIDAR surface location pick, Elevation revised based on LIDAR surface location pick</t>
+        </is>
+      </c>
       <c r="M34" s="1" t="inlineStr"/>
       <c r="N34" s="1" t="inlineStr">
         <is>
@@ -5202,12 +5206,12 @@
       </c>
       <c r="O34" s="1" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>TA-21</t>
         </is>
       </c>
       <c r="P34" s="1" t="inlineStr">
         <is>
-          <t>Pajarito</t>
+          <t>Los Alamos</t>
         </is>
       </c>
       <c r="Q34" s="1" t="inlineStr">
@@ -5233,22 +5237,22 @@
       </c>
       <c r="V34" s="1" t="inlineStr">
         <is>
-          <t>6.72</t>
+          <t>No Detect Data</t>
         </is>
       </c>
       <c r="W34" s="1" t="inlineStr">
         <is>
-          <t>2010-02-22</t>
+          <t>No Detect Data</t>
         </is>
       </c>
       <c r="X34" s="1" t="inlineStr">
         <is>
-          <t>2.82</t>
+          <t>No Detect Data</t>
         </is>
       </c>
       <c r="Y34" s="1" t="inlineStr">
         <is>
-          <t>2010-07-26</t>
+          <t>No Detect Data</t>
         </is>
       </c>
       <c r="Z34" s="1" t="inlineStr">
@@ -5273,7 +5277,7 @@
       </c>
       <c r="AD34" s="1" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>8</t>
         </is>
       </c>
       <c r="AE34" s="1" t="inlineStr"/>
@@ -5288,7 +5292,7 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>18-MW-11</t>
+          <t>LAO-6a</t>
         </is>
       </c>
       <c r="B35" s="1" t="inlineStr">
@@ -5298,60 +5302,48 @@
       </c>
       <c r="C35" s="1" t="inlineStr">
         <is>
-          <t>35.84031</t>
+          <t>35.86835</t>
         </is>
       </c>
       <c r="D35" s="1" t="inlineStr">
         <is>
-          <t>-106.2649</t>
-        </is>
-      </c>
-      <c r="E35" s="1" t="inlineStr">
-        <is>
-          <t>6740.130</t>
-        </is>
-      </c>
-      <c r="F35" s="1" t="inlineStr">
-        <is>
-          <t>Qal</t>
-        </is>
-      </c>
-      <c r="G35" s="1" t="inlineStr"/>
+          <t>-106.23041</t>
+        </is>
+      </c>
+      <c r="E35" s="1" t="inlineStr"/>
+      <c r="F35" s="1" t="inlineStr"/>
+      <c r="G35" s="1" t="inlineStr">
+        <is>
+          <t>1989-08-17 00:00:00</t>
+        </is>
+      </c>
       <c r="H35" s="1" t="inlineStr">
         <is>
-          <t>47.00</t>
-        </is>
-      </c>
-      <c r="I35" s="1" t="inlineStr">
-        <is>
-          <t>2 in</t>
-        </is>
-      </c>
+          <t>14.20</t>
+        </is>
+      </c>
+      <c r="I35" s="1" t="inlineStr"/>
       <c r="J35" s="1" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="K35" s="1" t="inlineStr">
         <is>
-          <t>47.000</t>
+          <t>14.200</t>
         </is>
       </c>
       <c r="L35" s="1" t="inlineStr"/>
       <c r="M35" s="1" t="inlineStr"/>
-      <c r="N35" s="1" t="inlineStr">
-        <is>
-          <t>MON</t>
-        </is>
-      </c>
+      <c r="N35" s="1" t="inlineStr"/>
       <c r="O35" s="1" t="inlineStr">
         <is>
-          <t>TA-54</t>
+          <t>TA-21</t>
         </is>
       </c>
       <c r="P35" s="1" t="inlineStr">
         <is>
-          <t>Pajarito</t>
+          <t>Los Alamos</t>
         </is>
       </c>
       <c r="Q35" s="1" t="inlineStr">
@@ -5365,11 +5357,7 @@
           <t>[84]</t>
         </is>
       </c>
-      <c r="T35" s="1" t="inlineStr">
-        <is>
-          <t>Geologic Unit Code updated from MW, Well Diameter [in] updated from MW</t>
-        </is>
-      </c>
+      <c r="T35" s="1" t="inlineStr"/>
       <c r="U35" s="1" t="inlineStr">
         <is>
           <t>Well Info</t>
@@ -5377,22 +5365,22 @@
       </c>
       <c r="V35" s="1" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>No Detect Data</t>
         </is>
       </c>
       <c r="W35" s="1" t="inlineStr">
         <is>
-          <t>2008-06-17</t>
+          <t>No Detect Data</t>
         </is>
       </c>
       <c r="X35" s="1" t="inlineStr">
         <is>
-          <t>3.27</t>
+          <t>No Detect Data</t>
         </is>
       </c>
       <c r="Y35" s="1" t="inlineStr">
         <is>
-          <t>2010-07-30</t>
+          <t>No Detect Data</t>
         </is>
       </c>
       <c r="Z35" s="1" t="inlineStr">
@@ -5417,7 +5405,7 @@
       </c>
       <c r="AD35" s="1" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>8</t>
         </is>
       </c>
       <c r="AE35" s="1" t="inlineStr"/>
@@ -5432,7 +5420,7 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>18-MW-8</t>
+          <t>LAO-B</t>
         </is>
       </c>
       <c r="B36" s="1" t="inlineStr">
@@ -5442,17 +5430,17 @@
       </c>
       <c r="C36" s="1" t="inlineStr">
         <is>
-          <t>35.83899</t>
+          <t>35.87883</t>
         </is>
       </c>
       <c r="D36" s="1" t="inlineStr">
         <is>
-          <t>-106.26924</t>
+          <t>-106.3353</t>
         </is>
       </c>
       <c r="E36" s="1" t="inlineStr">
         <is>
-          <t>6747.790</t>
+          <t>7323.59</t>
         </is>
       </c>
       <c r="F36" s="1" t="inlineStr">
@@ -5462,36 +5450,36 @@
       </c>
       <c r="G36" s="1" t="inlineStr">
         <is>
-          <t>1994-08-04 00:00:00</t>
+          <t>1994-04-28 00:00:00</t>
         </is>
       </c>
       <c r="H36" s="1" t="inlineStr">
         <is>
-          <t>37.90</t>
+          <t>27.20</t>
         </is>
       </c>
       <c r="I36" s="1" t="inlineStr">
         <is>
-          <t>2 in</t>
+          <t>4 in</t>
         </is>
       </c>
       <c r="J36" s="1" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>11.84</t>
         </is>
       </c>
       <c r="K36" s="1" t="inlineStr">
         <is>
-          <t>38.000</t>
-        </is>
-      </c>
-      <c r="L36" s="1" t="inlineStr"/>
+          <t>26.840</t>
+        </is>
+      </c>
+      <c r="L36" s="1" t="inlineStr">
+        <is>
+          <t>Elev. measured from GL. Background alluvial monitoring well.  Background well west of ice rink in LA canyon</t>
+        </is>
+      </c>
       <c r="M36" s="1" t="inlineStr"/>
-      <c r="N36" s="1" t="inlineStr">
-        <is>
-          <t>MON</t>
-        </is>
-      </c>
+      <c r="N36" s="1" t="inlineStr"/>
       <c r="O36" s="1" t="inlineStr">
         <is>
           <t>General</t>
@@ -5499,7 +5487,7 @@
       </c>
       <c r="P36" s="1" t="inlineStr">
         <is>
-          <t>Pajarito</t>
+          <t>Los Alamos</t>
         </is>
       </c>
       <c r="Q36" s="1" t="inlineStr">
@@ -5515,7 +5503,7 @@
       </c>
       <c r="T36" s="1" t="inlineStr">
         <is>
-          <t>Geologic Unit Code updated from MW, Well Diameter [in] updated from MW</t>
+          <t>Ground Elevation updated from MW, Geologic Unit Code updated from MW, Well Diameter [in] updated from MW</t>
         </is>
       </c>
       <c r="U36" s="1" t="inlineStr">
@@ -5525,22 +5513,22 @@
       </c>
       <c r="V36" s="1" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="W36" s="1" t="inlineStr">
         <is>
-          <t>2008-06-16</t>
+          <t>2005-05-10</t>
         </is>
       </c>
       <c r="X36" s="1" t="inlineStr">
         <is>
-          <t>2.78</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="Y36" s="1" t="inlineStr">
         <is>
-          <t>2009-09-08</t>
+          <t>2005-05-10</t>
         </is>
       </c>
       <c r="Z36" s="1" t="inlineStr">
@@ -5565,7 +5553,7 @@
       </c>
       <c r="AD36" s="1" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>40</t>
         </is>
       </c>
       <c r="AE36" s="1" t="inlineStr"/>
@@ -5580,7 +5568,7 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>18-MW-9</t>
+          <t>LAO-C</t>
         </is>
       </c>
       <c r="B37" s="1" t="inlineStr">
@@ -5590,17 +5578,17 @@
       </c>
       <c r="C37" s="1" t="inlineStr">
         <is>
-          <t>35.83964</t>
+          <t>35.87906</t>
         </is>
       </c>
       <c r="D37" s="1" t="inlineStr">
         <is>
-          <t>-106.26507</t>
+          <t>-106.31164</t>
         </is>
       </c>
       <c r="E37" s="1" t="inlineStr">
         <is>
-          <t>6732.910</t>
+          <t>7049.980</t>
         </is>
       </c>
       <c r="F37" s="1" t="inlineStr">
@@ -5610,34 +5598,30 @@
       </c>
       <c r="G37" s="1" t="inlineStr">
         <is>
-          <t>1994-07-21 00:00:00</t>
+          <t>1970-08-01 00:00:00</t>
         </is>
       </c>
       <c r="H37" s="1" t="inlineStr">
         <is>
-          <t>21.00</t>
+          <t>13.00</t>
         </is>
       </c>
       <c r="I37" s="1" t="inlineStr">
         <is>
-          <t>2 in</t>
+          <t>3 in</t>
         </is>
       </c>
       <c r="J37" s="1" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K37" s="1" t="inlineStr">
         <is>
-          <t>21.000</t>
-        </is>
-      </c>
-      <c r="L37" s="1" t="inlineStr">
-        <is>
-          <t>TA-18</t>
-        </is>
-      </c>
+          <t>13.000</t>
+        </is>
+      </c>
+      <c r="L37" s="1" t="inlineStr"/>
       <c r="M37" s="1" t="inlineStr"/>
       <c r="N37" s="1" t="inlineStr">
         <is>
@@ -5651,7 +5635,7 @@
       </c>
       <c r="P37" s="1" t="inlineStr">
         <is>
-          <t>Pajarito</t>
+          <t>Los Alamos</t>
         </is>
       </c>
       <c r="Q37" s="1" t="inlineStr">
@@ -5677,22 +5661,22 @@
       </c>
       <c r="V37" s="1" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="W37" s="1" t="inlineStr">
         <is>
-          <t>2006-12-11</t>
+          <t>2003-07-09</t>
         </is>
       </c>
       <c r="X37" s="1" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>0.784</t>
         </is>
       </c>
       <c r="Y37" s="1" t="inlineStr">
         <is>
-          <t>2008-09-11</t>
+          <t>2004-06-03</t>
         </is>
       </c>
       <c r="Z37" s="1" t="inlineStr">
@@ -5717,7 +5701,7 @@
       </c>
       <c r="AD37" s="1" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>30</t>
         </is>
       </c>
       <c r="AE37" s="1" t="inlineStr"/>
@@ -5732,7 +5716,7 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>3MAO-2</t>
+          <t>PAO-3</t>
         </is>
       </c>
       <c r="B38" s="1" t="inlineStr">
@@ -5742,17 +5726,17 @@
       </c>
       <c r="C38" s="1" t="inlineStr">
         <is>
-          <t>35.83915</t>
+          <t>35.88349</t>
         </is>
       </c>
       <c r="D38" s="1" t="inlineStr">
         <is>
-          <t>-106.27238</t>
+          <t>-106.25901</t>
         </is>
       </c>
       <c r="E38" s="1" t="inlineStr">
         <is>
-          <t>6759.435</t>
+          <t>6578.580</t>
         </is>
       </c>
       <c r="F38" s="1" t="inlineStr">
@@ -5762,12 +5746,12 @@
       </c>
       <c r="G38" s="1" t="inlineStr">
         <is>
-          <t>2008-06-04 00:00:00</t>
+          <t>1998-08-27 00:00:00</t>
         </is>
       </c>
       <c r="H38" s="1" t="inlineStr">
         <is>
-          <t>30.00</t>
+          <t>13.47</t>
         </is>
       </c>
       <c r="I38" s="1" t="inlineStr">
@@ -5777,17 +5761,17 @@
       </c>
       <c r="J38" s="1" t="inlineStr">
         <is>
-          <t>14.7</t>
+          <t>5.62</t>
         </is>
       </c>
       <c r="K38" s="1" t="inlineStr">
         <is>
-          <t>24.700</t>
+          <t>10.620</t>
         </is>
       </c>
       <c r="L38" s="1" t="inlineStr">
         <is>
-          <t>Brass Cap, Brass Cap, Brass Cap</t>
+          <t>Pueblo Canyon alluvial wellefile N. McCranie allu PAO-3. Source Org Code changed to ER/WQH.  Location data from ER, sampled by WQH.  Deleted ULI 170252, duplicate location, changed to Synonym., Pueblo Canyon alluvial wellefile N. McCranie allu PAO-3. Source Org Code changed to ER/WQH.  Location data from ER, sampled by WQH.  Deleted ULI 170252, duplicate location, changed to Synonym., Pueblo Canyon alluvial wellefile N. McCranie allu PAO-3. Source Org Code changed to ER/WQH.  Location data from ER, sampled by WQH.  Deleted ULI 170252, duplicate location, changed to Synonym.</t>
         </is>
       </c>
       <c r="M38" s="1" t="inlineStr"/>
@@ -5803,7 +5787,7 @@
       </c>
       <c r="P38" s="1" t="inlineStr">
         <is>
-          <t>Pajarito</t>
+          <t>Los Alamos</t>
         </is>
       </c>
       <c r="Q38" s="1" t="inlineStr">
@@ -5829,22 +5813,22 @@
       </c>
       <c r="V38" s="1" t="inlineStr">
         <is>
-          <t>5.56</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="W38" s="1" t="inlineStr">
         <is>
-          <t>2010-06-07</t>
+          <t>2005-05-10</t>
         </is>
       </c>
       <c r="X38" s="1" t="inlineStr">
         <is>
-          <t>5.56</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="Y38" s="1" t="inlineStr">
         <is>
-          <t>2010-06-07</t>
+          <t>2005-05-10</t>
         </is>
       </c>
       <c r="Z38" s="1" t="inlineStr">
@@ -5869,7 +5853,7 @@
       </c>
       <c r="AD38" s="1" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>5</t>
         </is>
       </c>
       <c r="AE38" s="1" t="inlineStr"/>
@@ -5884,7 +5868,7 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>PCAO-5</t>
+          <t>PAO-4</t>
         </is>
       </c>
       <c r="B39" s="1" t="inlineStr">
@@ -5894,52 +5878,52 @@
       </c>
       <c r="C39" s="1" t="inlineStr">
         <is>
-          <t>35.85353</t>
+          <t>35.87866</t>
         </is>
       </c>
       <c r="D39" s="1" t="inlineStr">
         <is>
-          <t>-106.29474</t>
+          <t>-106.23085</t>
         </is>
       </c>
       <c r="E39" s="1" t="inlineStr">
         <is>
-          <t>6943.290</t>
+          <t>6437.370</t>
         </is>
       </c>
       <c r="F39" s="1" t="inlineStr">
         <is>
-          <t>Qal</t>
+          <t>Alluvial</t>
         </is>
       </c>
       <c r="G39" s="1" t="inlineStr">
         <is>
-          <t>2008-05-03 00:00:00</t>
+          <t>1997-07-24 00:00:00</t>
         </is>
       </c>
       <c r="H39" s="1" t="inlineStr">
         <is>
-          <t>30.00</t>
+          <t>9.82</t>
         </is>
       </c>
       <c r="I39" s="1" t="inlineStr">
         <is>
-          <t>4 in</t>
+          <t>6440.77</t>
         </is>
       </c>
       <c r="J39" s="1" t="inlineStr">
         <is>
-          <t>14.7</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="K39" s="1" t="inlineStr">
         <is>
-          <t>24.700</t>
+          <t>6.970</t>
         </is>
       </c>
       <c r="L39" s="1" t="inlineStr">
         <is>
-          <t>Brass Cap, Brass Cap, Brass Cap</t>
+          <t>Pueblo Canyon alluvial wellefile N. McCranie ALLU PAO-4. Source Org Code changed to ER/WQH.  Location data from ER, sampled by WQH.  Deleted ULI 170262, duplicate location, changed to Synonym., Pueblo Canyon alluvial wellefile N. McCranie ALLU PAO-4. Source Org Code changed to ER/WQH.  Location data from ER, sampled by WQH.  Deleted ULI 170262, duplicate location, changed to Synonym., Pueblo Canyon alluvial wellefile N. McCranie ALLU PAO-4. Source Org Code changed to ER/WQH.  Location data from ER, sampled by WQH.  Deleted ULI 170262, duplicate location, changed to Synonym.</t>
         </is>
       </c>
       <c r="M39" s="1" t="inlineStr"/>
@@ -5955,7 +5939,7 @@
       </c>
       <c r="P39" s="1" t="inlineStr">
         <is>
-          <t>Pajarito</t>
+          <t>Los Alamos</t>
         </is>
       </c>
       <c r="Q39" s="1" t="inlineStr">
@@ -5981,22 +5965,22 @@
       </c>
       <c r="V39" s="1" t="inlineStr">
         <is>
-          <t>No Detect Data</t>
+          <t>2.6</t>
         </is>
       </c>
       <c r="W39" s="1" t="inlineStr">
         <is>
-          <t>No Detect Data</t>
+          <t>2007-08-02</t>
         </is>
       </c>
       <c r="X39" s="1" t="inlineStr">
         <is>
-          <t>No Detect Data</t>
+          <t>2.6</t>
         </is>
       </c>
       <c r="Y39" s="1" t="inlineStr">
         <is>
-          <t>No Detect Data</t>
+          <t>2007-08-02</t>
         </is>
       </c>
       <c r="Z39" s="1" t="inlineStr">
@@ -6021,7 +6005,7 @@
       </c>
       <c r="AD39" s="1" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>28</t>
         </is>
       </c>
       <c r="AE39" s="1" t="inlineStr"/>
@@ -6036,7 +6020,7 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>PCAO-6</t>
+          <t>18-BG-1</t>
         </is>
       </c>
       <c r="B40" s="1" t="inlineStr">
@@ -6046,17 +6030,17 @@
       </c>
       <c r="C40" s="1" t="inlineStr">
         <is>
-          <t>35.85336</t>
+          <t>35.84426</t>
         </is>
       </c>
       <c r="D40" s="1" t="inlineStr">
         <is>
-          <t>-106.29322</t>
+          <t>-106.27114</t>
         </is>
       </c>
       <c r="E40" s="1" t="inlineStr">
         <is>
-          <t>6921.400</t>
+          <t>6776.450</t>
         </is>
       </c>
       <c r="F40" s="1" t="inlineStr">
@@ -6066,34 +6050,30 @@
       </c>
       <c r="G40" s="1" t="inlineStr">
         <is>
-          <t>2008-06-05 00:00:00</t>
+          <t>1994-09-01 00:00:00</t>
         </is>
       </c>
       <c r="H40" s="1" t="inlineStr">
         <is>
-          <t>20.00</t>
+          <t>35.00</t>
         </is>
       </c>
       <c r="I40" s="1" t="inlineStr">
         <is>
-          <t>4 in</t>
+          <t>2 in</t>
         </is>
       </c>
       <c r="J40" s="1" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K40" s="1" t="inlineStr">
         <is>
-          <t>15.000</t>
-        </is>
-      </c>
-      <c r="L40" s="1" t="inlineStr">
-        <is>
-          <t>Brass Cap, Brass Cap, Brass Cap</t>
-        </is>
-      </c>
+          <t>35.000</t>
+        </is>
+      </c>
+      <c r="L40" s="1" t="inlineStr"/>
       <c r="M40" s="1" t="inlineStr"/>
       <c r="N40" s="1" t="inlineStr">
         <is>
@@ -6133,22 +6113,22 @@
       </c>
       <c r="V40" s="1" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>6.72</t>
         </is>
       </c>
       <c r="W40" s="1" t="inlineStr">
         <is>
-          <t>2010-06-04</t>
+          <t>2010-02-22</t>
         </is>
       </c>
       <c r="X40" s="1" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>2.82</t>
         </is>
       </c>
       <c r="Y40" s="1" t="inlineStr">
         <is>
-          <t>2010-06-04</t>
+          <t>2010-07-26</t>
         </is>
       </c>
       <c r="Z40" s="1" t="inlineStr">
@@ -6173,7 +6153,7 @@
       </c>
       <c r="AD40" s="1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>30</t>
         </is>
       </c>
       <c r="AE40" s="1" t="inlineStr"/>
@@ -6188,7 +6168,7 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>PCAO-7a</t>
+          <t>18-MW-11</t>
         </is>
       </c>
       <c r="B41" s="1" t="inlineStr">
@@ -6198,17 +6178,17 @@
       </c>
       <c r="C41" s="1" t="inlineStr">
         <is>
-          <t>35.83869</t>
+          <t>35.84031</t>
         </is>
       </c>
       <c r="D41" s="1" t="inlineStr">
         <is>
-          <t>-106.26174</t>
+          <t>-106.2649</t>
         </is>
       </c>
       <c r="E41" s="1" t="inlineStr">
         <is>
-          <t>6711.970</t>
+          <t>6740.130</t>
         </is>
       </c>
       <c r="F41" s="1" t="inlineStr">
@@ -6216,36 +6196,28 @@
           <t>Qal</t>
         </is>
       </c>
-      <c r="G41" s="1" t="inlineStr">
-        <is>
-          <t>2008-05-30 00:00:00</t>
-        </is>
-      </c>
+      <c r="G41" s="1" t="inlineStr"/>
       <c r="H41" s="1" t="inlineStr">
         <is>
-          <t>25.00</t>
+          <t>47.00</t>
         </is>
       </c>
       <c r="I41" s="1" t="inlineStr">
         <is>
-          <t>4 in</t>
+          <t>2 in</t>
         </is>
       </c>
       <c r="J41" s="1" t="inlineStr">
         <is>
-          <t>9.7</t>
+          <t>27</t>
         </is>
       </c>
       <c r="K41" s="1" t="inlineStr">
         <is>
-          <t>19.700</t>
-        </is>
-      </c>
-      <c r="L41" s="1" t="inlineStr">
-        <is>
-          <t>Brass Cap, Brass Cap, Brass Cap</t>
-        </is>
-      </c>
+          <t>47.000</t>
+        </is>
+      </c>
+      <c r="L41" s="1" t="inlineStr"/>
       <c r="M41" s="1" t="inlineStr"/>
       <c r="N41" s="1" t="inlineStr">
         <is>
@@ -6285,22 +6257,22 @@
       </c>
       <c r="V41" s="1" t="inlineStr">
         <is>
-          <t>No Detect Data</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="W41" s="1" t="inlineStr">
         <is>
-          <t>No Detect Data</t>
+          <t>2008-06-17</t>
         </is>
       </c>
       <c r="X41" s="1" t="inlineStr">
         <is>
-          <t>No Detect Data</t>
+          <t>3.27</t>
         </is>
       </c>
       <c r="Y41" s="1" t="inlineStr">
         <is>
-          <t>No Detect Data</t>
+          <t>2010-07-30</t>
         </is>
       </c>
       <c r="Z41" s="1" t="inlineStr">
@@ -6325,7 +6297,7 @@
       </c>
       <c r="AD41" s="1" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>28</t>
         </is>
       </c>
       <c r="AE41" s="1" t="inlineStr"/>
@@ -6340,7 +6312,7 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>PCAO-7b2</t>
+          <t>18-MW-8</t>
         </is>
       </c>
       <c r="B42" s="1" t="inlineStr">
@@ -6350,17 +6322,17 @@
       </c>
       <c r="C42" s="1" t="inlineStr">
         <is>
-          <t>35.8385</t>
+          <t>35.83899</t>
         </is>
       </c>
       <c r="D42" s="1" t="inlineStr">
         <is>
-          <t>-106.26205</t>
+          <t>-106.26924</t>
         </is>
       </c>
       <c r="E42" s="1" t="inlineStr">
         <is>
-          <t>6713.390</t>
+          <t>6747.790</t>
         </is>
       </c>
       <c r="F42" s="1" t="inlineStr">
@@ -6370,34 +6342,30 @@
       </c>
       <c r="G42" s="1" t="inlineStr">
         <is>
-          <t>2008-05-27 00:00:00</t>
+          <t>1994-08-04 00:00:00</t>
         </is>
       </c>
       <c r="H42" s="1" t="inlineStr">
         <is>
-          <t>25.00</t>
+          <t>37.90</t>
         </is>
       </c>
       <c r="I42" s="1" t="inlineStr">
         <is>
-          <t>4 in</t>
+          <t>2 in</t>
         </is>
       </c>
       <c r="J42" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>8</t>
         </is>
       </c>
       <c r="K42" s="1" t="inlineStr">
         <is>
-          <t>20.000</t>
-        </is>
-      </c>
-      <c r="L42" s="1" t="inlineStr">
-        <is>
-          <t>Brass Cap, Brass Cap, Brass Cap</t>
-        </is>
-      </c>
+          <t>38.000</t>
+        </is>
+      </c>
+      <c r="L42" s="1" t="inlineStr"/>
       <c r="M42" s="1" t="inlineStr"/>
       <c r="N42" s="1" t="inlineStr">
         <is>
@@ -6406,7 +6374,7 @@
       </c>
       <c r="O42" s="1" t="inlineStr">
         <is>
-          <t>TA-54</t>
+          <t>General</t>
         </is>
       </c>
       <c r="P42" s="1" t="inlineStr">
@@ -6437,22 +6405,22 @@
       </c>
       <c r="V42" s="1" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="W42" s="1" t="inlineStr">
         <is>
-          <t>2008-12-18</t>
+          <t>2008-06-16</t>
         </is>
       </c>
       <c r="X42" s="1" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>2.78</t>
         </is>
       </c>
       <c r="Y42" s="1" t="inlineStr">
         <is>
-          <t>2009-03-06</t>
+          <t>2009-09-08</t>
         </is>
       </c>
       <c r="Z42" s="1" t="inlineStr">
@@ -6477,7 +6445,7 @@
       </c>
       <c r="AD42" s="1" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>28</t>
         </is>
       </c>
       <c r="AE42" s="1" t="inlineStr"/>
@@ -6492,7 +6460,7 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>PCAO-7c</t>
+          <t>18-MW-9</t>
         </is>
       </c>
       <c r="B43" s="1" t="inlineStr">
@@ -6502,17 +6470,17 @@
       </c>
       <c r="C43" s="1" t="inlineStr">
         <is>
-          <t>35.8381</t>
+          <t>35.83964</t>
         </is>
       </c>
       <c r="D43" s="1" t="inlineStr">
         <is>
-          <t>-106.26252</t>
+          <t>-106.26507</t>
         </is>
       </c>
       <c r="E43" s="1" t="inlineStr">
         <is>
-          <t>6714.570</t>
+          <t>6732.910</t>
         </is>
       </c>
       <c r="F43" s="1" t="inlineStr">
@@ -6522,32 +6490,32 @@
       </c>
       <c r="G43" s="1" t="inlineStr">
         <is>
-          <t>2008-05-16 00:00:00</t>
+          <t>1994-07-21 00:00:00</t>
         </is>
       </c>
       <c r="H43" s="1" t="inlineStr">
         <is>
-          <t>25.00</t>
+          <t>21.00</t>
         </is>
       </c>
       <c r="I43" s="1" t="inlineStr">
         <is>
-          <t>4 in</t>
+          <t>2 in</t>
         </is>
       </c>
       <c r="J43" s="1" t="inlineStr">
         <is>
-          <t>9.7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="K43" s="1" t="inlineStr">
         <is>
-          <t>19.700</t>
+          <t>21.000</t>
         </is>
       </c>
       <c r="L43" s="1" t="inlineStr">
         <is>
-          <t>Brass Cap, Brass Cap, Brass Cap</t>
+          <t>TA-18</t>
         </is>
       </c>
       <c r="M43" s="1" t="inlineStr"/>
@@ -6589,22 +6557,22 @@
       </c>
       <c r="V43" s="1" t="inlineStr">
         <is>
-          <t>2.74</t>
+          <t>2.8</t>
         </is>
       </c>
       <c r="W43" s="1" t="inlineStr">
         <is>
-          <t>2009-09-14</t>
+          <t>2006-12-11</t>
         </is>
       </c>
       <c r="X43" s="1" t="inlineStr">
         <is>
-          <t>2.74</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="Y43" s="1" t="inlineStr">
         <is>
-          <t>2009-09-14</t>
+          <t>2008-09-11</t>
         </is>
       </c>
       <c r="Z43" s="1" t="inlineStr">
@@ -6629,7 +6597,7 @@
       </c>
       <c r="AD43" s="1" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>28</t>
         </is>
       </c>
       <c r="AE43" s="1" t="inlineStr"/>
@@ -6644,7 +6612,7 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>PCAO-9</t>
+          <t>3MAO-2</t>
         </is>
       </c>
       <c r="B44" s="1" t="inlineStr">
@@ -6654,17 +6622,17 @@
       </c>
       <c r="C44" s="1" t="inlineStr">
         <is>
-          <t>35.82614</t>
+          <t>35.83915</t>
         </is>
       </c>
       <c r="D44" s="1" t="inlineStr">
         <is>
-          <t>-106.23271</t>
+          <t>-106.27238</t>
         </is>
       </c>
       <c r="E44" s="1" t="inlineStr">
         <is>
-          <t>6558.600</t>
+          <t>6759.435</t>
         </is>
       </c>
       <c r="F44" s="1" t="inlineStr">
@@ -6674,12 +6642,12 @@
       </c>
       <c r="G44" s="1" t="inlineStr">
         <is>
-          <t>2008-06-12 00:00:00</t>
+          <t>2008-06-04 00:00:00</t>
         </is>
       </c>
       <c r="H44" s="1" t="inlineStr">
         <is>
-          <t>21.00</t>
+          <t>30.00</t>
         </is>
       </c>
       <c r="I44" s="1" t="inlineStr">
@@ -6689,12 +6657,12 @@
       </c>
       <c r="J44" s="1" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>14.7</t>
         </is>
       </c>
       <c r="K44" s="1" t="inlineStr">
         <is>
-          <t>16.000</t>
+          <t>24.700</t>
         </is>
       </c>
       <c r="L44" s="1" t="inlineStr">
@@ -6710,7 +6678,7 @@
       </c>
       <c r="O44" s="1" t="inlineStr">
         <is>
-          <t>TA-54</t>
+          <t>General</t>
         </is>
       </c>
       <c r="P44" s="1" t="inlineStr">
@@ -6741,22 +6709,22 @@
       </c>
       <c r="V44" s="1" t="inlineStr">
         <is>
-          <t>9.1</t>
+          <t>5.56</t>
         </is>
       </c>
       <c r="W44" s="1" t="inlineStr">
         <is>
-          <t>2008-09-17</t>
+          <t>2010-06-07</t>
         </is>
       </c>
       <c r="X44" s="1" t="inlineStr">
         <is>
-          <t>9.1</t>
+          <t>5.56</t>
         </is>
       </c>
       <c r="Y44" s="1" t="inlineStr">
         <is>
-          <t>2008-09-17</t>
+          <t>2010-06-07</t>
         </is>
       </c>
       <c r="Z44" s="1" t="inlineStr">
@@ -6781,15 +6749,11 @@
       </c>
       <c r="AD44" s="1" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>18</t>
         </is>
       </c>
       <c r="AE44" s="1" t="inlineStr"/>
-      <c r="AF44" s="1" t="inlineStr">
-        <is>
-          <t>Exceedance</t>
-        </is>
-      </c>
+      <c r="AF44" s="1" t="inlineStr"/>
       <c r="AG44" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">Substantial
@@ -6800,7 +6764,7 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>PCO-1</t>
+          <t>PCAO-5</t>
         </is>
       </c>
       <c r="B45" s="1" t="inlineStr">
@@ -6810,47 +6774,63 @@
       </c>
       <c r="C45" s="1" t="inlineStr">
         <is>
-          <t>35.83716</t>
+          <t>35.85353</t>
         </is>
       </c>
       <c r="D45" s="1" t="inlineStr">
         <is>
-          <t>-106.25843</t>
+          <t>-106.29474</t>
         </is>
       </c>
       <c r="E45" s="1" t="inlineStr">
         <is>
-          <t>6687</t>
-        </is>
-      </c>
-      <c r="F45" s="1" t="inlineStr"/>
+          <t>6943.290</t>
+        </is>
+      </c>
+      <c r="F45" s="1" t="inlineStr">
+        <is>
+          <t>Qal</t>
+        </is>
+      </c>
       <c r="G45" s="1" t="inlineStr">
         <is>
-          <t>1985-06-30 00:00:00</t>
+          <t>2008-05-03 00:00:00</t>
         </is>
       </c>
       <c r="H45" s="1" t="inlineStr">
         <is>
-          <t>12.00</t>
-        </is>
-      </c>
-      <c r="I45" s="1" t="inlineStr"/>
+          <t>30.00</t>
+        </is>
+      </c>
+      <c r="I45" s="1" t="inlineStr">
+        <is>
+          <t>4 in</t>
+        </is>
+      </c>
       <c r="J45" s="1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>14.7</t>
         </is>
       </c>
       <c r="K45" s="1" t="inlineStr">
         <is>
-          <t>12.000</t>
-        </is>
-      </c>
-      <c r="L45" s="1" t="inlineStr"/>
+          <t>24.700</t>
+        </is>
+      </c>
+      <c r="L45" s="1" t="inlineStr">
+        <is>
+          <t>Brass Cap, Brass Cap, Brass Cap</t>
+        </is>
+      </c>
       <c r="M45" s="1" t="inlineStr"/>
-      <c r="N45" s="1" t="inlineStr"/>
+      <c r="N45" s="1" t="inlineStr">
+        <is>
+          <t>MON</t>
+        </is>
+      </c>
       <c r="O45" s="1" t="inlineStr">
         <is>
-          <t>TA-54</t>
+          <t>General</t>
         </is>
       </c>
       <c r="P45" s="1" t="inlineStr">
@@ -6871,7 +6851,7 @@
       </c>
       <c r="T45" s="1" t="inlineStr">
         <is>
-          <t>Ground Elevation updated from MW</t>
+          <t>Geologic Unit Code updated from MW, Well Diameter [in] updated from MW</t>
         </is>
       </c>
       <c r="U45" s="1" t="inlineStr">
@@ -6881,22 +6861,22 @@
       </c>
       <c r="V45" s="1" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>No Detect Data</t>
         </is>
       </c>
       <c r="W45" s="1" t="inlineStr">
         <is>
-          <t>2005-08-24</t>
+          <t>No Detect Data</t>
         </is>
       </c>
       <c r="X45" s="1" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>No Detect Data</t>
         </is>
       </c>
       <c r="Y45" s="1" t="inlineStr">
         <is>
-          <t>2005-08-24</t>
+          <t>No Detect Data</t>
         </is>
       </c>
       <c r="Z45" s="1" t="inlineStr">
@@ -6921,7 +6901,7 @@
       </c>
       <c r="AD45" s="1" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>14</t>
         </is>
       </c>
       <c r="AE45" s="1" t="inlineStr"/>
@@ -6936,7 +6916,7 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>PCO-2</t>
+          <t>PCAO-6</t>
         </is>
       </c>
       <c r="B46" s="1" t="inlineStr">
@@ -6946,47 +6926,63 @@
       </c>
       <c r="C46" s="1" t="inlineStr">
         <is>
-          <t>35.83016</t>
+          <t>35.85336</t>
         </is>
       </c>
       <c r="D46" s="1" t="inlineStr">
         <is>
-          <t>-106.24567</t>
+          <t>-106.29322</t>
         </is>
       </c>
       <c r="E46" s="1" t="inlineStr">
         <is>
-          <t>6618.3</t>
-        </is>
-      </c>
-      <c r="F46" s="1" t="inlineStr"/>
+          <t>6921.400</t>
+        </is>
+      </c>
+      <c r="F46" s="1" t="inlineStr">
+        <is>
+          <t>Qal</t>
+        </is>
+      </c>
       <c r="G46" s="1" t="inlineStr">
         <is>
-          <t>1985-06-30 00:00:00</t>
+          <t>2008-06-05 00:00:00</t>
         </is>
       </c>
       <c r="H46" s="1" t="inlineStr">
         <is>
-          <t>9.50</t>
-        </is>
-      </c>
-      <c r="I46" s="1" t="inlineStr"/>
+          <t>20.00</t>
+        </is>
+      </c>
+      <c r="I46" s="1" t="inlineStr">
+        <is>
+          <t>4 in</t>
+        </is>
+      </c>
       <c r="J46" s="1" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="K46" s="1" t="inlineStr">
         <is>
-          <t>9.500</t>
-        </is>
-      </c>
-      <c r="L46" s="1" t="inlineStr"/>
+          <t>15.000</t>
+        </is>
+      </c>
+      <c r="L46" s="1" t="inlineStr">
+        <is>
+          <t>Brass Cap, Brass Cap, Brass Cap</t>
+        </is>
+      </c>
       <c r="M46" s="1" t="inlineStr"/>
-      <c r="N46" s="1" t="inlineStr"/>
+      <c r="N46" s="1" t="inlineStr">
+        <is>
+          <t>MON</t>
+        </is>
+      </c>
       <c r="O46" s="1" t="inlineStr">
         <is>
-          <t>TA-54</t>
+          <t>General</t>
         </is>
       </c>
       <c r="P46" s="1" t="inlineStr">
@@ -7007,7 +7003,7 @@
       </c>
       <c r="T46" s="1" t="inlineStr">
         <is>
-          <t>Ground Elevation updated from MW</t>
+          <t>Geologic Unit Code updated from MW, Well Diameter [in] updated from MW</t>
         </is>
       </c>
       <c r="U46" s="1" t="inlineStr">
@@ -7017,22 +7013,22 @@
       </c>
       <c r="V46" s="1" t="inlineStr">
         <is>
-          <t>5.8</t>
+          <t>2.68</t>
         </is>
       </c>
       <c r="W46" s="1" t="inlineStr">
         <is>
-          <t>2007-06-25</t>
+          <t>2010-06-04</t>
         </is>
       </c>
       <c r="X46" s="1" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>2.68</t>
         </is>
       </c>
       <c r="Y46" s="1" t="inlineStr">
         <is>
-          <t>2007-12-06</t>
+          <t>2010-06-04</t>
         </is>
       </c>
       <c r="Z46" s="1" t="inlineStr">
@@ -7057,7 +7053,7 @@
       </c>
       <c r="AD46" s="1" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>4</t>
         </is>
       </c>
       <c r="AE46" s="1" t="inlineStr"/>
@@ -7072,7 +7068,7 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>PCO-3</t>
+          <t>PCAO-7a</t>
         </is>
       </c>
       <c r="B47" s="1" t="inlineStr">
@@ -7082,47 +7078,63 @@
       </c>
       <c r="C47" s="1" t="inlineStr">
         <is>
-          <t>35.82479</t>
+          <t>35.83869</t>
         </is>
       </c>
       <c r="D47" s="1" t="inlineStr">
         <is>
-          <t>-106.23087</t>
+          <t>-106.26174</t>
         </is>
       </c>
       <c r="E47" s="1" t="inlineStr">
         <is>
-          <t>6546.3</t>
-        </is>
-      </c>
-      <c r="F47" s="1" t="inlineStr"/>
+          <t>6711.970</t>
+        </is>
+      </c>
+      <c r="F47" s="1" t="inlineStr">
+        <is>
+          <t>Qal</t>
+        </is>
+      </c>
       <c r="G47" s="1" t="inlineStr">
         <is>
-          <t>1985-06-30 00:00:00</t>
+          <t>2008-05-30 00:00:00</t>
         </is>
       </c>
       <c r="H47" s="1" t="inlineStr">
         <is>
-          <t>17.70</t>
-        </is>
-      </c>
-      <c r="I47" s="1" t="inlineStr"/>
+          <t>25.00</t>
+        </is>
+      </c>
+      <c r="I47" s="1" t="inlineStr">
+        <is>
+          <t>4 in</t>
+        </is>
+      </c>
       <c r="J47" s="1" t="inlineStr">
         <is>
-          <t>5.7</t>
+          <t>9.7</t>
         </is>
       </c>
       <c r="K47" s="1" t="inlineStr">
         <is>
-          <t>17.700</t>
-        </is>
-      </c>
-      <c r="L47" s="1" t="inlineStr"/>
+          <t>19.700</t>
+        </is>
+      </c>
+      <c r="L47" s="1" t="inlineStr">
+        <is>
+          <t>Brass Cap, Brass Cap, Brass Cap</t>
+        </is>
+      </c>
       <c r="M47" s="1" t="inlineStr"/>
-      <c r="N47" s="1" t="inlineStr"/>
+      <c r="N47" s="1" t="inlineStr">
+        <is>
+          <t>MON</t>
+        </is>
+      </c>
       <c r="O47" s="1" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>TA-54</t>
         </is>
       </c>
       <c r="P47" s="1" t="inlineStr">
@@ -7143,7 +7155,7 @@
       </c>
       <c r="T47" s="1" t="inlineStr">
         <is>
-          <t>Ground Elevation updated from MW</t>
+          <t>Geologic Unit Code updated from MW, Well Diameter [in] updated from MW</t>
         </is>
       </c>
       <c r="U47" s="1" t="inlineStr">
@@ -7153,22 +7165,22 @@
       </c>
       <c r="V47" s="1" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>No Detect Data</t>
         </is>
       </c>
       <c r="W47" s="1" t="inlineStr">
         <is>
-          <t>2007-12-07</t>
+          <t>No Detect Data</t>
         </is>
       </c>
       <c r="X47" s="1" t="inlineStr">
         <is>
-          <t>2.6</t>
+          <t>No Detect Data</t>
         </is>
       </c>
       <c r="Y47" s="1" t="inlineStr">
         <is>
-          <t>2008-03-18</t>
+          <t>No Detect Data</t>
         </is>
       </c>
       <c r="Z47" s="1" t="inlineStr">
@@ -7193,7 +7205,7 @@
       </c>
       <c r="AD47" s="1" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>18</t>
         </is>
       </c>
       <c r="AE47" s="1" t="inlineStr"/>
@@ -7208,7 +7220,7 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>TMO-1</t>
+          <t>PCAO-7b2</t>
         </is>
       </c>
       <c r="B48" s="1" t="inlineStr">
@@ -7218,17 +7230,17 @@
       </c>
       <c r="C48" s="1" t="inlineStr">
         <is>
-          <t>35.8541</t>
+          <t>35.8385</t>
         </is>
       </c>
       <c r="D48" s="1" t="inlineStr">
         <is>
-          <t>-106.29585</t>
+          <t>-106.26205</t>
         </is>
       </c>
       <c r="E48" s="1" t="inlineStr">
         <is>
-          <t>6945.200</t>
+          <t>6713.390</t>
         </is>
       </c>
       <c r="F48" s="1" t="inlineStr">
@@ -7238,27 +7250,27 @@
       </c>
       <c r="G48" s="1" t="inlineStr">
         <is>
-          <t>2008-06-09 00:00:00</t>
+          <t>2008-05-27 00:00:00</t>
         </is>
       </c>
       <c r="H48" s="1" t="inlineStr">
         <is>
-          <t>6.50</t>
+          <t>25.00</t>
         </is>
       </c>
       <c r="I48" s="1" t="inlineStr">
         <is>
-          <t>1.5 in</t>
+          <t>4 in</t>
         </is>
       </c>
       <c r="J48" s="1" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K48" s="1" t="inlineStr">
         <is>
-          <t>6.500</t>
+          <t>20.000</t>
         </is>
       </c>
       <c r="L48" s="1" t="inlineStr">
@@ -7274,7 +7286,7 @@
       </c>
       <c r="O48" s="1" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>TA-54</t>
         </is>
       </c>
       <c r="P48" s="1" t="inlineStr">
@@ -7305,22 +7317,22 @@
       </c>
       <c r="V48" s="1" t="inlineStr">
         <is>
-          <t>No Detect Data</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="W48" s="1" t="inlineStr">
         <is>
-          <t>No Detect Data</t>
+          <t>2008-12-18</t>
         </is>
       </c>
       <c r="X48" s="1" t="inlineStr">
         <is>
-          <t>No Detect Data</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="Y48" s="1" t="inlineStr">
         <is>
-          <t>No Detect Data</t>
+          <t>2009-03-06</t>
         </is>
       </c>
       <c r="Z48" s="1" t="inlineStr">
@@ -7345,12 +7357,880 @@
       </c>
       <c r="AD48" s="1" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>14</t>
         </is>
       </c>
       <c r="AE48" s="1" t="inlineStr"/>
       <c r="AF48" s="1" t="inlineStr"/>
       <c r="AG48" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Substantial
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>PCAO-7c</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>Alluvial</t>
+        </is>
+      </c>
+      <c r="C49" s="1" t="inlineStr">
+        <is>
+          <t>35.8381</t>
+        </is>
+      </c>
+      <c r="D49" s="1" t="inlineStr">
+        <is>
+          <t>-106.26252</t>
+        </is>
+      </c>
+      <c r="E49" s="1" t="inlineStr">
+        <is>
+          <t>6714.570</t>
+        </is>
+      </c>
+      <c r="F49" s="1" t="inlineStr">
+        <is>
+          <t>Qal</t>
+        </is>
+      </c>
+      <c r="G49" s="1" t="inlineStr">
+        <is>
+          <t>2008-05-16 00:00:00</t>
+        </is>
+      </c>
+      <c r="H49" s="1" t="inlineStr">
+        <is>
+          <t>25.00</t>
+        </is>
+      </c>
+      <c r="I49" s="1" t="inlineStr">
+        <is>
+          <t>4 in</t>
+        </is>
+      </c>
+      <c r="J49" s="1" t="inlineStr">
+        <is>
+          <t>9.7</t>
+        </is>
+      </c>
+      <c r="K49" s="1" t="inlineStr">
+        <is>
+          <t>19.700</t>
+        </is>
+      </c>
+      <c r="L49" s="1" t="inlineStr">
+        <is>
+          <t>Brass Cap, Brass Cap, Brass Cap</t>
+        </is>
+      </c>
+      <c r="M49" s="1" t="inlineStr"/>
+      <c r="N49" s="1" t="inlineStr">
+        <is>
+          <t>MON</t>
+        </is>
+      </c>
+      <c r="O49" s="1" t="inlineStr">
+        <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="P49" s="1" t="inlineStr">
+        <is>
+          <t>Pajarito</t>
+        </is>
+      </c>
+      <c r="Q49" s="1" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R49" s="1" t="inlineStr"/>
+      <c r="S49" s="1" t="inlineStr">
+        <is>
+          <t>[84]</t>
+        </is>
+      </c>
+      <c r="T49" s="1" t="inlineStr">
+        <is>
+          <t>Geologic Unit Code updated from MW, Well Diameter [in] updated from MW</t>
+        </is>
+      </c>
+      <c r="U49" s="1" t="inlineStr">
+        <is>
+          <t>Well Info</t>
+        </is>
+      </c>
+      <c r="V49" s="1" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="W49" s="1" t="inlineStr">
+        <is>
+          <t>2009-09-14</t>
+        </is>
+      </c>
+      <c r="X49" s="1" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="Y49" s="1" t="inlineStr">
+        <is>
+          <t>2009-09-14</t>
+        </is>
+      </c>
+      <c r="Z49" s="1" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="AA49" s="1" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="AB49" s="1" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="AC49" s="1" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="AD49" s="1" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AE49" s="1" t="inlineStr"/>
+      <c r="AF49" s="1" t="inlineStr"/>
+      <c r="AG49" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Substantial
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>PCAO-9</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>Alluvial</t>
+        </is>
+      </c>
+      <c r="C50" s="1" t="inlineStr">
+        <is>
+          <t>35.82614</t>
+        </is>
+      </c>
+      <c r="D50" s="1" t="inlineStr">
+        <is>
+          <t>-106.23271</t>
+        </is>
+      </c>
+      <c r="E50" s="1" t="inlineStr">
+        <is>
+          <t>6558.600</t>
+        </is>
+      </c>
+      <c r="F50" s="1" t="inlineStr">
+        <is>
+          <t>Qal</t>
+        </is>
+      </c>
+      <c r="G50" s="1" t="inlineStr">
+        <is>
+          <t>2008-06-12 00:00:00</t>
+        </is>
+      </c>
+      <c r="H50" s="1" t="inlineStr">
+        <is>
+          <t>21.00</t>
+        </is>
+      </c>
+      <c r="I50" s="1" t="inlineStr">
+        <is>
+          <t>4 in</t>
+        </is>
+      </c>
+      <c r="J50" s="1" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K50" s="1" t="inlineStr">
+        <is>
+          <t>16.000</t>
+        </is>
+      </c>
+      <c r="L50" s="1" t="inlineStr">
+        <is>
+          <t>Brass Cap, Brass Cap, Brass Cap</t>
+        </is>
+      </c>
+      <c r="M50" s="1" t="inlineStr"/>
+      <c r="N50" s="1" t="inlineStr">
+        <is>
+          <t>MON</t>
+        </is>
+      </c>
+      <c r="O50" s="1" t="inlineStr">
+        <is>
+          <t>TA-54</t>
+        </is>
+      </c>
+      <c r="P50" s="1" t="inlineStr">
+        <is>
+          <t>Pajarito</t>
+        </is>
+      </c>
+      <c r="Q50" s="1" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R50" s="1" t="inlineStr"/>
+      <c r="S50" s="1" t="inlineStr">
+        <is>
+          <t>[84]</t>
+        </is>
+      </c>
+      <c r="T50" s="1" t="inlineStr">
+        <is>
+          <t>Geologic Unit Code updated from MW, Well Diameter [in] updated from MW</t>
+        </is>
+      </c>
+      <c r="U50" s="1" t="inlineStr">
+        <is>
+          <t>Well Info</t>
+        </is>
+      </c>
+      <c r="V50" s="1" t="inlineStr">
+        <is>
+          <t>9.1</t>
+        </is>
+      </c>
+      <c r="W50" s="1" t="inlineStr">
+        <is>
+          <t>2008-09-17</t>
+        </is>
+      </c>
+      <c r="X50" s="1" t="inlineStr">
+        <is>
+          <t>9.1</t>
+        </is>
+      </c>
+      <c r="Y50" s="1" t="inlineStr">
+        <is>
+          <t>2008-09-17</t>
+        </is>
+      </c>
+      <c r="Z50" s="1" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="AA50" s="1" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="AB50" s="1" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="AC50" s="1" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="AD50" s="1" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AE50" s="1" t="inlineStr"/>
+      <c r="AF50" s="1" t="inlineStr">
+        <is>
+          <t>Exceedance</t>
+        </is>
+      </c>
+      <c r="AG50" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Substantial
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>PCO-1</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>Alluvial</t>
+        </is>
+      </c>
+      <c r="C51" s="1" t="inlineStr">
+        <is>
+          <t>35.83716</t>
+        </is>
+      </c>
+      <c r="D51" s="1" t="inlineStr">
+        <is>
+          <t>-106.25843</t>
+        </is>
+      </c>
+      <c r="E51" s="1" t="inlineStr">
+        <is>
+          <t>6687</t>
+        </is>
+      </c>
+      <c r="F51" s="1" t="inlineStr"/>
+      <c r="G51" s="1" t="inlineStr">
+        <is>
+          <t>1985-06-30 00:00:00</t>
+        </is>
+      </c>
+      <c r="H51" s="1" t="inlineStr">
+        <is>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="I51" s="1" t="inlineStr"/>
+      <c r="J51" s="1" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K51" s="1" t="inlineStr">
+        <is>
+          <t>12.000</t>
+        </is>
+      </c>
+      <c r="L51" s="1" t="inlineStr"/>
+      <c r="M51" s="1" t="inlineStr"/>
+      <c r="N51" s="1" t="inlineStr"/>
+      <c r="O51" s="1" t="inlineStr">
+        <is>
+          <t>TA-54</t>
+        </is>
+      </c>
+      <c r="P51" s="1" t="inlineStr">
+        <is>
+          <t>Pajarito</t>
+        </is>
+      </c>
+      <c r="Q51" s="1" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R51" s="1" t="inlineStr"/>
+      <c r="S51" s="1" t="inlineStr">
+        <is>
+          <t>[84]</t>
+        </is>
+      </c>
+      <c r="T51" s="1" t="inlineStr">
+        <is>
+          <t>Ground Elevation updated from MW</t>
+        </is>
+      </c>
+      <c r="U51" s="1" t="inlineStr">
+        <is>
+          <t>Well Info</t>
+        </is>
+      </c>
+      <c r="V51" s="1" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="W51" s="1" t="inlineStr">
+        <is>
+          <t>2005-08-24</t>
+        </is>
+      </c>
+      <c r="X51" s="1" t="inlineStr">
+        <is>
+          <t>1.1</t>
+        </is>
+      </c>
+      <c r="Y51" s="1" t="inlineStr">
+        <is>
+          <t>2005-08-24</t>
+        </is>
+      </c>
+      <c r="Z51" s="1" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="AA51" s="1" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="AB51" s="1" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="AC51" s="1" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="AD51" s="1" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="AE51" s="1" t="inlineStr"/>
+      <c r="AF51" s="1" t="inlineStr"/>
+      <c r="AG51" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Substantial
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>PCO-2</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>Alluvial</t>
+        </is>
+      </c>
+      <c r="C52" s="1" t="inlineStr">
+        <is>
+          <t>35.83016</t>
+        </is>
+      </c>
+      <c r="D52" s="1" t="inlineStr">
+        <is>
+          <t>-106.24567</t>
+        </is>
+      </c>
+      <c r="E52" s="1" t="inlineStr">
+        <is>
+          <t>6618.3</t>
+        </is>
+      </c>
+      <c r="F52" s="1" t="inlineStr"/>
+      <c r="G52" s="1" t="inlineStr">
+        <is>
+          <t>1985-06-30 00:00:00</t>
+        </is>
+      </c>
+      <c r="H52" s="1" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="I52" s="1" t="inlineStr"/>
+      <c r="J52" s="1" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+      <c r="K52" s="1" t="inlineStr">
+        <is>
+          <t>9.500</t>
+        </is>
+      </c>
+      <c r="L52" s="1" t="inlineStr"/>
+      <c r="M52" s="1" t="inlineStr"/>
+      <c r="N52" s="1" t="inlineStr"/>
+      <c r="O52" s="1" t="inlineStr">
+        <is>
+          <t>TA-54</t>
+        </is>
+      </c>
+      <c r="P52" s="1" t="inlineStr">
+        <is>
+          <t>Pajarito</t>
+        </is>
+      </c>
+      <c r="Q52" s="1" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R52" s="1" t="inlineStr"/>
+      <c r="S52" s="1" t="inlineStr">
+        <is>
+          <t>[84]</t>
+        </is>
+      </c>
+      <c r="T52" s="1" t="inlineStr">
+        <is>
+          <t>Ground Elevation updated from MW</t>
+        </is>
+      </c>
+      <c r="U52" s="1" t="inlineStr">
+        <is>
+          <t>Well Info</t>
+        </is>
+      </c>
+      <c r="V52" s="1" t="inlineStr">
+        <is>
+          <t>5.8</t>
+        </is>
+      </c>
+      <c r="W52" s="1" t="inlineStr">
+        <is>
+          <t>2007-06-25</t>
+        </is>
+      </c>
+      <c r="X52" s="1" t="inlineStr">
+        <is>
+          <t>3.4</t>
+        </is>
+      </c>
+      <c r="Y52" s="1" t="inlineStr">
+        <is>
+          <t>2007-12-06</t>
+        </is>
+      </c>
+      <c r="Z52" s="1" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="AA52" s="1" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="AB52" s="1" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="AC52" s="1" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="AD52" s="1" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="AE52" s="1" t="inlineStr"/>
+      <c r="AF52" s="1" t="inlineStr"/>
+      <c r="AG52" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Substantial
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>PCO-3</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>Alluvial</t>
+        </is>
+      </c>
+      <c r="C53" s="1" t="inlineStr">
+        <is>
+          <t>35.82479</t>
+        </is>
+      </c>
+      <c r="D53" s="1" t="inlineStr">
+        <is>
+          <t>-106.23087</t>
+        </is>
+      </c>
+      <c r="E53" s="1" t="inlineStr">
+        <is>
+          <t>6546.3</t>
+        </is>
+      </c>
+      <c r="F53" s="1" t="inlineStr"/>
+      <c r="G53" s="1" t="inlineStr">
+        <is>
+          <t>1985-06-30 00:00:00</t>
+        </is>
+      </c>
+      <c r="H53" s="1" t="inlineStr">
+        <is>
+          <t>17.70</t>
+        </is>
+      </c>
+      <c r="I53" s="1" t="inlineStr"/>
+      <c r="J53" s="1" t="inlineStr">
+        <is>
+          <t>5.7</t>
+        </is>
+      </c>
+      <c r="K53" s="1" t="inlineStr">
+        <is>
+          <t>17.700</t>
+        </is>
+      </c>
+      <c r="L53" s="1" t="inlineStr"/>
+      <c r="M53" s="1" t="inlineStr"/>
+      <c r="N53" s="1" t="inlineStr"/>
+      <c r="O53" s="1" t="inlineStr">
+        <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="P53" s="1" t="inlineStr">
+        <is>
+          <t>Pajarito</t>
+        </is>
+      </c>
+      <c r="Q53" s="1" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R53" s="1" t="inlineStr"/>
+      <c r="S53" s="1" t="inlineStr">
+        <is>
+          <t>[84]</t>
+        </is>
+      </c>
+      <c r="T53" s="1" t="inlineStr">
+        <is>
+          <t>Ground Elevation updated from MW</t>
+        </is>
+      </c>
+      <c r="U53" s="1" t="inlineStr">
+        <is>
+          <t>Well Info</t>
+        </is>
+      </c>
+      <c r="V53" s="1" t="inlineStr">
+        <is>
+          <t>3.6</t>
+        </is>
+      </c>
+      <c r="W53" s="1" t="inlineStr">
+        <is>
+          <t>2007-12-07</t>
+        </is>
+      </c>
+      <c r="X53" s="1" t="inlineStr">
+        <is>
+          <t>2.6</t>
+        </is>
+      </c>
+      <c r="Y53" s="1" t="inlineStr">
+        <is>
+          <t>2008-03-18</t>
+        </is>
+      </c>
+      <c r="Z53" s="1" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="AA53" s="1" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="AB53" s="1" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="AC53" s="1" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="AD53" s="1" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="AE53" s="1" t="inlineStr"/>
+      <c r="AF53" s="1" t="inlineStr"/>
+      <c r="AG53" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Substantial
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>TMO-1</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>Alluvial</t>
+        </is>
+      </c>
+      <c r="C54" s="1" t="inlineStr">
+        <is>
+          <t>35.8541</t>
+        </is>
+      </c>
+      <c r="D54" s="1" t="inlineStr">
+        <is>
+          <t>-106.29585</t>
+        </is>
+      </c>
+      <c r="E54" s="1" t="inlineStr">
+        <is>
+          <t>6945.200</t>
+        </is>
+      </c>
+      <c r="F54" s="1" t="inlineStr">
+        <is>
+          <t>Qal</t>
+        </is>
+      </c>
+      <c r="G54" s="1" t="inlineStr">
+        <is>
+          <t>2008-06-09 00:00:00</t>
+        </is>
+      </c>
+      <c r="H54" s="1" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="I54" s="1" t="inlineStr">
+        <is>
+          <t>1.5 in</t>
+        </is>
+      </c>
+      <c r="J54" s="1" t="inlineStr">
+        <is>
+          <t>3.5</t>
+        </is>
+      </c>
+      <c r="K54" s="1" t="inlineStr">
+        <is>
+          <t>6.500</t>
+        </is>
+      </c>
+      <c r="L54" s="1" t="inlineStr">
+        <is>
+          <t>Brass Cap, Brass Cap, Brass Cap</t>
+        </is>
+      </c>
+      <c r="M54" s="1" t="inlineStr"/>
+      <c r="N54" s="1" t="inlineStr">
+        <is>
+          <t>MON</t>
+        </is>
+      </c>
+      <c r="O54" s="1" t="inlineStr">
+        <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="P54" s="1" t="inlineStr">
+        <is>
+          <t>Pajarito</t>
+        </is>
+      </c>
+      <c r="Q54" s="1" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R54" s="1" t="inlineStr"/>
+      <c r="S54" s="1" t="inlineStr">
+        <is>
+          <t>[84]</t>
+        </is>
+      </c>
+      <c r="T54" s="1" t="inlineStr">
+        <is>
+          <t>Geologic Unit Code updated from MW, Well Diameter [in] updated from MW</t>
+        </is>
+      </c>
+      <c r="U54" s="1" t="inlineStr">
+        <is>
+          <t>Well Info</t>
+        </is>
+      </c>
+      <c r="V54" s="1" t="inlineStr">
+        <is>
+          <t>No Detect Data</t>
+        </is>
+      </c>
+      <c r="W54" s="1" t="inlineStr">
+        <is>
+          <t>No Detect Data</t>
+        </is>
+      </c>
+      <c r="X54" s="1" t="inlineStr">
+        <is>
+          <t>No Detect Data</t>
+        </is>
+      </c>
+      <c r="Y54" s="1" t="inlineStr">
+        <is>
+          <t>No Detect Data</t>
+        </is>
+      </c>
+      <c r="Z54" s="1" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="AA54" s="1" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="AB54" s="1" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="AC54" s="1" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="AD54" s="1" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AE54" s="1" t="inlineStr"/>
+      <c r="AF54" s="1" t="inlineStr"/>
+      <c r="AG54" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">Substantial
 </t>
@@ -7368,7 +8248,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7376,12 +8256,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="11.29"/>
+    <col customWidth="1" max="1" min="1" width="12.25"/>
     <col customWidth="1" max="2" min="2" width="10.14"/>
     <col customWidth="1" max="3" min="3" width="12"/>
     <col customWidth="1" max="4" min="4" width="9.15"/>
     <col customWidth="1" max="5" min="5" width="7"/>
-    <col customWidth="1" max="6" min="6" width="13.43"/>
+    <col customWidth="1" max="6" min="6" width="16.25"/>
     <col customWidth="1" max="7" min="7" width="8.43"/>
     <col customWidth="1" max="8" min="8" width="8.43"/>
   </cols>
@@ -7916,269 +8796,269 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>MCO-4B</t>
+          <t>MCO-4</t>
         </is>
       </c>
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>35.86382</t>
+          <t>35.86407</t>
         </is>
       </c>
       <c r="C16" s="1" t="inlineStr">
         <is>
-          <t>-106.27828</t>
+          <t>-106.28106</t>
         </is>
       </c>
       <c r="D16" s="1" t="inlineStr">
         <is>
-          <t>8/1/90</t>
+          <t>10/1/63</t>
         </is>
       </c>
       <c r="E16" s="1" t="inlineStr">
         <is>
-          <t>33.9</t>
+          <t>19</t>
         </is>
       </c>
       <c r="F16" s="1" t="inlineStr">
         <is>
-          <t>8.9 - 28.9</t>
+          <t>4 - 19</t>
         </is>
       </c>
       <c r="G16" s="1" t="inlineStr">
         <is>
-          <t>6.69</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H16" s="1" t="inlineStr">
         <is>
-          <t>7/6/10</t>
+          <t>NA</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>MCO-6</t>
+          <t>MCO-4B</t>
         </is>
       </c>
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>35.86194</t>
+          <t>35.86382</t>
         </is>
       </c>
       <c r="C17" s="1" t="inlineStr">
         <is>
-          <t>-106.27289</t>
+          <t>-106.27828</t>
         </is>
       </c>
       <c r="D17" s="1" t="inlineStr">
         <is>
-          <t>3/1/74</t>
+          <t>8/1/90</t>
         </is>
       </c>
       <c r="E17" s="1" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>33.9</t>
         </is>
       </c>
       <c r="F17" s="1" t="inlineStr">
         <is>
-          <t>27 - 47</t>
+          <t>8.9 - 28.9</t>
         </is>
       </c>
       <c r="G17" s="1" t="inlineStr">
         <is>
-          <t>4.81</t>
+          <t>6.69</t>
         </is>
       </c>
       <c r="H17" s="1" t="inlineStr">
         <is>
-          <t>7/7/10</t>
+          <t>7/6/10</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>MCO-6B</t>
+          <t>MCO-6</t>
         </is>
       </c>
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t>35.86186</t>
+          <t>35.86194</t>
         </is>
       </c>
       <c r="C18" s="1" t="inlineStr">
         <is>
-          <t>-106.2729</t>
+          <t>-106.27289</t>
         </is>
       </c>
       <c r="D18" s="1" t="inlineStr">
         <is>
-          <t>8/1/90</t>
+          <t>3/1/74</t>
         </is>
       </c>
       <c r="E18" s="1" t="inlineStr">
         <is>
-          <t>47.1</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F18" s="1" t="inlineStr">
         <is>
-          <t>22 - 42</t>
+          <t>27 - 47</t>
         </is>
       </c>
       <c r="G18" s="1" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>4.81</t>
         </is>
       </c>
       <c r="H18" s="1" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>7/7/10</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>MCO-7.5</t>
+          <t>MCO-6B</t>
         </is>
       </c>
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>35.86037</t>
+          <t>35.86186</t>
         </is>
       </c>
       <c r="C19" s="1" t="inlineStr">
         <is>
-          <t>-106.26675</t>
+          <t>-106.2729</t>
         </is>
       </c>
       <c r="D19" s="1" t="inlineStr">
         <is>
-          <t>4/1/74</t>
+          <t>8/1/90</t>
         </is>
       </c>
       <c r="E19" s="1" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>47.1</t>
         </is>
       </c>
       <c r="F19" s="1" t="inlineStr">
         <is>
-          <t>35 - 60</t>
+          <t>22 - 42</t>
         </is>
       </c>
       <c r="G19" s="1" t="inlineStr">
         <is>
-          <t>4.69</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H19" s="1" t="inlineStr">
         <is>
-          <t>7/8/10</t>
+          <t>NA</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>MT-1</t>
+          <t>MCO-7.5</t>
         </is>
       </c>
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>35.86052</t>
+          <t>35.86037</t>
         </is>
       </c>
       <c r="C20" s="1" t="inlineStr">
         <is>
-          <t>-106.26739</t>
+          <t>-106.26675</t>
         </is>
       </c>
       <c r="D20" s="1" t="inlineStr">
         <is>
-          <t>11/1/88</t>
+          <t>4/1/74</t>
         </is>
       </c>
       <c r="E20" s="1" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>60</t>
         </is>
       </c>
       <c r="F20" s="1" t="inlineStr">
         <is>
-          <t>39 - 59</t>
+          <t>35 - 60</t>
         </is>
       </c>
       <c r="G20" s="1" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>4.69</t>
         </is>
       </c>
       <c r="H20" s="1" t="inlineStr">
         <is>
-          <t>4/22/05</t>
+          <t>7/8/10</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>MT-3</t>
+          <t>MCO-7A</t>
         </is>
       </c>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>35.86097</t>
+          <t>35.86056</t>
         </is>
       </c>
       <c r="C21" s="1" t="inlineStr">
         <is>
-          <t>-106.26497</t>
+          <t>-106.26996</t>
         </is>
       </c>
       <c r="D21" s="1" t="inlineStr">
         <is>
-          <t>11/1/88</t>
+          <t>11/4/89</t>
         </is>
       </c>
       <c r="E21" s="1" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>44.8</t>
         </is>
       </c>
       <c r="F21" s="1" t="inlineStr">
         <is>
-          <t>44 - 64</t>
+          <t>34.8 - 44.8</t>
         </is>
       </c>
       <c r="G21" s="1" t="inlineStr">
         <is>
-          <t>5.63</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H21" s="1" t="inlineStr">
         <is>
-          <t>7/9/10</t>
+          <t>NA</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>MT-4</t>
+          <t>MT-1</t>
         </is>
       </c>
       <c r="B22" s="1" t="inlineStr">
         <is>
-          <t>35.86091</t>
+          <t>35.86052</t>
         </is>
       </c>
       <c r="C22" s="1" t="inlineStr">
         <is>
-          <t>-106.26302</t>
+          <t>-106.26739</t>
         </is>
       </c>
       <c r="D22" s="1" t="inlineStr">
@@ -8188,299 +9068,299 @@
       </c>
       <c r="E22" s="1" t="inlineStr">
         <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="F22" s="1" t="inlineStr">
+        <is>
+          <t>39 - 59</t>
+        </is>
+      </c>
+      <c r="G22" s="1" t="inlineStr">
+        <is>
+          <t>2.8</t>
+        </is>
+      </c>
+      <c r="H22" s="1" t="inlineStr">
+        <is>
+          <t>4/22/05</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>MT-3</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>35.86097</t>
+        </is>
+      </c>
+      <c r="C23" s="1" t="inlineStr">
+        <is>
+          <t>-106.26497</t>
+        </is>
+      </c>
+      <c r="D23" s="1" t="inlineStr">
+        <is>
+          <t>11/1/88</t>
+        </is>
+      </c>
+      <c r="E23" s="1" t="inlineStr">
+        <is>
           <t>74</t>
         </is>
       </c>
-      <c r="F22" s="1" t="inlineStr">
-        <is>
-          <t>54 - 64</t>
-        </is>
-      </c>
-      <c r="G22" s="1" t="inlineStr">
-        <is>
-          <t>2.2</t>
-        </is>
-      </c>
-      <c r="H22" s="1" t="inlineStr">
-        <is>
-          <t>3/13/07</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="4" t="inlineStr">
-        <is>
-          <t>Los Alamos and Pajarito Canyons</t>
-        </is>
-      </c>
-      <c r="H23" s="5" t="n"/>
+      <c r="F23" s="1" t="inlineStr">
+        <is>
+          <t>44 - 64</t>
+        </is>
+      </c>
+      <c r="G23" s="1" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="H23" s="1" t="inlineStr">
+        <is>
+          <t>7/9/10</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>APCO-1</t>
+          <t>MT-4</t>
         </is>
       </c>
       <c r="B24" s="1" t="inlineStr">
         <is>
-          <t>35.87295</t>
+          <t>35.86091</t>
         </is>
       </c>
       <c r="C24" s="1" t="inlineStr">
         <is>
-          <t>-106.22032</t>
+          <t>-106.26302</t>
         </is>
       </c>
       <c r="D24" s="1" t="inlineStr">
         <is>
-          <t>8/15/90</t>
+          <t>11/1/88</t>
         </is>
       </c>
       <c r="E24" s="1" t="inlineStr">
         <is>
-          <t>19.7</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F24" s="1" t="inlineStr">
         <is>
-          <t>4.7 - 14.7</t>
+          <t>54 - 64</t>
         </is>
       </c>
       <c r="G24" s="1" t="inlineStr">
         <is>
-          <t>2.26</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="H24" s="1" t="inlineStr">
         <is>
-          <t>6/5/13</t>
+          <t>3/13/07</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>LAO-0.3</t>
-        </is>
-      </c>
-      <c r="B25" s="1" t="inlineStr">
-        <is>
-          <t>35.87704</t>
-        </is>
-      </c>
-      <c r="C25" s="1" t="inlineStr">
-        <is>
-          <t>-106.30272</t>
-        </is>
-      </c>
-      <c r="D25" s="1" t="inlineStr">
-        <is>
-          <t>5/27/94</t>
-        </is>
-      </c>
-      <c r="E25" s="1" t="inlineStr">
-        <is>
-          <t>11.25</t>
-        </is>
-      </c>
-      <c r="F25" s="1" t="inlineStr">
-        <is>
-          <t>5.9 - 10.9</t>
-        </is>
-      </c>
-      <c r="G25" s="1" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H25" s="1" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
+      <c r="A25" s="4" t="inlineStr">
+        <is>
+          <t>Los Alamos and Pajarito Canyons</t>
+        </is>
+      </c>
+      <c r="H25" s="5" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>LAO-0.6</t>
+          <t>APCO-1</t>
         </is>
       </c>
       <c r="B26" s="1" t="inlineStr">
         <is>
-          <t>35.87655</t>
+          <t>35.87295</t>
         </is>
       </c>
       <c r="C26" s="1" t="inlineStr">
         <is>
-          <t>-106.29614</t>
+          <t>-106.22032</t>
         </is>
       </c>
       <c r="D26" s="1" t="inlineStr">
         <is>
-          <t>5/6/94</t>
+          <t>8/15/90</t>
         </is>
       </c>
       <c r="E26" s="1" t="inlineStr">
         <is>
-          <t>13.35</t>
+          <t>19.7</t>
         </is>
       </c>
       <c r="F26" s="1" t="inlineStr">
         <is>
-          <t>8 - 13</t>
+          <t>4.7 - 14.7</t>
         </is>
       </c>
       <c r="G26" s="1" t="inlineStr">
         <is>
-          <t>5.7</t>
+          <t>2.26</t>
         </is>
       </c>
       <c r="H26" s="1" t="inlineStr">
         <is>
-          <t>8/3/06</t>
+          <t>6/5/13</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>LAO-0.7</t>
+          <t>LAO-0.3</t>
         </is>
       </c>
       <c r="B27" s="1" t="inlineStr">
         <is>
-          <t>35.87635</t>
+          <t>35.87704</t>
         </is>
       </c>
       <c r="C27" s="1" t="inlineStr">
         <is>
-          <t>-106.29457</t>
+          <t>-106.30272</t>
         </is>
       </c>
       <c r="D27" s="1" t="inlineStr">
         <is>
-          <t>6/16/93</t>
+          <t>5/27/94</t>
         </is>
       </c>
       <c r="E27" s="1" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>11.25</t>
         </is>
       </c>
       <c r="F27" s="1" t="inlineStr">
         <is>
-          <t>15 - 20</t>
+          <t>5.9 - 10.9</t>
         </is>
       </c>
       <c r="G27" s="1" t="inlineStr">
         <is>
-          <t>0.885</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H27" s="1" t="inlineStr">
         <is>
-          <t>7/9/03</t>
+          <t>NA</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>LAO-1</t>
+          <t>LAO-0.6</t>
         </is>
       </c>
       <c r="B28" s="1" t="inlineStr">
         <is>
-          <t>35.87552</t>
+          <t>35.87655</t>
         </is>
       </c>
       <c r="C28" s="1" t="inlineStr">
         <is>
-          <t>-106.2872</t>
+          <t>-106.29614</t>
         </is>
       </c>
       <c r="D28" s="1" t="inlineStr">
         <is>
-          <t>2/1/66</t>
+          <t>5/6/94</t>
         </is>
       </c>
       <c r="E28" s="1" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>13.35</t>
         </is>
       </c>
       <c r="F28" s="1" t="inlineStr">
         <is>
-          <t>8 - 28</t>
+          <t>8 - 13</t>
         </is>
       </c>
       <c r="G28" s="1" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>5.7</t>
         </is>
       </c>
       <c r="H28" s="1" t="inlineStr">
         <is>
-          <t>8/5/02</t>
+          <t>8/3/06</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>LAO-1.6g</t>
+          <t>LAO-0.7</t>
         </is>
       </c>
       <c r="B29" s="1" t="inlineStr">
         <is>
-          <t>35.87168</t>
+          <t>35.87635</t>
         </is>
       </c>
       <c r="C29" s="1" t="inlineStr">
         <is>
-          <t>-106.26463</t>
+          <t>-106.29457</t>
         </is>
       </c>
       <c r="D29" s="1" t="inlineStr">
         <is>
-          <t>3/20/96</t>
+          <t>6/16/93</t>
         </is>
       </c>
       <c r="E29" s="1" t="inlineStr">
         <is>
-          <t>30.82</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F29" s="1" t="inlineStr">
         <is>
-          <t>10.47 - 25.47</t>
+          <t>15 - 20</t>
         </is>
       </c>
       <c r="G29" s="1" t="inlineStr">
         <is>
-          <t>10.8</t>
+          <t>0.885</t>
         </is>
       </c>
       <c r="H29" s="1" t="inlineStr">
         <is>
-          <t>8/27/08</t>
+          <t>7/9/03</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>LAO-2</t>
+          <t>LAO-1</t>
         </is>
       </c>
       <c r="B30" s="1" t="inlineStr">
         <is>
-          <t>35.87316</t>
+          <t>35.87552</t>
         </is>
       </c>
       <c r="C30" s="1" t="inlineStr">
         <is>
-          <t>-106.25948</t>
+          <t>-106.2872</t>
         </is>
       </c>
       <c r="D30" s="1" t="inlineStr">
@@ -8490,123 +9370,123 @@
       </c>
       <c r="E30" s="1" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F30" s="1" t="inlineStr">
         <is>
-          <t>7 - 32</t>
+          <t>8 - 28</t>
         </is>
       </c>
       <c r="G30" s="1" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>17</t>
         </is>
       </c>
       <c r="H30" s="1" t="inlineStr">
         <is>
-          <t>7/23/07</t>
+          <t>8/5/02</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>LAO-4</t>
+          <t>LAO-1.6g</t>
         </is>
       </c>
       <c r="B31" s="1" t="inlineStr">
         <is>
-          <t>35.87216</t>
+          <t>35.87168</t>
         </is>
       </c>
       <c r="C31" s="1" t="inlineStr">
         <is>
-          <t>-106.24887</t>
+          <t>-106.26463</t>
         </is>
       </c>
       <c r="D31" s="1" t="inlineStr">
         <is>
-          <t>2/1/66</t>
+          <t>3/20/96</t>
         </is>
       </c>
       <c r="E31" s="1" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>30.82</t>
         </is>
       </c>
       <c r="F31" s="1" t="inlineStr">
         <is>
-          <t>14 - 24</t>
+          <t>10.47 - 25.47</t>
         </is>
       </c>
       <c r="G31" s="1" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>10.8</t>
         </is>
       </c>
       <c r="H31" s="1" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>8/27/08</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>LAO-4.5c</t>
+          <t>LAO-2</t>
         </is>
       </c>
       <c r="B32" s="1" t="inlineStr">
         <is>
-          <t>35.87036</t>
+          <t>35.87316</t>
         </is>
       </c>
       <c r="C32" s="1" t="inlineStr">
         <is>
-          <t>-106.23943</t>
+          <t>-106.25948</t>
         </is>
       </c>
       <c r="D32" s="1" t="inlineStr">
         <is>
-          <t>11/1/89</t>
+          <t>2/1/66</t>
         </is>
       </c>
       <c r="E32" s="1" t="inlineStr">
         <is>
-          <t>23.3</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F32" s="1" t="inlineStr">
         <is>
-          <t>13.3 - 23.3</t>
+          <t>7 - 32</t>
         </is>
       </c>
       <c r="G32" s="1" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H32" s="1" t="inlineStr">
         <is>
-          <t>7/19/07</t>
+          <t>7/23/07</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>LAO-5</t>
+          <t>LAO-3</t>
         </is>
       </c>
       <c r="B33" s="1" t="inlineStr">
         <is>
-          <t>35.86857</t>
+          <t>35.87317</t>
         </is>
       </c>
       <c r="C33" s="1" t="inlineStr">
         <is>
-          <t>-106.23047</t>
+          <t>-106.25812</t>
         </is>
       </c>
       <c r="D33" s="1" t="inlineStr">
@@ -8616,814 +9496,1066 @@
       </c>
       <c r="E33" s="1" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>24</t>
         </is>
       </c>
       <c r="F33" s="1" t="inlineStr">
         <is>
-          <t>5 - 25</t>
+          <t>9 - 24</t>
         </is>
       </c>
       <c r="G33" s="1" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H33" s="1" t="inlineStr">
         <is>
-          <t>8/3/07</t>
+          <t>NA</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>LAO-B</t>
+          <t>LAO-4</t>
         </is>
       </c>
       <c r="B34" s="1" t="inlineStr">
         <is>
-          <t>35.87883</t>
+          <t>35.87216</t>
         </is>
       </c>
       <c r="C34" s="1" t="inlineStr">
         <is>
-          <t>-106.3353</t>
+          <t>-106.24887</t>
         </is>
       </c>
       <c r="D34" s="1" t="inlineStr">
         <is>
-          <t>4/28/94</t>
+          <t>2/1/66</t>
         </is>
       </c>
       <c r="E34" s="1" t="inlineStr">
         <is>
-          <t>27.2</t>
+          <t>24</t>
         </is>
       </c>
       <c r="F34" s="1" t="inlineStr">
         <is>
-          <t>11.84 - 26.84</t>
+          <t>14 - 24</t>
         </is>
       </c>
       <c r="G34" s="1" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H34" s="1" t="inlineStr">
         <is>
-          <t>5/10/05</t>
+          <t>NA</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>LAO-C</t>
+          <t>LAO-4.5</t>
         </is>
       </c>
       <c r="B35" s="1" t="inlineStr">
         <is>
-          <t>35.87906</t>
+          <t>35.87039</t>
         </is>
       </c>
       <c r="C35" s="1" t="inlineStr">
         <is>
-          <t>-106.31164</t>
+          <t>-106.23906</t>
         </is>
       </c>
       <c r="D35" s="1" t="inlineStr">
         <is>
-          <t>8/1/70</t>
+          <t>4/1/69</t>
         </is>
       </c>
       <c r="E35" s="1" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>40</t>
         </is>
       </c>
       <c r="F35" s="1" t="inlineStr">
         <is>
-          <t>3 - 13</t>
+          <t>10 - 40</t>
         </is>
       </c>
       <c r="G35" s="1" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H35" s="1" t="inlineStr">
         <is>
-          <t>7/9/03</t>
+          <t>NA</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>PAO-3</t>
+          <t>LAO-4.5c</t>
         </is>
       </c>
       <c r="B36" s="1" t="inlineStr">
         <is>
-          <t>35.88349</t>
+          <t>35.87036</t>
         </is>
       </c>
       <c r="C36" s="1" t="inlineStr">
         <is>
-          <t>-106.25901</t>
+          <t>-106.23943</t>
         </is>
       </c>
       <c r="D36" s="1" t="inlineStr">
         <is>
-          <t>8/27/98</t>
+          <t>11/1/89</t>
         </is>
       </c>
       <c r="E36" s="1" t="inlineStr">
         <is>
-          <t>13.47</t>
+          <t>23.3</t>
         </is>
       </c>
       <c r="F36" s="1" t="inlineStr">
         <is>
-          <t>5.62 - 10.62</t>
+          <t>13.3 - 23.3</t>
         </is>
       </c>
       <c r="G36" s="1" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="H36" s="1" t="inlineStr">
         <is>
-          <t>5/10/05</t>
+          <t>7/19/07</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>PAO-4</t>
+          <t>LAO-5</t>
         </is>
       </c>
       <c r="B37" s="1" t="inlineStr">
         <is>
-          <t>35.87866</t>
+          <t>35.86857</t>
         </is>
       </c>
       <c r="C37" s="1" t="inlineStr">
         <is>
-          <t>-106.23085</t>
+          <t>-106.23047</t>
         </is>
       </c>
       <c r="D37" s="1" t="inlineStr">
         <is>
-          <t>7/24/97</t>
+          <t>2/1/66</t>
         </is>
       </c>
       <c r="E37" s="1" t="inlineStr">
         <is>
-          <t>9.82</t>
+          <t>25</t>
         </is>
       </c>
       <c r="F37" s="1" t="inlineStr">
         <is>
-          <t>1.97 - 6.97</t>
+          <t>5 - 25</t>
         </is>
       </c>
       <c r="G37" s="1" t="inlineStr">
         <is>
-          <t>2.6</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="H37" s="1" t="inlineStr">
         <is>
-          <t>8/2/07</t>
+          <t>8/3/07</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>18-BG-1</t>
+          <t>LAO-6</t>
         </is>
       </c>
       <c r="B38" s="1" t="inlineStr">
         <is>
-          <t>35.84426</t>
+          <t>35.86831</t>
         </is>
       </c>
       <c r="C38" s="1" t="inlineStr">
         <is>
-          <t>-106.27114</t>
+          <t>-106.23041</t>
         </is>
       </c>
       <c r="D38" s="1" t="inlineStr">
         <is>
-          <t>9/1/94</t>
+          <t>2/1/66</t>
         </is>
       </c>
       <c r="E38" s="1" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F38" s="1" t="inlineStr">
         <is>
-          <t>10 - 35</t>
+          <t>6 - 16</t>
         </is>
       </c>
       <c r="G38" s="1" t="inlineStr">
         <is>
-          <t>6.72</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H38" s="1" t="inlineStr">
         <is>
-          <t>2/22/10</t>
+          <t>NA</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>18-MW-11</t>
+          <t>LAO-6a</t>
         </is>
       </c>
       <c r="B39" s="1" t="inlineStr">
         <is>
-          <t>35.84031</t>
+          <t>35.86835</t>
         </is>
       </c>
       <c r="C39" s="1" t="inlineStr">
         <is>
-          <t>-106.2649</t>
-        </is>
-      </c>
-      <c r="D39" s="1" t="inlineStr"/>
+          <t>-106.23041</t>
+        </is>
+      </c>
+      <c r="D39" s="1" t="inlineStr">
+        <is>
+          <t>8/17/89</t>
+        </is>
+      </c>
       <c r="E39" s="1" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>14.2</t>
         </is>
       </c>
       <c r="F39" s="1" t="inlineStr">
         <is>
-          <t>27 - 47</t>
+          <t>4.2 - 14.2</t>
         </is>
       </c>
       <c r="G39" s="1" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H39" s="1" t="inlineStr">
         <is>
-          <t>6/17/08</t>
+          <t>NA</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>18-MW-8</t>
+          <t>LAO-B</t>
         </is>
       </c>
       <c r="B40" s="1" t="inlineStr">
         <is>
-          <t>35.83899</t>
+          <t>35.87883</t>
         </is>
       </c>
       <c r="C40" s="1" t="inlineStr">
         <is>
-          <t>-106.26924</t>
+          <t>-106.3353</t>
         </is>
       </c>
       <c r="D40" s="1" t="inlineStr">
         <is>
-          <t>8/4/94</t>
+          <t>4/28/94</t>
         </is>
       </c>
       <c r="E40" s="1" t="inlineStr">
         <is>
-          <t>37.9</t>
+          <t>27.2</t>
         </is>
       </c>
       <c r="F40" s="1" t="inlineStr">
         <is>
-          <t>8 - 38</t>
+          <t>11.84 - 26.84</t>
         </is>
       </c>
       <c r="G40" s="1" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="H40" s="1" t="inlineStr">
         <is>
-          <t>6/16/08</t>
+          <t>5/10/05</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>18-MW-9</t>
+          <t>LAO-C</t>
         </is>
       </c>
       <c r="B41" s="1" t="inlineStr">
         <is>
-          <t>35.83964</t>
+          <t>35.87906</t>
         </is>
       </c>
       <c r="C41" s="1" t="inlineStr">
         <is>
-          <t>-106.26507</t>
+          <t>-106.31164</t>
         </is>
       </c>
       <c r="D41" s="1" t="inlineStr">
         <is>
-          <t>7/21/94</t>
+          <t>8/1/70</t>
         </is>
       </c>
       <c r="E41" s="1" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F41" s="1" t="inlineStr">
         <is>
-          <t>6 - 21</t>
+          <t>3 - 13</t>
         </is>
       </c>
       <c r="G41" s="1" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="H41" s="1" t="inlineStr">
         <is>
-          <t>12/11/06</t>
+          <t>7/9/03</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>3MAO-2</t>
+          <t>PAO-3</t>
         </is>
       </c>
       <c r="B42" s="1" t="inlineStr">
         <is>
-          <t>35.83915</t>
+          <t>35.88349</t>
         </is>
       </c>
       <c r="C42" s="1" t="inlineStr">
         <is>
-          <t>-106.27238</t>
+          <t>-106.25901</t>
         </is>
       </c>
       <c r="D42" s="1" t="inlineStr">
         <is>
-          <t>6/4/08</t>
+          <t>8/27/98</t>
         </is>
       </c>
       <c r="E42" s="1" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>13.47</t>
         </is>
       </c>
       <c r="F42" s="1" t="inlineStr">
         <is>
-          <t>14.7 - 24.7</t>
+          <t>5.62 - 10.62</t>
         </is>
       </c>
       <c r="G42" s="1" t="inlineStr">
         <is>
-          <t>5.56</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="H42" s="1" t="inlineStr">
         <is>
-          <t>6/7/10</t>
+          <t>5/10/05</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>PCAO-5</t>
+          <t>PAO-4</t>
         </is>
       </c>
       <c r="B43" s="1" t="inlineStr">
         <is>
-          <t>35.85353</t>
+          <t>35.87866</t>
         </is>
       </c>
       <c r="C43" s="1" t="inlineStr">
         <is>
-          <t>-106.29474</t>
+          <t>-106.23085</t>
         </is>
       </c>
       <c r="D43" s="1" t="inlineStr">
         <is>
-          <t>5/3/08</t>
+          <t>7/24/97</t>
         </is>
       </c>
       <c r="E43" s="1" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>9.82</t>
         </is>
       </c>
       <c r="F43" s="1" t="inlineStr">
         <is>
-          <t>14.7 - 24.7</t>
+          <t>1.97 - 6.97</t>
         </is>
       </c>
       <c r="G43" s="1" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2.6</t>
         </is>
       </c>
       <c r="H43" s="1" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>8/2/07</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>PCAO-6</t>
+          <t>18-BG-1</t>
         </is>
       </c>
       <c r="B44" s="1" t="inlineStr">
         <is>
-          <t>35.85336</t>
+          <t>35.84426</t>
         </is>
       </c>
       <c r="C44" s="1" t="inlineStr">
         <is>
-          <t>-106.29322</t>
+          <t>-106.27114</t>
         </is>
       </c>
       <c r="D44" s="1" t="inlineStr">
         <is>
-          <t>6/5/08</t>
+          <t>9/1/94</t>
         </is>
       </c>
       <c r="E44" s="1" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F44" s="1" t="inlineStr">
         <is>
-          <t>8 - 15</t>
+          <t>10 - 35</t>
         </is>
       </c>
       <c r="G44" s="1" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>6.72</t>
         </is>
       </c>
       <c r="H44" s="1" t="inlineStr">
         <is>
-          <t>6/4/10</t>
+          <t>2/22/10</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>PCAO-7a</t>
+          <t>18-MW-11</t>
         </is>
       </c>
       <c r="B45" s="1" t="inlineStr">
         <is>
-          <t>35.83869</t>
+          <t>35.84031</t>
         </is>
       </c>
       <c r="C45" s="1" t="inlineStr">
         <is>
-          <t>-106.26174</t>
-        </is>
-      </c>
-      <c r="D45" s="1" t="inlineStr">
-        <is>
-          <t>5/30/08</t>
-        </is>
-      </c>
+          <t>-106.2649</t>
+        </is>
+      </c>
+      <c r="D45" s="1" t="inlineStr"/>
       <c r="E45" s="1" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F45" s="1" t="inlineStr">
         <is>
-          <t>9.7 - 19.7</t>
+          <t>27 - 47</t>
         </is>
       </c>
       <c r="G45" s="1" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="H45" s="1" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>6/17/08</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>PCAO-7b2</t>
+          <t>18-MW-8</t>
         </is>
       </c>
       <c r="B46" s="1" t="inlineStr">
         <is>
-          <t>35.8385</t>
+          <t>35.83899</t>
         </is>
       </c>
       <c r="C46" s="1" t="inlineStr">
         <is>
-          <t>-106.26205</t>
+          <t>-106.26924</t>
         </is>
       </c>
       <c r="D46" s="1" t="inlineStr">
         <is>
-          <t>5/27/08</t>
+          <t>8/4/94</t>
         </is>
       </c>
       <c r="E46" s="1" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>37.9</t>
         </is>
       </c>
       <c r="F46" s="1" t="inlineStr">
         <is>
-          <t>10 - 20</t>
+          <t>8 - 38</t>
         </is>
       </c>
       <c r="G46" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="H46" s="1" t="inlineStr">
         <is>
-          <t>12/18/08</t>
+          <t>6/16/08</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>PCAO-7c</t>
+          <t>18-MW-9</t>
         </is>
       </c>
       <c r="B47" s="1" t="inlineStr">
         <is>
-          <t>35.8381</t>
+          <t>35.83964</t>
         </is>
       </c>
       <c r="C47" s="1" t="inlineStr">
         <is>
-          <t>-106.26252</t>
+          <t>-106.26507</t>
         </is>
       </c>
       <c r="D47" s="1" t="inlineStr">
         <is>
-          <t>5/16/08</t>
+          <t>7/21/94</t>
         </is>
       </c>
       <c r="E47" s="1" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>21</t>
         </is>
       </c>
       <c r="F47" s="1" t="inlineStr">
         <is>
-          <t>9.7 - 19.7</t>
+          <t>6 - 21</t>
         </is>
       </c>
       <c r="G47" s="1" t="inlineStr">
         <is>
-          <t>2.74</t>
+          <t>2.8</t>
         </is>
       </c>
       <c r="H47" s="1" t="inlineStr">
         <is>
-          <t>9/14/09</t>
+          <t>12/11/06</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>PCAO-9</t>
+          <t>3MAO-2</t>
         </is>
       </c>
       <c r="B48" s="1" t="inlineStr">
         <is>
-          <t>35.82614</t>
+          <t>35.83915</t>
         </is>
       </c>
       <c r="C48" s="1" t="inlineStr">
         <is>
-          <t>-106.23271</t>
+          <t>-106.27238</t>
         </is>
       </c>
       <c r="D48" s="1" t="inlineStr">
         <is>
-          <t>6/12/08</t>
+          <t>6/4/08</t>
         </is>
       </c>
       <c r="E48" s="1" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>30</t>
         </is>
       </c>
       <c r="F48" s="1" t="inlineStr">
         <is>
-          <t>6 - 16</t>
+          <t>14.7 - 24.7</t>
         </is>
       </c>
       <c r="G48" s="1" t="inlineStr">
         <is>
-          <t>9.1</t>
+          <t>5.56</t>
         </is>
       </c>
       <c r="H48" s="1" t="inlineStr">
         <is>
-          <t>9/17/08</t>
+          <t>6/7/10</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>PCO-1</t>
+          <t>PCAO-5</t>
         </is>
       </c>
       <c r="B49" s="1" t="inlineStr">
         <is>
-          <t>35.83716</t>
+          <t>35.85353</t>
         </is>
       </c>
       <c r="C49" s="1" t="inlineStr">
         <is>
-          <t>-106.25843</t>
+          <t>-106.29474</t>
         </is>
       </c>
       <c r="D49" s="1" t="inlineStr">
         <is>
-          <t>6/30/85</t>
+          <t>5/3/08</t>
         </is>
       </c>
       <c r="E49" s="1" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>30</t>
         </is>
       </c>
       <c r="F49" s="1" t="inlineStr">
         <is>
-          <t>4 - 12</t>
+          <t>14.7 - 24.7</t>
         </is>
       </c>
       <c r="G49" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H49" s="1" t="inlineStr">
         <is>
-          <t>8/24/05</t>
+          <t>NA</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>PCO-2</t>
+          <t>PCAO-6</t>
         </is>
       </c>
       <c r="B50" s="1" t="inlineStr">
         <is>
-          <t>35.83016</t>
+          <t>35.85336</t>
         </is>
       </c>
       <c r="C50" s="1" t="inlineStr">
         <is>
-          <t>-106.24567</t>
+          <t>-106.29322</t>
         </is>
       </c>
       <c r="D50" s="1" t="inlineStr">
         <is>
-          <t>6/30/85</t>
+          <t>6/5/08</t>
         </is>
       </c>
       <c r="E50" s="1" t="inlineStr">
         <is>
-          <t>9.5</t>
+          <t>20</t>
         </is>
       </c>
       <c r="F50" s="1" t="inlineStr">
         <is>
-          <t>1.5 - 9.5</t>
+          <t>8 - 15</t>
         </is>
       </c>
       <c r="G50" s="1" t="inlineStr">
         <is>
-          <t>5.8</t>
+          <t>2.68</t>
         </is>
       </c>
       <c r="H50" s="1" t="inlineStr">
         <is>
-          <t>6/25/07</t>
+          <t>6/4/10</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>PCO-3</t>
+          <t>PCAO-7a</t>
         </is>
       </c>
       <c r="B51" s="1" t="inlineStr">
         <is>
-          <t>35.82479</t>
+          <t>35.83869</t>
         </is>
       </c>
       <c r="C51" s="1" t="inlineStr">
         <is>
-          <t>-106.23087</t>
+          <t>-106.26174</t>
         </is>
       </c>
       <c r="D51" s="1" t="inlineStr">
         <is>
-          <t>6/30/85</t>
+          <t>5/30/08</t>
         </is>
       </c>
       <c r="E51" s="1" t="inlineStr">
         <is>
-          <t>17.7</t>
+          <t>25</t>
         </is>
       </c>
       <c r="F51" s="1" t="inlineStr">
         <is>
-          <t>5.7 - 17.7</t>
+          <t>9.7 - 19.7</t>
         </is>
       </c>
       <c r="G51" s="1" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H51" s="1" t="inlineStr">
         <is>
-          <t>12/7/07</t>
+          <t>NA</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
+          <t>PCAO-7b2</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>35.8385</t>
+        </is>
+      </c>
+      <c r="C52" s="1" t="inlineStr">
+        <is>
+          <t>-106.26205</t>
+        </is>
+      </c>
+      <c r="D52" s="1" t="inlineStr">
+        <is>
+          <t>5/27/08</t>
+        </is>
+      </c>
+      <c r="E52" s="1" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="F52" s="1" t="inlineStr">
+        <is>
+          <t>10 - 20</t>
+        </is>
+      </c>
+      <c r="G52" s="1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H52" s="1" t="inlineStr">
+        <is>
+          <t>12/18/08</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>PCAO-7c</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>35.8381</t>
+        </is>
+      </c>
+      <c r="C53" s="1" t="inlineStr">
+        <is>
+          <t>-106.26252</t>
+        </is>
+      </c>
+      <c r="D53" s="1" t="inlineStr">
+        <is>
+          <t>5/16/08</t>
+        </is>
+      </c>
+      <c r="E53" s="1" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="F53" s="1" t="inlineStr">
+        <is>
+          <t>9.7 - 19.7</t>
+        </is>
+      </c>
+      <c r="G53" s="1" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="H53" s="1" t="inlineStr">
+        <is>
+          <t>9/14/09</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>PCAO-9</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>35.82614</t>
+        </is>
+      </c>
+      <c r="C54" s="1" t="inlineStr">
+        <is>
+          <t>-106.23271</t>
+        </is>
+      </c>
+      <c r="D54" s="1" t="inlineStr">
+        <is>
+          <t>6/12/08</t>
+        </is>
+      </c>
+      <c r="E54" s="1" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="F54" s="1" t="inlineStr">
+        <is>
+          <t>6 - 16</t>
+        </is>
+      </c>
+      <c r="G54" s="1" t="inlineStr">
+        <is>
+          <t>9.1</t>
+        </is>
+      </c>
+      <c r="H54" s="1" t="inlineStr">
+        <is>
+          <t>9/17/08</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>PCO-1</t>
+        </is>
+      </c>
+      <c r="B55" s="1" t="inlineStr">
+        <is>
+          <t>35.83716</t>
+        </is>
+      </c>
+      <c r="C55" s="1" t="inlineStr">
+        <is>
+          <t>-106.25843</t>
+        </is>
+      </c>
+      <c r="D55" s="1" t="inlineStr">
+        <is>
+          <t>6/30/85</t>
+        </is>
+      </c>
+      <c r="E55" s="1" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F55" s="1" t="inlineStr">
+        <is>
+          <t>4 - 12</t>
+        </is>
+      </c>
+      <c r="G55" s="1" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H55" s="1" t="inlineStr">
+        <is>
+          <t>8/24/05</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>PCO-2</t>
+        </is>
+      </c>
+      <c r="B56" s="1" t="inlineStr">
+        <is>
+          <t>35.83016</t>
+        </is>
+      </c>
+      <c r="C56" s="1" t="inlineStr">
+        <is>
+          <t>-106.24567</t>
+        </is>
+      </c>
+      <c r="D56" s="1" t="inlineStr">
+        <is>
+          <t>6/30/85</t>
+        </is>
+      </c>
+      <c r="E56" s="1" t="inlineStr">
+        <is>
+          <t>9.5</t>
+        </is>
+      </c>
+      <c r="F56" s="1" t="inlineStr">
+        <is>
+          <t>1.5 - 9.5</t>
+        </is>
+      </c>
+      <c r="G56" s="1" t="inlineStr">
+        <is>
+          <t>5.8</t>
+        </is>
+      </c>
+      <c r="H56" s="1" t="inlineStr">
+        <is>
+          <t>6/25/07</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>PCO-3</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>35.82479</t>
+        </is>
+      </c>
+      <c r="C57" s="1" t="inlineStr">
+        <is>
+          <t>-106.23087</t>
+        </is>
+      </c>
+      <c r="D57" s="1" t="inlineStr">
+        <is>
+          <t>6/30/85</t>
+        </is>
+      </c>
+      <c r="E57" s="1" t="inlineStr">
+        <is>
+          <t>17.7</t>
+        </is>
+      </c>
+      <c r="F57" s="1" t="inlineStr">
+        <is>
+          <t>5.7 - 17.7</t>
+        </is>
+      </c>
+      <c r="G57" s="1" t="inlineStr">
+        <is>
+          <t>3.6</t>
+        </is>
+      </c>
+      <c r="H57" s="1" t="inlineStr">
+        <is>
+          <t>12/7/07</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
           <t>TMO-1</t>
         </is>
       </c>
-      <c r="B52" s="1" t="inlineStr">
+      <c r="B58" s="1" t="inlineStr">
         <is>
           <t>35.8541</t>
         </is>
       </c>
-      <c r="C52" s="1" t="inlineStr">
+      <c r="C58" s="1" t="inlineStr">
         <is>
           <t>-106.29585</t>
         </is>
       </c>
-      <c r="D52" s="1" t="inlineStr">
+      <c r="D58" s="1" t="inlineStr">
         <is>
           <t>6/9/08</t>
         </is>
       </c>
-      <c r="E52" s="1" t="inlineStr">
+      <c r="E58" s="1" t="inlineStr">
         <is>
           <t>6.5</t>
         </is>
       </c>
-      <c r="F52" s="1" t="inlineStr">
+      <c r="F58" s="1" t="inlineStr">
         <is>
           <t>3.5 - 6.5</t>
         </is>
       </c>
-      <c r="G52" s="1" t="inlineStr">
+      <c r="G58" s="1" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="H52" s="1" t="inlineStr">
+      <c r="H58" s="1" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
@@ -9434,7 +10566,7 @@
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="A25:H25"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Tables/Alluvial- Appendix.xlsx
+++ b/Tables/Alluvial- Appendix.xlsx
@@ -1231,7 +1231,7 @@
       </c>
       <c r="P6" s="1" t="inlineStr">
         <is>
-          <t>Mortendad</t>
+          <t>Mortandad</t>
         </is>
       </c>
       <c r="Q6" s="1" t="inlineStr">
@@ -1367,7 +1367,7 @@
       </c>
       <c r="P7" s="1" t="inlineStr">
         <is>
-          <t>Mortendad</t>
+          <t>Mortandad</t>
         </is>
       </c>
       <c r="Q7" s="1" t="inlineStr">
@@ -1519,7 +1519,7 @@
       </c>
       <c r="P8" s="1" t="inlineStr">
         <is>
-          <t>Mortendad</t>
+          <t>Mortandad</t>
         </is>
       </c>
       <c r="Q8" s="1" t="inlineStr">
@@ -1675,7 +1675,7 @@
       </c>
       <c r="P9" s="1" t="inlineStr">
         <is>
-          <t>Mortendad</t>
+          <t>Mortandad</t>
         </is>
       </c>
       <c r="Q9" s="1" t="inlineStr">
@@ -1827,7 +1827,7 @@
       </c>
       <c r="P10" s="1" t="inlineStr">
         <is>
-          <t>Mortendad</t>
+          <t>Mortandad</t>
         </is>
       </c>
       <c r="Q10" s="1" t="inlineStr">
@@ -1963,7 +1963,7 @@
       </c>
       <c r="P11" s="1" t="inlineStr">
         <is>
-          <t>Mortendad</t>
+          <t>Mortandad</t>
         </is>
       </c>
       <c r="Q11" s="1" t="inlineStr">
@@ -2103,7 +2103,7 @@
       </c>
       <c r="P12" s="1" t="inlineStr">
         <is>
-          <t>Mortendad</t>
+          <t>Mortandad</t>
         </is>
       </c>
       <c r="Q12" s="1" t="inlineStr">
@@ -2251,7 +2251,7 @@
       </c>
       <c r="P13" s="1" t="inlineStr">
         <is>
-          <t>Mortendad</t>
+          <t>Mortandad</t>
         </is>
       </c>
       <c r="Q13" s="1" t="inlineStr">
@@ -2391,7 +2391,7 @@
       </c>
       <c r="P14" s="1" t="inlineStr">
         <is>
-          <t>Mortendad</t>
+          <t>Mortandad</t>
         </is>
       </c>
       <c r="Q14" s="1" t="inlineStr">
@@ -2531,7 +2531,7 @@
       </c>
       <c r="P15" s="1" t="inlineStr">
         <is>
-          <t>Mortendad</t>
+          <t>Mortandad</t>
         </is>
       </c>
       <c r="Q15" s="1" t="inlineStr">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="P16" s="1" t="inlineStr">
         <is>
-          <t>Mortendad</t>
+          <t>Mortandad</t>
         </is>
       </c>
       <c r="Q16" s="1" t="inlineStr">
@@ -2815,7 +2815,7 @@
       </c>
       <c r="P17" s="1" t="inlineStr">
         <is>
-          <t>Mortendad</t>
+          <t>Mortandad</t>
         </is>
       </c>
       <c r="Q17" s="1" t="inlineStr">
@@ -2959,7 +2959,7 @@
       </c>
       <c r="P18" s="1" t="inlineStr">
         <is>
-          <t>Mortendad</t>
+          <t>Mortandad</t>
         </is>
       </c>
       <c r="Q18" s="1" t="inlineStr">
@@ -3103,7 +3103,7 @@
       </c>
       <c r="P19" s="1" t="inlineStr">
         <is>
-          <t>Mortendad</t>
+          <t>Mortandad</t>
         </is>
       </c>
       <c r="Q19" s="1" t="inlineStr">
@@ -3235,7 +3235,7 @@
       </c>
       <c r="P20" s="1" t="inlineStr">
         <is>
-          <t>Mortendad</t>
+          <t>Mortandad</t>
         </is>
       </c>
       <c r="Q20" s="1" t="inlineStr">
@@ -3367,7 +3367,7 @@
       </c>
       <c r="P21" s="1" t="inlineStr">
         <is>
-          <t>Mortendad</t>
+          <t>Mortandad</t>
         </is>
       </c>
       <c r="Q21" s="1" t="inlineStr">
@@ -8248,7 +8248,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H58"/>
+  <dimension ref="A1:H59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8258,7 +8258,7 @@
   <cols>
     <col customWidth="1" max="1" min="1" width="12.25"/>
     <col customWidth="1" max="2" min="2" width="10.14"/>
-    <col customWidth="1" max="3" min="3" width="12"/>
+    <col customWidth="1" max="3" min="3" width="13"/>
     <col customWidth="1" max="4" min="4" width="9.15"/>
     <col customWidth="1" max="5" min="5" width="7"/>
     <col customWidth="1" max="6" min="6" width="16.25"/>
@@ -8494,7 +8494,7 @@
     <row r="8">
       <c r="A8" s="4" t="inlineStr">
         <is>
-          <t>Mortendad Canyon</t>
+          <t>Mortandad Canyon</t>
         </is>
       </c>
       <c r="H8" s="5" t="n"/>
@@ -9174,7 +9174,7 @@
     <row r="25">
       <c r="A25" s="4" t="inlineStr">
         <is>
-          <t>Los Alamos and Pajarito Canyons</t>
+          <t>Los Alamos Canyon</t>
         </is>
       </c>
       <c r="H25" s="5" t="n"/>
@@ -9936,230 +9936,196 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="inlineStr">
-        <is>
-          <t>18-BG-1</t>
-        </is>
-      </c>
-      <c r="B44" s="1" t="inlineStr">
-        <is>
-          <t>35.84426</t>
-        </is>
-      </c>
-      <c r="C44" s="1" t="inlineStr">
-        <is>
-          <t>-106.27114</t>
-        </is>
-      </c>
-      <c r="D44" s="1" t="inlineStr">
-        <is>
-          <t>9/1/94</t>
-        </is>
-      </c>
-      <c r="E44" s="1" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="F44" s="1" t="inlineStr">
-        <is>
-          <t>10 - 35</t>
-        </is>
-      </c>
-      <c r="G44" s="1" t="inlineStr">
-        <is>
-          <t>6.72</t>
-        </is>
-      </c>
-      <c r="H44" s="1" t="inlineStr">
-        <is>
-          <t>2/22/10</t>
-        </is>
-      </c>
+      <c r="A44" s="4" t="inlineStr">
+        <is>
+          <t>Pajarito Canyon</t>
+        </is>
+      </c>
+      <c r="H44" s="5" t="n"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>18-MW-11</t>
+          <t>18-BG-1</t>
         </is>
       </c>
       <c r="B45" s="1" t="inlineStr">
         <is>
-          <t>35.84031</t>
+          <t>35.84426</t>
         </is>
       </c>
       <c r="C45" s="1" t="inlineStr">
         <is>
-          <t>-106.2649</t>
-        </is>
-      </c>
-      <c r="D45" s="1" t="inlineStr"/>
+          <t>-106.27114</t>
+        </is>
+      </c>
+      <c r="D45" s="1" t="inlineStr">
+        <is>
+          <t>9/1/94</t>
+        </is>
+      </c>
       <c r="E45" s="1" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F45" s="1" t="inlineStr">
         <is>
-          <t>27 - 47</t>
+          <t>10 - 35</t>
         </is>
       </c>
       <c r="G45" s="1" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>6.72</t>
         </is>
       </c>
       <c r="H45" s="1" t="inlineStr">
         <is>
-          <t>6/17/08</t>
+          <t>2/22/10</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>18-MW-8</t>
+          <t>18-MW-11</t>
         </is>
       </c>
       <c r="B46" s="1" t="inlineStr">
         <is>
-          <t>35.83899</t>
+          <t>35.84031</t>
         </is>
       </c>
       <c r="C46" s="1" t="inlineStr">
         <is>
-          <t>-106.26924</t>
-        </is>
-      </c>
-      <c r="D46" s="1" t="inlineStr">
-        <is>
-          <t>8/4/94</t>
-        </is>
-      </c>
+          <t>-106.2649</t>
+        </is>
+      </c>
+      <c r="D46" s="1" t="inlineStr"/>
       <c r="E46" s="1" t="inlineStr">
         <is>
-          <t>37.9</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F46" s="1" t="inlineStr">
         <is>
-          <t>8 - 38</t>
+          <t>27 - 47</t>
         </is>
       </c>
       <c r="G46" s="1" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="H46" s="1" t="inlineStr">
         <is>
-          <t>6/16/08</t>
+          <t>6/17/08</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>18-MW-9</t>
+          <t>18-MW-8</t>
         </is>
       </c>
       <c r="B47" s="1" t="inlineStr">
         <is>
-          <t>35.83964</t>
+          <t>35.83899</t>
         </is>
       </c>
       <c r="C47" s="1" t="inlineStr">
         <is>
-          <t>-106.26507</t>
+          <t>-106.26924</t>
         </is>
       </c>
       <c r="D47" s="1" t="inlineStr">
         <is>
-          <t>7/21/94</t>
+          <t>8/4/94</t>
         </is>
       </c>
       <c r="E47" s="1" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>37.9</t>
         </is>
       </c>
       <c r="F47" s="1" t="inlineStr">
         <is>
-          <t>6 - 21</t>
+          <t>8 - 38</t>
         </is>
       </c>
       <c r="G47" s="1" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="H47" s="1" t="inlineStr">
         <is>
-          <t>12/11/06</t>
+          <t>6/16/08</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>3MAO-2</t>
+          <t>18-MW-9</t>
         </is>
       </c>
       <c r="B48" s="1" t="inlineStr">
         <is>
-          <t>35.83915</t>
+          <t>35.83964</t>
         </is>
       </c>
       <c r="C48" s="1" t="inlineStr">
         <is>
-          <t>-106.27238</t>
+          <t>-106.26507</t>
         </is>
       </c>
       <c r="D48" s="1" t="inlineStr">
         <is>
-          <t>6/4/08</t>
+          <t>7/21/94</t>
         </is>
       </c>
       <c r="E48" s="1" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>21</t>
         </is>
       </c>
       <c r="F48" s="1" t="inlineStr">
         <is>
-          <t>14.7 - 24.7</t>
+          <t>6 - 21</t>
         </is>
       </c>
       <c r="G48" s="1" t="inlineStr">
         <is>
-          <t>5.56</t>
+          <t>2.8</t>
         </is>
       </c>
       <c r="H48" s="1" t="inlineStr">
         <is>
-          <t>6/7/10</t>
+          <t>12/11/06</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>PCAO-5</t>
+          <t>3MAO-2</t>
         </is>
       </c>
       <c r="B49" s="1" t="inlineStr">
         <is>
-          <t>35.85353</t>
+          <t>35.83915</t>
         </is>
       </c>
       <c r="C49" s="1" t="inlineStr">
         <is>
-          <t>-106.29474</t>
+          <t>-106.27238</t>
         </is>
       </c>
       <c r="D49" s="1" t="inlineStr">
         <is>
-          <t>5/3/08</t>
+          <t>6/4/08</t>
         </is>
       </c>
       <c r="E49" s="1" t="inlineStr">
@@ -10174,118 +10140,118 @@
       </c>
       <c r="G49" s="1" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>5.56</t>
         </is>
       </c>
       <c r="H49" s="1" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>6/7/10</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>PCAO-6</t>
+          <t>PCAO-5</t>
         </is>
       </c>
       <c r="B50" s="1" t="inlineStr">
         <is>
-          <t>35.85336</t>
+          <t>35.85353</t>
         </is>
       </c>
       <c r="C50" s="1" t="inlineStr">
         <is>
-          <t>-106.29322</t>
+          <t>-106.29474</t>
         </is>
       </c>
       <c r="D50" s="1" t="inlineStr">
         <is>
-          <t>6/5/08</t>
+          <t>5/3/08</t>
         </is>
       </c>
       <c r="E50" s="1" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>30</t>
         </is>
       </c>
       <c r="F50" s="1" t="inlineStr">
         <is>
-          <t>8 - 15</t>
+          <t>14.7 - 24.7</t>
         </is>
       </c>
       <c r="G50" s="1" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H50" s="1" t="inlineStr">
         <is>
-          <t>6/4/10</t>
+          <t>NA</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>PCAO-7a</t>
+          <t>PCAO-6</t>
         </is>
       </c>
       <c r="B51" s="1" t="inlineStr">
         <is>
-          <t>35.83869</t>
+          <t>35.85336</t>
         </is>
       </c>
       <c r="C51" s="1" t="inlineStr">
         <is>
-          <t>-106.26174</t>
+          <t>-106.29322</t>
         </is>
       </c>
       <c r="D51" s="1" t="inlineStr">
         <is>
-          <t>5/30/08</t>
+          <t>6/5/08</t>
         </is>
       </c>
       <c r="E51" s="1" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>20</t>
         </is>
       </c>
       <c r="F51" s="1" t="inlineStr">
         <is>
-          <t>9.7 - 19.7</t>
+          <t>8 - 15</t>
         </is>
       </c>
       <c r="G51" s="1" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2.68</t>
         </is>
       </c>
       <c r="H51" s="1" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>6/4/10</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>PCAO-7b2</t>
+          <t>PCAO-7a</t>
         </is>
       </c>
       <c r="B52" s="1" t="inlineStr">
         <is>
-          <t>35.8385</t>
+          <t>35.83869</t>
         </is>
       </c>
       <c r="C52" s="1" t="inlineStr">
         <is>
-          <t>-106.26205</t>
+          <t>-106.26174</t>
         </is>
       </c>
       <c r="D52" s="1" t="inlineStr">
         <is>
-          <t>5/27/08</t>
+          <t>5/30/08</t>
         </is>
       </c>
       <c r="E52" s="1" t="inlineStr">
@@ -10295,39 +10261,39 @@
       </c>
       <c r="F52" s="1" t="inlineStr">
         <is>
-          <t>10 - 20</t>
+          <t>9.7 - 19.7</t>
         </is>
       </c>
       <c r="G52" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H52" s="1" t="inlineStr">
         <is>
-          <t>12/18/08</t>
+          <t>NA</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>PCAO-7c</t>
+          <t>PCAO-7b2</t>
         </is>
       </c>
       <c r="B53" s="1" t="inlineStr">
         <is>
-          <t>35.8381</t>
+          <t>35.8385</t>
         </is>
       </c>
       <c r="C53" s="1" t="inlineStr">
         <is>
-          <t>-106.26252</t>
+          <t>-106.26205</t>
         </is>
       </c>
       <c r="D53" s="1" t="inlineStr">
         <is>
-          <t>5/16/08</t>
+          <t>5/27/08</t>
         </is>
       </c>
       <c r="E53" s="1" t="inlineStr">
@@ -10337,118 +10303,118 @@
       </c>
       <c r="F53" s="1" t="inlineStr">
         <is>
-          <t>9.7 - 19.7</t>
+          <t>10 - 20</t>
         </is>
       </c>
       <c r="G53" s="1" t="inlineStr">
         <is>
-          <t>2.74</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H53" s="1" t="inlineStr">
         <is>
-          <t>9/14/09</t>
+          <t>12/18/08</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>PCAO-9</t>
+          <t>PCAO-7c</t>
         </is>
       </c>
       <c r="B54" s="1" t="inlineStr">
         <is>
-          <t>35.82614</t>
+          <t>35.8381</t>
         </is>
       </c>
       <c r="C54" s="1" t="inlineStr">
         <is>
-          <t>-106.23271</t>
+          <t>-106.26252</t>
         </is>
       </c>
       <c r="D54" s="1" t="inlineStr">
         <is>
-          <t>6/12/08</t>
+          <t>5/16/08</t>
         </is>
       </c>
       <c r="E54" s="1" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>25</t>
         </is>
       </c>
       <c r="F54" s="1" t="inlineStr">
         <is>
-          <t>6 - 16</t>
+          <t>9.7 - 19.7</t>
         </is>
       </c>
       <c r="G54" s="1" t="inlineStr">
         <is>
-          <t>9.1</t>
+          <t>2.74</t>
         </is>
       </c>
       <c r="H54" s="1" t="inlineStr">
         <is>
-          <t>9/17/08</t>
+          <t>9/14/09</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>PCO-1</t>
+          <t>PCAO-9</t>
         </is>
       </c>
       <c r="B55" s="1" t="inlineStr">
         <is>
-          <t>35.83716</t>
+          <t>35.82614</t>
         </is>
       </c>
       <c r="C55" s="1" t="inlineStr">
         <is>
-          <t>-106.25843</t>
+          <t>-106.23271</t>
         </is>
       </c>
       <c r="D55" s="1" t="inlineStr">
         <is>
-          <t>6/30/85</t>
+          <t>6/12/08</t>
         </is>
       </c>
       <c r="E55" s="1" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>21</t>
         </is>
       </c>
       <c r="F55" s="1" t="inlineStr">
         <is>
-          <t>4 - 12</t>
+          <t>6 - 16</t>
         </is>
       </c>
       <c r="G55" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>9.1</t>
         </is>
       </c>
       <c r="H55" s="1" t="inlineStr">
         <is>
-          <t>8/24/05</t>
+          <t>9/17/08</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>PCO-2</t>
+          <t>PCO-1</t>
         </is>
       </c>
       <c r="B56" s="1" t="inlineStr">
         <is>
-          <t>35.83016</t>
+          <t>35.83716</t>
         </is>
       </c>
       <c r="C56" s="1" t="inlineStr">
         <is>
-          <t>-106.24567</t>
+          <t>-106.25843</t>
         </is>
       </c>
       <c r="D56" s="1" t="inlineStr">
@@ -10458,39 +10424,39 @@
       </c>
       <c r="E56" s="1" t="inlineStr">
         <is>
-          <t>9.5</t>
+          <t>12</t>
         </is>
       </c>
       <c r="F56" s="1" t="inlineStr">
         <is>
-          <t>1.5 - 9.5</t>
+          <t>4 - 12</t>
         </is>
       </c>
       <c r="G56" s="1" t="inlineStr">
         <is>
-          <t>5.8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H56" s="1" t="inlineStr">
         <is>
-          <t>6/25/07</t>
+          <t>8/24/05</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>PCO-3</t>
+          <t>PCO-2</t>
         </is>
       </c>
       <c r="B57" s="1" t="inlineStr">
         <is>
-          <t>35.82479</t>
+          <t>35.83016</t>
         </is>
       </c>
       <c r="C57" s="1" t="inlineStr">
         <is>
-          <t>-106.23087</t>
+          <t>-106.24567</t>
         </is>
       </c>
       <c r="D57" s="1" t="inlineStr">
@@ -10500,73 +10466,116 @@
       </c>
       <c r="E57" s="1" t="inlineStr">
         <is>
-          <t>17.7</t>
+          <t>9.5</t>
         </is>
       </c>
       <c r="F57" s="1" t="inlineStr">
         <is>
-          <t>5.7 - 17.7</t>
+          <t>1.5 - 9.5</t>
         </is>
       </c>
       <c r="G57" s="1" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>5.8</t>
         </is>
       </c>
       <c r="H57" s="1" t="inlineStr">
         <is>
-          <t>12/7/07</t>
+          <t>6/25/07</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
+          <t>PCO-3</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>35.82479</t>
+        </is>
+      </c>
+      <c r="C58" s="1" t="inlineStr">
+        <is>
+          <t>-106.23087</t>
+        </is>
+      </c>
+      <c r="D58" s="1" t="inlineStr">
+        <is>
+          <t>6/30/85</t>
+        </is>
+      </c>
+      <c r="E58" s="1" t="inlineStr">
+        <is>
+          <t>17.7</t>
+        </is>
+      </c>
+      <c r="F58" s="1" t="inlineStr">
+        <is>
+          <t>5.7 - 17.7</t>
+        </is>
+      </c>
+      <c r="G58" s="1" t="inlineStr">
+        <is>
+          <t>3.6</t>
+        </is>
+      </c>
+      <c r="H58" s="1" t="inlineStr">
+        <is>
+          <t>12/7/07</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
           <t>TMO-1</t>
         </is>
       </c>
-      <c r="B58" s="1" t="inlineStr">
+      <c r="B59" s="1" t="inlineStr">
         <is>
           <t>35.8541</t>
         </is>
       </c>
-      <c r="C58" s="1" t="inlineStr">
+      <c r="C59" s="1" t="inlineStr">
         <is>
           <t>-106.29585</t>
         </is>
       </c>
-      <c r="D58" s="1" t="inlineStr">
+      <c r="D59" s="1" t="inlineStr">
         <is>
           <t>6/9/08</t>
         </is>
       </c>
-      <c r="E58" s="1" t="inlineStr">
+      <c r="E59" s="1" t="inlineStr">
         <is>
           <t>6.5</t>
         </is>
       </c>
-      <c r="F58" s="1" t="inlineStr">
+      <c r="F59" s="1" t="inlineStr">
         <is>
           <t>3.5 - 6.5</t>
         </is>
       </c>
-      <c r="G58" s="1" t="inlineStr">
+      <c r="G59" s="1" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="H58" s="1" t="inlineStr">
+      <c r="H59" s="1" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="A8:H8"/>
     <mergeCell ref="A25:H25"/>
+    <mergeCell ref="A44:H44"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
